--- a/导表工具/L-龙魂配置.xlsx
+++ b/导表工具/L-龙魂配置.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\h10-d\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="龙魂基础配置" sheetId="3" r:id="rId1"/>
     <sheet name="龙魂星级属性" sheetId="1" r:id="rId2"/>
     <sheet name="龙魂阶数" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -26,13 +21,12 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Selenic:
@@ -40,14 +34,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -56,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -158,609 +150,1233 @@
     <t>attr</t>
   </si>
   <si>
+    <t>龙魂等级</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>物防</t>
+  </si>
+  <si>
+    <t>法防</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>战力</t>
+  </si>
+  <si>
+    <t>单级消耗</t>
+  </si>
+  <si>
     <t>"龙魂(0级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=60},{type=5,value=20},{type=6,value=20}}</t>
+  </si>
+  <si>
     <t>"龙魂(1级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=180},{type=5,value=50},{type=6,value=50}}</t>
+  </si>
+  <si>
     <t>"龙魂(2级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=300},{type=5,value=80},{type=6,value=80}}</t>
+  </si>
+  <si>
     <t>"龙魂(3级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=472},{type=5,value=123},{type=6,value=123}}</t>
+  </si>
+  <si>
     <t>"龙魂(4级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=644},{type=5,value=166},{type=6,value=166}}</t>
+  </si>
+  <si>
     <t>"龙魂(5级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=864},{type=5,value=221},{type=6,value=221}}</t>
+  </si>
+  <si>
     <t>"龙魂(6级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=1084},{type=5,value=276},{type=6,value=276}}</t>
+  </si>
+  <si>
     <t>"龙魂(7级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=1348},{type=5,value=342},{type=6,value=342}}</t>
+  </si>
+  <si>
     <t>"龙魂(8级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=1612},{type=5,value=408},{type=6,value=408}}</t>
+  </si>
+  <si>
     <t>"龙魂(9级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=1916},{type=5,value=484},{type=6,value=484}}</t>
+  </si>
+  <si>
     <t>"龙魂(10级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=2220},{type=5,value=560},{type=6,value=560}}</t>
+  </si>
+  <si>
     <t>"龙魂(11级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=2560},{type=5,value=645},{type=6,value=645}}</t>
+  </si>
+  <si>
     <t>"龙魂(12级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=2900},{type=5,value=730},{type=6,value=730}}</t>
+  </si>
+  <si>
     <t>"龙魂(13级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=3272},{type=5,value=823},{type=6,value=823}}</t>
+  </si>
+  <si>
     <t>"龙魂(14级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=3644},{type=5,value=916},{type=6,value=916}}</t>
+  </si>
+  <si>
     <t>"龙魂(15级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=4044},{type=5,value=1016},{type=6,value=1016}}</t>
+  </si>
+  <si>
     <t>"龙魂(16级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=4444},{type=5,value=1116},{type=6,value=1116}}</t>
+  </si>
+  <si>
     <t>"龙魂(17级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=4868},{type=5,value=1222},{type=6,value=1222}}</t>
+  </si>
+  <si>
     <t>"龙魂(18级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=5292},{type=5,value=1328},{type=6,value=1328}}</t>
+  </si>
+  <si>
     <t>"龙魂(19级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=5716},{type=5,value=1434},{type=6,value=1434}}</t>
+  </si>
+  <si>
     <t>"龙魂(20级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=6140},{type=5,value=1540},{type=6,value=1540}}</t>
+  </si>
+  <si>
     <t>"龙魂(21级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=6584},{type=5,value=1651},{type=6,value=1651}}</t>
+  </si>
+  <si>
     <t>"龙魂(22级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=7028},{type=5,value=1762},{type=6,value=1762}}</t>
+  </si>
+  <si>
     <t>"龙魂(23级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=7472},{type=5,value=1873},{type=6,value=1873}}</t>
+  </si>
+  <si>
     <t>"龙魂(24级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=7916},{type=5,value=1984},{type=6,value=1984}}</t>
+  </si>
+  <si>
     <t>"龙魂(25级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=8360},{type=5,value=2095},{type=6,value=2095}}</t>
+  </si>
+  <si>
     <t>"龙魂(26级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=8824},{type=5,value=2211},{type=6,value=2211}}</t>
+  </si>
+  <si>
     <t>"龙魂(27级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=9288},{type=5,value=2327},{type=6,value=2327}}</t>
+  </si>
+  <si>
     <t>"龙魂(28级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=9752},{type=5,value=2443},{type=6,value=2443}}</t>
+  </si>
+  <si>
     <t>"龙魂(29级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=10216},{type=5,value=2559},{type=6,value=2559}}</t>
+  </si>
+  <si>
     <t>"龙魂(30级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=10680},{type=5,value=2675},{type=6,value=2675}}</t>
+  </si>
+  <si>
     <t>"龙魂(31级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=11160},{type=5,value=2795},{type=6,value=2795}}</t>
+  </si>
+  <si>
     <t>"龙魂(32级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=11640},{type=5,value=2915},{type=6,value=2915}}</t>
+  </si>
+  <si>
     <t>"龙魂(33级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=12120},{type=5,value=3035},{type=6,value=3035}}</t>
+  </si>
+  <si>
     <t>"龙魂(34级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=12600},{type=5,value=3155},{type=6,value=3155}}</t>
+  </si>
+  <si>
     <t>"龙魂(35级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=13080},{type=5,value=3275},{type=6,value=3275}}</t>
+  </si>
+  <si>
     <t>"龙魂(36级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=13572},{type=5,value=3398},{type=6,value=3398}}</t>
+  </si>
+  <si>
     <t>"龙魂(37级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=14064},{type=5,value=3521},{type=6,value=3521}}</t>
+  </si>
+  <si>
     <t>"龙魂(38级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=14556},{type=5,value=3644},{type=6,value=3644}}</t>
+  </si>
+  <si>
     <t>"龙魂(39级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=15048},{type=5,value=3767},{type=6,value=3767}}</t>
+  </si>
+  <si>
     <t>"龙魂(40级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=15540},{type=5,value=3890},{type=6,value=3890}}</t>
+  </si>
+  <si>
     <t>"龙魂(41级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=16044},{type=5,value=4016},{type=6,value=4016}}</t>
+  </si>
+  <si>
     <t>"龙魂(42级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=16548},{type=5,value=4142},{type=6,value=4142}}</t>
+  </si>
+  <si>
     <t>"龙魂(43级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=17052},{type=5,value=4268},{type=6,value=4268}}</t>
+  </si>
+  <si>
     <t>"龙魂(44级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=17556},{type=5,value=4394},{type=6,value=4394}}</t>
+  </si>
+  <si>
     <t>"龙魂(45级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=18060},{type=5,value=4520},{type=6,value=4520}}</t>
+  </si>
+  <si>
     <t>"龙魂(46级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=18572},{type=5,value=4648},{type=6,value=4648}}</t>
+  </si>
+  <si>
     <t>"龙魂(47级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=19084},{type=5,value=4776},{type=6,value=4776}}</t>
+  </si>
+  <si>
     <t>"龙魂(48级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=19596},{type=5,value=4904},{type=6,value=4904}}</t>
+  </si>
+  <si>
     <t>"龙魂(49级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=20108},{type=5,value=5032},{type=6,value=5032}}</t>
+  </si>
+  <si>
     <t>"龙魂(50级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=20620},{type=5,value=5160},{type=6,value=5160}}</t>
+  </si>
+  <si>
     <t>"龙魂(51级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=21168},{type=5,value=5297},{type=6,value=5297}}</t>
+  </si>
+  <si>
     <t>"龙魂(52级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=21716},{type=5,value=5434},{type=6,value=5434}}</t>
+  </si>
+  <si>
     <t>"龙魂(53级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=22264},{type=5,value=5571},{type=6,value=5571}}</t>
+  </si>
+  <si>
     <t>"龙魂(54级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=22812},{type=5,value=5708},{type=6,value=5708}}</t>
+  </si>
+  <si>
     <t>"龙魂(55级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=23360},{type=5,value=5845},{type=6,value=5845}}</t>
+  </si>
+  <si>
     <t>"龙魂(56级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=23940},{type=5,value=5990},{type=6,value=5990}}</t>
+  </si>
+  <si>
     <t>"龙魂(57级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=24520},{type=5,value=6135},{type=6,value=6135}}</t>
+  </si>
+  <si>
     <t>"龙魂(58级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=25100},{type=5,value=6280},{type=6,value=6280}}</t>
+  </si>
+  <si>
     <t>"龙魂(59级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=25680},{type=5,value=6425},{type=6,value=6425}}</t>
+  </si>
+  <si>
     <t>"龙魂(60级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=26260},{type=5,value=6570},{type=6,value=6570}}</t>
+  </si>
+  <si>
     <t>"龙魂(61级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=26868},{type=5,value=6722},{type=6,value=6722}}</t>
+  </si>
+  <si>
     <t>"龙魂(62级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=27476},{type=5,value=6874},{type=6,value=6874}}</t>
+  </si>
+  <si>
     <t>"龙魂(63级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=28084},{type=5,value=7026},{type=6,value=7026}}</t>
+  </si>
+  <si>
     <t>"龙魂(64级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=28692},{type=5,value=7178},{type=6,value=7178}}</t>
+  </si>
+  <si>
     <t>"龙魂(65级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=29300},{type=5,value=7330},{type=6,value=7330}}</t>
+  </si>
+  <si>
     <t>"龙魂(66级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=29960},{type=5,value=7495},{type=6,value=7495}}</t>
+  </si>
+  <si>
     <t>"龙魂(67级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=30620},{type=5,value=7660},{type=6,value=7660}}</t>
+  </si>
+  <si>
     <t>"龙魂(68级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=31280},{type=5,value=7825},{type=6,value=7825}}</t>
+  </si>
+  <si>
     <t>"龙魂(69级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=31940},{type=5,value=7990},{type=6,value=7990}}</t>
+  </si>
+  <si>
     <t>"龙魂(70级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=32600},{type=5,value=8155},{type=6,value=8155}}</t>
+  </si>
+  <si>
     <t>"龙魂(71级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=33356},{type=5,value=8344},{type=6,value=8344}}</t>
+  </si>
+  <si>
     <t>"龙魂(72级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=34112},{type=5,value=8533},{type=6,value=8533}}</t>
+  </si>
+  <si>
     <t>"龙魂(73级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=34868},{type=5,value=8722},{type=6,value=8722}}</t>
+  </si>
+  <si>
     <t>"龙魂(74级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=35624},{type=5,value=8911},{type=6,value=8911}}</t>
+  </si>
+  <si>
     <t>"龙魂(75级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=36380},{type=5,value=9100},{type=6,value=9100}}</t>
+  </si>
+  <si>
     <t>"龙魂(76级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=37220},{type=5,value=9310},{type=6,value=9310}}</t>
+  </si>
+  <si>
     <t>"龙魂(77级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=38060},{type=5,value=9520},{type=6,value=9520}}</t>
+  </si>
+  <si>
     <t>"龙魂(78级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=38900},{type=5,value=9730},{type=6,value=9730}}</t>
+  </si>
+  <si>
     <t>"龙魂(79级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=39740},{type=5,value=9940},{type=6,value=9940}}</t>
+  </si>
+  <si>
     <t>"龙魂(80级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=40580},{type=5,value=10150},{type=6,value=10150}}</t>
+  </si>
+  <si>
     <t>"龙魂(81级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=41492},{type=5,value=10378},{type=6,value=10378}}</t>
+  </si>
+  <si>
     <t>"龙魂(82级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=42404},{type=5,value=10606},{type=6,value=10606}}</t>
+  </si>
+  <si>
     <t>"龙魂(83级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=43316},{type=5,value=10834},{type=6,value=10834}}</t>
+  </si>
+  <si>
     <t>"龙魂(84级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=44228},{type=5,value=11062},{type=6,value=11062}}</t>
+  </si>
+  <si>
     <t>"龙魂(85级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=45140},{type=5,value=11290},{type=6,value=11290}}</t>
+  </si>
+  <si>
     <t>"龙魂(86级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=46116},{type=5,value=11534},{type=6,value=11534}}</t>
+  </si>
+  <si>
     <t>"龙魂(87级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=47092},{type=5,value=11778},{type=6,value=11778}}</t>
+  </si>
+  <si>
     <t>"龙魂(88级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=48068},{type=5,value=12022},{type=6,value=12022}}</t>
+  </si>
+  <si>
     <t>"龙魂(89级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=49044},{type=5,value=12266},{type=6,value=12266}}</t>
+  </si>
+  <si>
     <t>"龙魂(90级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=50020},{type=5,value=12510},{type=6,value=12510}}</t>
+  </si>
+  <si>
     <t>"龙魂(91级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=51052},{type=5,value=12768},{type=6,value=12768}}</t>
+  </si>
+  <si>
     <t>"龙魂(92级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=52084},{type=5,value=13026},{type=6,value=13026}}</t>
+  </si>
+  <si>
     <t>"龙魂(93级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=53116},{type=5,value=13284},{type=6,value=13284}}</t>
+  </si>
+  <si>
     <t>"龙魂(94级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=54148},{type=5,value=13542},{type=6,value=13542}}</t>
+  </si>
+  <si>
     <t>"龙魂(95级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=55180},{type=5,value=13800},{type=6,value=13800}}</t>
+  </si>
+  <si>
     <t>"龙魂(96级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=56260},{type=5,value=14070},{type=6,value=14070}}</t>
+  </si>
+  <si>
     <t>"龙魂(97级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=57340},{type=5,value=14340},{type=6,value=14340}}</t>
+  </si>
+  <si>
     <t>"龙魂(98级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=58420},{type=5,value=14610},{type=6,value=14610}}</t>
+  </si>
+  <si>
     <t>"龙魂(99级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=59500},{type=5,value=14880},{type=6,value=14880}}</t>
+  </si>
+  <si>
     <t>"龙魂(100级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=60580},{type=5,value=15150},{type=6,value=15150}}</t>
+  </si>
+  <si>
     <t>"龙魂(101级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=61700},{type=5,value=15430},{type=6,value=15430}}</t>
+  </si>
+  <si>
     <t>"龙魂(102级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=62820},{type=5,value=15710},{type=6,value=15710}}</t>
+  </si>
+  <si>
     <t>"龙魂(103级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=63940},{type=5,value=15990},{type=6,value=15990}}</t>
+  </si>
+  <si>
     <t>"龙魂(104级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=65060},{type=5,value=16270},{type=6,value=16270}}</t>
+  </si>
+  <si>
     <t>"龙魂(105级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=66180},{type=5,value=16550},{type=6,value=16550}}</t>
+  </si>
+  <si>
     <t>"龙魂(106级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=67336},{type=5,value=16839},{type=6,value=16839}}</t>
+  </si>
+  <si>
     <t>"龙魂(107级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=68492},{type=5,value=17128},{type=6,value=17128}}</t>
+  </si>
+  <si>
     <t>"龙魂(108级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=69648},{type=5,value=17417},{type=6,value=17417}}</t>
+  </si>
+  <si>
     <t>"龙魂(109级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=70804},{type=5,value=17706},{type=6,value=17706}}</t>
+  </si>
+  <si>
     <t>"龙魂(110级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=71960},{type=5,value=17995},{type=6,value=17995}}</t>
+  </si>
+  <si>
     <t>"龙魂(111级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=73144},{type=5,value=18291},{type=6,value=18291}}</t>
+  </si>
+  <si>
     <t>"龙魂(112级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=74328},{type=5,value=18587},{type=6,value=18587}}</t>
+  </si>
+  <si>
     <t>"龙魂(113级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=75512},{type=5,value=18883},{type=6,value=18883}}</t>
+  </si>
+  <si>
     <t>"龙魂(114级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=76696},{type=5,value=19179},{type=6,value=19179}}</t>
+  </si>
+  <si>
     <t>"龙魂(115级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=77880},{type=5,value=19475},{type=6,value=19475}}</t>
+  </si>
+  <si>
     <t>"龙魂(116级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=79088},{type=5,value=19777},{type=6,value=19777}}</t>
+  </si>
+  <si>
     <t>"龙魂(117级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=80296},{type=5,value=20079},{type=6,value=20079}}</t>
+  </si>
+  <si>
     <t>"龙魂(118级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=81504},{type=5,value=20381},{type=6,value=20381}}</t>
+  </si>
+  <si>
     <t>"龙魂(119级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=82712},{type=5,value=20683},{type=6,value=20683}}</t>
+  </si>
+  <si>
     <t>"龙魂(120级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=83920},{type=5,value=20985},{type=6,value=20985}}</t>
+  </si>
+  <si>
     <t>"龙魂(121级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=85148},{type=5,value=21292},{type=6,value=21292}}</t>
+  </si>
+  <si>
     <t>"龙魂(122级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=86376},{type=5,value=21599},{type=6,value=21599}}</t>
+  </si>
+  <si>
     <t>"龙魂(123级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=87604},{type=5,value=21906},{type=6,value=21906}}</t>
+  </si>
+  <si>
     <t>"龙魂(124级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=88832},{type=5,value=22213},{type=6,value=22213}}</t>
+  </si>
+  <si>
     <t>"龙魂(125级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=90060},{type=5,value=22520},{type=6,value=22520}}</t>
+  </si>
+  <si>
     <t>"龙魂(126级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=91300},{type=5,value=22830},{type=6,value=22830}}</t>
+  </si>
+  <si>
     <t>"龙魂(127级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=92540},{type=5,value=23140},{type=6,value=23140}}</t>
+  </si>
+  <si>
     <t>"龙魂(128级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=93780},{type=5,value=23450},{type=6,value=23450}}</t>
+  </si>
+  <si>
     <t>"龙魂(129级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=95020},{type=5,value=23760},{type=6,value=23760}}</t>
+  </si>
+  <si>
     <t>"龙魂(130级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=96260},{type=5,value=24070},{type=6,value=24070}}</t>
+  </si>
+  <si>
     <t>"龙魂(131级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=97508},{type=5,value=24382},{type=6,value=24382}}</t>
+  </si>
+  <si>
     <t>"龙魂(132级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=98756},{type=5,value=24694},{type=6,value=24694}}</t>
+  </si>
+  <si>
     <t>"龙魂(133级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=100004},{type=5,value=25006},{type=6,value=25006}}</t>
+  </si>
+  <si>
     <t>"龙魂(134级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=101252},{type=5,value=25318},{type=6,value=25318}}</t>
+  </si>
+  <si>
     <t>"龙魂(135级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=102500},{type=5,value=25630},{type=6,value=25630}}</t>
+  </si>
+  <si>
     <t>"龙魂(136级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=103752},{type=5,value=25943},{type=6,value=25943}}</t>
+  </si>
+  <si>
     <t>"龙魂(137级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=105004},{type=5,value=26256},{type=6,value=26256}}</t>
+  </si>
+  <si>
     <t>"龙魂(138级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=106256},{type=5,value=26569},{type=6,value=26569}}</t>
+  </si>
+  <si>
     <t>"龙魂(139级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=107508},{type=5,value=26882},{type=6,value=26882}}</t>
+  </si>
+  <si>
     <t>"龙魂(140级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=108760},{type=5,value=27195},{type=6,value=27195}}</t>
+  </si>
+  <si>
     <t>"龙魂(141级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=110080},{type=5,value=27525},{type=6,value=27525}}</t>
+  </si>
+  <si>
     <t>"龙魂(142级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=111400},{type=5,value=27855},{type=6,value=27855}}</t>
+  </si>
+  <si>
     <t>"龙魂(143级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=112720},{type=5,value=28185},{type=6,value=28185}}</t>
+  </si>
+  <si>
     <t>"龙魂(144级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=114040},{type=5,value=28515},{type=6,value=28515}}</t>
+  </si>
+  <si>
     <t>"龙魂(145级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=115360},{type=5,value=28845},{type=6,value=28845}}</t>
+  </si>
+  <si>
     <t>"龙魂(146级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=116748},{type=5,value=29192},{type=6,value=29192}}</t>
+  </si>
+  <si>
     <t>"龙魂(147级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=118136},{type=5,value=29539},{type=6,value=29539}}</t>
+  </si>
+  <si>
     <t>"龙魂(148级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=119524},{type=5,value=29886},{type=6,value=29886}}</t>
+  </si>
+  <si>
     <t>"龙魂(149级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=120912},{type=5,value=30233},{type=6,value=30233}}</t>
+  </si>
+  <si>
     <t>"龙魂(150级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=122300},{type=5,value=30580},{type=6,value=30580}}</t>
+  </si>
+  <si>
     <t>"龙魂(151级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=123696},{type=5,value=30929},{type=6,value=30929}}</t>
+  </si>
+  <si>
     <t>"龙魂(152级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=125092},{type=5,value=31278},{type=6,value=31278}}</t>
+  </si>
+  <si>
     <t>"龙魂(153级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=126488},{type=5,value=31627},{type=6,value=31627}}</t>
+  </si>
+  <si>
     <t>"龙魂(154级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=127884},{type=5,value=31976},{type=6,value=31976}}</t>
+  </si>
+  <si>
     <t>"龙魂(155级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=129280},{type=5,value=32325},{type=6,value=32325}}</t>
+  </si>
+  <si>
     <t>"龙魂(156级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=130684},{type=5,value=32676},{type=6,value=32676}}</t>
+  </si>
+  <si>
     <t>"龙魂(157级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=132088},{type=5,value=33027},{type=6,value=33027}}</t>
+  </si>
+  <si>
     <t>"龙魂(158级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=133492},{type=5,value=33378},{type=6,value=33378}}</t>
+  </si>
+  <si>
     <t>"龙魂(159级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=134896},{type=5,value=33729},{type=6,value=33729}}</t>
+  </si>
+  <si>
     <t>"龙魂(160级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=136300},{type=5,value=34080},{type=6,value=34080}}</t>
+  </si>
+  <si>
     <t>"龙魂(161级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=137708},{type=5,value=34432},{type=6,value=34432}}</t>
+  </si>
+  <si>
     <t>"龙魂(162级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=139116},{type=5,value=34784},{type=6,value=34784}}</t>
+  </si>
+  <si>
     <t>"龙魂(163级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=140524},{type=5,value=35136},{type=6,value=35136}}</t>
+  </si>
+  <si>
     <t>"龙魂(164级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=141932},{type=5,value=35488},{type=6,value=35488}}</t>
+  </si>
+  <si>
     <t>"龙魂(165级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=143340},{type=5,value=35840},{type=6,value=35840}}</t>
+  </si>
+  <si>
     <t>"龙魂(166级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=144808},{type=5,value=36207},{type=6,value=36207}}</t>
+  </si>
+  <si>
     <t>"龙魂(167级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=146276},{type=5,value=36574},{type=6,value=36574}}</t>
+  </si>
+  <si>
     <t>"龙魂(168级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=147744},{type=5,value=36941},{type=6,value=36941}}</t>
+  </si>
+  <si>
     <t>"龙魂(169级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=149212},{type=5,value=37308},{type=6,value=37308}}</t>
+  </si>
+  <si>
     <t>"龙魂(170级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=150680},{type=5,value=37675},{type=6,value=37675}}</t>
+  </si>
+  <si>
     <t>"龙魂(171级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=152208},{type=5,value=38057},{type=6,value=38057}}</t>
+  </si>
+  <si>
     <t>"龙魂(172级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=153736},{type=5,value=38439},{type=6,value=38439}}</t>
+  </si>
+  <si>
     <t>"龙魂(173级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=155264},{type=5,value=38821},{type=6,value=38821}}</t>
+  </si>
+  <si>
     <t>"龙魂(174级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=156792},{type=5,value=39203},{type=6,value=39203}}</t>
+  </si>
+  <si>
     <t>"龙魂(175级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=158320},{type=5,value=39585},{type=6,value=39585}}</t>
+  </si>
+  <si>
     <t>"龙魂(176级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=159876},{type=5,value=39974},{type=6,value=39974}}</t>
+  </si>
+  <si>
     <t>"龙魂(177级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=161432},{type=5,value=40363},{type=6,value=40363}}</t>
+  </si>
+  <si>
     <t>"龙魂(178级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=162988},{type=5,value=40752},{type=6,value=40752}}</t>
+  </si>
+  <si>
     <t>"龙魂(179级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=164544},{type=5,value=41141},{type=6,value=41141}}</t>
+  </si>
+  <si>
     <t>"龙魂(180级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=166100},{type=5,value=41530},{type=6,value=41530}}</t>
+  </si>
+  <si>
     <t>"龙魂(181级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=167684},{type=5,value=41926},{type=6,value=41926}}</t>
+  </si>
+  <si>
     <t>"龙魂(182级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=169268},{type=5,value=42322},{type=6,value=42322}}</t>
+  </si>
+  <si>
     <t>"龙魂(183级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=170852},{type=5,value=42718},{type=6,value=42718}}</t>
+  </si>
+  <si>
     <t>"龙魂(184级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=172436},{type=5,value=43114},{type=6,value=43114}}</t>
+  </si>
+  <si>
     <t>"龙魂(185级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=174020},{type=5,value=43510},{type=6,value=43510}}</t>
+  </si>
+  <si>
     <t>"龙魂(186级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=175628},{type=5,value=43912},{type=6,value=43912}}</t>
+  </si>
+  <si>
     <t>"龙魂(187级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=177236},{type=5,value=44314},{type=6,value=44314}}</t>
+  </si>
+  <si>
     <t>"龙魂(188级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=178844},{type=5,value=44716},{type=6,value=44716}}</t>
+  </si>
+  <si>
     <t>"龙魂(189级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=180452},{type=5,value=45118},{type=6,value=45118}}</t>
+  </si>
+  <si>
     <t>"龙魂(190级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=182060},{type=5,value=45520},{type=6,value=45520}}</t>
+  </si>
+  <si>
     <t>"龙魂(191级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=183692},{type=5,value=45928},{type=6,value=45928}}</t>
+  </si>
+  <si>
     <t>"龙魂(192级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=185324},{type=5,value=46336},{type=6,value=46336}}</t>
+  </si>
+  <si>
     <t>"龙魂(193级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=186956},{type=5,value=46744},{type=6,value=46744}}</t>
+  </si>
+  <si>
     <t>"龙魂(194级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=188588},{type=5,value=47152},{type=6,value=47152}}</t>
+  </si>
+  <si>
     <t>"龙魂(195级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=190220},{type=5,value=47560},{type=6,value=47560}}</t>
+  </si>
+  <si>
     <t>"龙魂(196级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=191876},{type=5,value=47974},{type=6,value=47974}}</t>
+  </si>
+  <si>
     <t>"龙魂(197级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=193532},{type=5,value=48388},{type=6,value=48388}}</t>
+  </si>
+  <si>
     <t>"龙魂(198级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=195188},{type=5,value=48802},{type=6,value=48802}}</t>
+  </si>
+  <si>
     <t>"龙魂(199级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=196844},{type=5,value=49216},{type=6,value=49216}}</t>
+  </si>
+  <si>
     <t>"龙魂(200级)"</t>
   </si>
   <si>
+    <t>{{type=4,value=198500},{type=5,value=49630},{type=6,value=49630}}</t>
+  </si>
+  <si>
     <t>LoongSoulStageConfig={</t>
   </si>
   <si>
@@ -773,6 +1389,9 @@
     <t>本阶提示小红点的金币金额</t>
   </si>
   <si>
+    <t>升阶-累积数值</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -791,646 +1410,19 @@
     <t>normalCostTip</t>
   </si>
   <si>
+    <t>编号</t>
+  </si>
+  <si>
     <t>"longhun_01_png"</t>
   </si>
   <si>
     <t>{{type=4,value=0},{type=5,value=0},{type=6,value=0}}</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>物防</t>
-  </si>
-  <si>
-    <t>法防</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>战力</t>
-  </si>
-  <si>
-    <t>单级消耗</t>
-  </si>
-  <si>
-    <t>龙魂等级</t>
-  </si>
-  <si>
-    <t>{{type=4,value=60},{type=5,value=20},{type=6,value=20}}</t>
+    <t>{{type=4,value=324},{type=5,value=81},{type=6,value=81}}</t>
   </si>
   <si>
     <t>{{type=4,value=912},{type=5,value=228},{type=6,value=228}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=180},{type=5,value=50},{type=6,value=50}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=300},{type=5,value=80},{type=6,value=80}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=472},{type=5,value=123},{type=6,value=123}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=644},{type=5,value=166},{type=6,value=166}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=864},{type=5,value=221},{type=6,value=221}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=1084},{type=5,value=276},{type=6,value=276}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=1348},{type=5,value=342},{type=6,value=342}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=1612},{type=5,value=408},{type=6,value=408}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=1916},{type=5,value=484},{type=6,value=484}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=2220},{type=5,value=560},{type=6,value=560}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=2560},{type=5,value=645},{type=6,value=645}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=2900},{type=5,value=730},{type=6,value=730}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=3272},{type=5,value=823},{type=6,value=823}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=3644},{type=5,value=916},{type=6,value=916}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=4044},{type=5,value=1016},{type=6,value=1016}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=4444},{type=5,value=1116},{type=6,value=1116}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=4868},{type=5,value=1222},{type=6,value=1222}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=5292},{type=5,value=1328},{type=6,value=1328}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=5716},{type=5,value=1434},{type=6,value=1434}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=6140},{type=5,value=1540},{type=6,value=1540}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=6584},{type=5,value=1651},{type=6,value=1651}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=7028},{type=5,value=1762},{type=6,value=1762}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=7472},{type=5,value=1873},{type=6,value=1873}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=7916},{type=5,value=1984},{type=6,value=1984}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=8360},{type=5,value=2095},{type=6,value=2095}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=8824},{type=5,value=2211},{type=6,value=2211}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=9288},{type=5,value=2327},{type=6,value=2327}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=9752},{type=5,value=2443},{type=6,value=2443}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=10216},{type=5,value=2559},{type=6,value=2559}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=10680},{type=5,value=2675},{type=6,value=2675}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=11160},{type=5,value=2795},{type=6,value=2795}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=11640},{type=5,value=2915},{type=6,value=2915}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=12120},{type=5,value=3035},{type=6,value=3035}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=12600},{type=5,value=3155},{type=6,value=3155}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=13080},{type=5,value=3275},{type=6,value=3275}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=13572},{type=5,value=3398},{type=6,value=3398}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=14064},{type=5,value=3521},{type=6,value=3521}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=14556},{type=5,value=3644},{type=6,value=3644}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=15048},{type=5,value=3767},{type=6,value=3767}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=15540},{type=5,value=3890},{type=6,value=3890}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=16044},{type=5,value=4016},{type=6,value=4016}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=16548},{type=5,value=4142},{type=6,value=4142}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=17052},{type=5,value=4268},{type=6,value=4268}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=17556},{type=5,value=4394},{type=6,value=4394}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=18060},{type=5,value=4520},{type=6,value=4520}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=18572},{type=5,value=4648},{type=6,value=4648}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=19084},{type=5,value=4776},{type=6,value=4776}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=19596},{type=5,value=4904},{type=6,value=4904}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=20108},{type=5,value=5032},{type=6,value=5032}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=20620},{type=5,value=5160},{type=6,value=5160}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=21168},{type=5,value=5297},{type=6,value=5297}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=21716},{type=5,value=5434},{type=6,value=5434}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=22264},{type=5,value=5571},{type=6,value=5571}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=22812},{type=5,value=5708},{type=6,value=5708}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=23360},{type=5,value=5845},{type=6,value=5845}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=23940},{type=5,value=5990},{type=6,value=5990}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=24520},{type=5,value=6135},{type=6,value=6135}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=25100},{type=5,value=6280},{type=6,value=6280}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=25680},{type=5,value=6425},{type=6,value=6425}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=26260},{type=5,value=6570},{type=6,value=6570}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=26868},{type=5,value=6722},{type=6,value=6722}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=27476},{type=5,value=6874},{type=6,value=6874}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=28084},{type=5,value=7026},{type=6,value=7026}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=28692},{type=5,value=7178},{type=6,value=7178}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=29300},{type=5,value=7330},{type=6,value=7330}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=29960},{type=5,value=7495},{type=6,value=7495}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=30620},{type=5,value=7660},{type=6,value=7660}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=31280},{type=5,value=7825},{type=6,value=7825}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=31940},{type=5,value=7990},{type=6,value=7990}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=32600},{type=5,value=8155},{type=6,value=8155}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=33356},{type=5,value=8344},{type=6,value=8344}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=34112},{type=5,value=8533},{type=6,value=8533}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=34868},{type=5,value=8722},{type=6,value=8722}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=35624},{type=5,value=8911},{type=6,value=8911}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=36380},{type=5,value=9100},{type=6,value=9100}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=37220},{type=5,value=9310},{type=6,value=9310}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=38060},{type=5,value=9520},{type=6,value=9520}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=38900},{type=5,value=9730},{type=6,value=9730}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=39740},{type=5,value=9940},{type=6,value=9940}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=40580},{type=5,value=10150},{type=6,value=10150}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=41492},{type=5,value=10378},{type=6,value=10378}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=42404},{type=5,value=10606},{type=6,value=10606}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=43316},{type=5,value=10834},{type=6,value=10834}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=44228},{type=5,value=11062},{type=6,value=11062}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=45140},{type=5,value=11290},{type=6,value=11290}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=46116},{type=5,value=11534},{type=6,value=11534}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=47092},{type=5,value=11778},{type=6,value=11778}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=48068},{type=5,value=12022},{type=6,value=12022}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=49044},{type=5,value=12266},{type=6,value=12266}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=50020},{type=5,value=12510},{type=6,value=12510}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=51052},{type=5,value=12768},{type=6,value=12768}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=52084},{type=5,value=13026},{type=6,value=13026}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=53116},{type=5,value=13284},{type=6,value=13284}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=54148},{type=5,value=13542},{type=6,value=13542}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=55180},{type=5,value=13800},{type=6,value=13800}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=56260},{type=5,value=14070},{type=6,value=14070}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=57340},{type=5,value=14340},{type=6,value=14340}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=58420},{type=5,value=14610},{type=6,value=14610}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=59500},{type=5,value=14880},{type=6,value=14880}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=60580},{type=5,value=15150},{type=6,value=15150}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=61700},{type=5,value=15430},{type=6,value=15430}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=62820},{type=5,value=15710},{type=6,value=15710}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=63940},{type=5,value=15990},{type=6,value=15990}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=65060},{type=5,value=16270},{type=6,value=16270}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=66180},{type=5,value=16550},{type=6,value=16550}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=67336},{type=5,value=16839},{type=6,value=16839}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=68492},{type=5,value=17128},{type=6,value=17128}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=69648},{type=5,value=17417},{type=6,value=17417}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=70804},{type=5,value=17706},{type=6,value=17706}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=71960},{type=5,value=17995},{type=6,value=17995}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=73144},{type=5,value=18291},{type=6,value=18291}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=74328},{type=5,value=18587},{type=6,value=18587}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=75512},{type=5,value=18883},{type=6,value=18883}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=76696},{type=5,value=19179},{type=6,value=19179}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=77880},{type=5,value=19475},{type=6,value=19475}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=79088},{type=5,value=19777},{type=6,value=19777}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=80296},{type=5,value=20079},{type=6,value=20079}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=81504},{type=5,value=20381},{type=6,value=20381}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=82712},{type=5,value=20683},{type=6,value=20683}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=83920},{type=5,value=20985},{type=6,value=20985}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=85148},{type=5,value=21292},{type=6,value=21292}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=86376},{type=5,value=21599},{type=6,value=21599}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=87604},{type=5,value=21906},{type=6,value=21906}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=88832},{type=5,value=22213},{type=6,value=22213}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=90060},{type=5,value=22520},{type=6,value=22520}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=91300},{type=5,value=22830},{type=6,value=22830}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=92540},{type=5,value=23140},{type=6,value=23140}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=93780},{type=5,value=23450},{type=6,value=23450}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=95020},{type=5,value=23760},{type=6,value=23760}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=96260},{type=5,value=24070},{type=6,value=24070}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=97508},{type=5,value=24382},{type=6,value=24382}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=98756},{type=5,value=24694},{type=6,value=24694}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=100004},{type=5,value=25006},{type=6,value=25006}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=101252},{type=5,value=25318},{type=6,value=25318}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=102500},{type=5,value=25630},{type=6,value=25630}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=103752},{type=5,value=25943},{type=6,value=25943}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=105004},{type=5,value=26256},{type=6,value=26256}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=106256},{type=5,value=26569},{type=6,value=26569}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=107508},{type=5,value=26882},{type=6,value=26882}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=108760},{type=5,value=27195},{type=6,value=27195}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=110080},{type=5,value=27525},{type=6,value=27525}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=111400},{type=5,value=27855},{type=6,value=27855}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=112720},{type=5,value=28185},{type=6,value=28185}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=114040},{type=5,value=28515},{type=6,value=28515}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=115360},{type=5,value=28845},{type=6,value=28845}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=116748},{type=5,value=29192},{type=6,value=29192}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=118136},{type=5,value=29539},{type=6,value=29539}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=119524},{type=5,value=29886},{type=6,value=29886}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=120912},{type=5,value=30233},{type=6,value=30233}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=122300},{type=5,value=30580},{type=6,value=30580}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=123696},{type=5,value=30929},{type=6,value=30929}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=125092},{type=5,value=31278},{type=6,value=31278}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=126488},{type=5,value=31627},{type=6,value=31627}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=127884},{type=5,value=31976},{type=6,value=31976}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=129280},{type=5,value=32325},{type=6,value=32325}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=130684},{type=5,value=32676},{type=6,value=32676}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=132088},{type=5,value=33027},{type=6,value=33027}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=133492},{type=5,value=33378},{type=6,value=33378}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=134896},{type=5,value=33729},{type=6,value=33729}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=136300},{type=5,value=34080},{type=6,value=34080}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=137708},{type=5,value=34432},{type=6,value=34432}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=139116},{type=5,value=34784},{type=6,value=34784}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=140524},{type=5,value=35136},{type=6,value=35136}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=141932},{type=5,value=35488},{type=6,value=35488}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=143340},{type=5,value=35840},{type=6,value=35840}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=144808},{type=5,value=36207},{type=6,value=36207}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=146276},{type=5,value=36574},{type=6,value=36574}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=147744},{type=5,value=36941},{type=6,value=36941}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=149212},{type=5,value=37308},{type=6,value=37308}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=150680},{type=5,value=37675},{type=6,value=37675}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=152208},{type=5,value=38057},{type=6,value=38057}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=153736},{type=5,value=38439},{type=6,value=38439}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=155264},{type=5,value=38821},{type=6,value=38821}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=156792},{type=5,value=39203},{type=6,value=39203}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=158320},{type=5,value=39585},{type=6,value=39585}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=159876},{type=5,value=39974},{type=6,value=39974}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=161432},{type=5,value=40363},{type=6,value=40363}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=162988},{type=5,value=40752},{type=6,value=40752}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=164544},{type=5,value=41141},{type=6,value=41141}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=166100},{type=5,value=41530},{type=6,value=41530}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=167684},{type=5,value=41926},{type=6,value=41926}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=169268},{type=5,value=42322},{type=6,value=42322}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=170852},{type=5,value=42718},{type=6,value=42718}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=172436},{type=5,value=43114},{type=6,value=43114}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=174020},{type=5,value=43510},{type=6,value=43510}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=175628},{type=5,value=43912},{type=6,value=43912}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=177236},{type=5,value=44314},{type=6,value=44314}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=178844},{type=5,value=44716},{type=6,value=44716}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=180452},{type=5,value=45118},{type=6,value=45118}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=182060},{type=5,value=45520},{type=6,value=45520}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=183692},{type=5,value=45928},{type=6,value=45928}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=185324},{type=5,value=46336},{type=6,value=46336}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=186956},{type=5,value=46744},{type=6,value=46744}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=188588},{type=5,value=47152},{type=6,value=47152}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=190220},{type=5,value=47560},{type=6,value=47560}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=191876},{type=5,value=47974},{type=6,value=47974}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=193532},{type=5,value=48388},{type=6,value=48388}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=195188},{type=5,value=48802},{type=6,value=48802}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=196844},{type=5,value=49216},{type=6,value=49216}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=198500},{type=5,value=49630},{type=6,value=49630}}</t>
-  </si>
-  <si>
-    <t>升阶-累积数值</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>{{type=4,value=324},{type=5,value=81},{type=6,value=81}}</t>
   </si>
   <si>
     <t>{{type=4,value=1593},{type=5,value=399},{type=6,value=399}}</t>
@@ -1490,8 +1482,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,7 +1501,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1512,7 +1509,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1521,7 +1517,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1529,7 +1524,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1537,7 +1531,6 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1545,7 +1538,6 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1553,52 +1545,183 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1607,13 +1730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79973754081850645"/>
+        <fgColor theme="3" tint="0.799737540818506"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,18 +1754,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79976805932798245"/>
+        <fgColor theme="3" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79961546678060247"/>
+        <fgColor theme="3" tint="0.799615466780602"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1704,22 +2013,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,13 +2302,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1769,11 +2320,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1832,22 +2383,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="常规 8" xfId="2"/>
-    <cellStyle name="我的公式" xfId="1"/>
-    <cellStyle name="样式 2" xfId="5"/>
+    <cellStyle name="样式 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="我的公式" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="常规 8" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="53"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1861,7 +2456,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2134,26 +2729,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2764,7 @@
       </c>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2780,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2792,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -2205,7 +2800,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2816,7 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2832,7 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -2245,7 +2840,7 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -2254,18 +2849,21 @@
       <c r="F8" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
@@ -2274,7 +2872,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2290,7 +2888,7 @@
       </c>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
@@ -2306,7 +2904,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2916,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -2338,7 +2936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
@@ -2358,7 +2956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -2378,45 +2976,45 @@
         <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="12" spans="1:23">
       <c r="A8" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
@@ -2429,7 +3027,7 @@
         <v>200005</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2478,9 +3076,9 @@
         <v>{{type=4,value=60},{type=5,value=20},{type=6,value=20}}</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" ht="12" spans="1:23">
       <c r="A9" s="15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -2493,7 +3091,7 @@
         <v>200005</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2540,9 +3138,9 @@
         <v>{{type=4,value=180},{type=5,value=50},{type=6,value=50}}</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="12" spans="1:23">
       <c r="A10" s="15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -2555,7 +3153,7 @@
         <v>200005</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="K10" s="2">
         <v>2</v>
@@ -2602,9 +3200,9 @@
         <v>{{type=4,value=300},{type=5,value=80},{type=6,value=80}}</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" ht="12" spans="1:23">
       <c r="A11" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -2617,7 +3215,7 @@
         <v>200005</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
@@ -2664,9 +3262,9 @@
         <v>{{type=4,value=472},{type=5,value=123},{type=6,value=123}}</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" ht="12" spans="1:23">
       <c r="A12" s="15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -2679,7 +3277,7 @@
         <v>200005</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2">
         <v>4</v>
@@ -2726,9 +3324,9 @@
         <v>{{type=4,value=644},{type=5,value=166},{type=6,value=166}}</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" ht="12" spans="1:23">
       <c r="A13" s="15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -2741,7 +3339,7 @@
         <v>200005</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -2788,9 +3386,9 @@
         <v>{{type=4,value=864},{type=5,value=221},{type=6,value=221}}</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" ht="12" spans="1:23">
       <c r="A14" s="15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -2803,7 +3401,7 @@
         <v>200005</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2">
         <v>6</v>
@@ -2850,9 +3448,9 @@
         <v>{{type=4,value=1084},{type=5,value=276},{type=6,value=276}}</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" ht="12" spans="1:23">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -2865,7 +3463,7 @@
         <v>200005</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
         <v>7</v>
@@ -2912,9 +3510,9 @@
         <v>{{type=4,value=1348},{type=5,value=342},{type=6,value=342}}</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" ht="12" spans="1:23">
       <c r="A16" s="15" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
@@ -2927,7 +3525,7 @@
         <v>200005</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="K16" s="2">
         <v>8</v>
@@ -2974,9 +3572,9 @@
         <v>{{type=4,value=1612},{type=5,value=408},{type=6,value=408}}</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" ht="12" spans="1:23">
       <c r="A17" s="15" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>9</v>
@@ -2989,7 +3587,7 @@
         <v>200005</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2">
         <v>9</v>
@@ -3036,9 +3634,9 @@
         <v>{{type=4,value=1916},{type=5,value=484},{type=6,value=484}}</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" ht="12" spans="1:23">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
@@ -3051,7 +3649,7 @@
         <v>200005</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="K18" s="2">
         <v>10</v>
@@ -3098,9 +3696,9 @@
         <v>{{type=4,value=2220},{type=5,value=560},{type=6,value=560}}</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" ht="12" spans="1:23">
       <c r="A19" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2">
         <v>11</v>
@@ -3113,7 +3711,7 @@
         <v>200005</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2">
         <v>11</v>
@@ -3160,9 +3758,9 @@
         <v>{{type=4,value=2560},{type=5,value=645},{type=6,value=645}}</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" ht="12" spans="1:23">
       <c r="A20" s="15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2">
         <v>12</v>
@@ -3175,7 +3773,7 @@
         <v>200005</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="K20" s="2">
         <v>12</v>
@@ -3222,9 +3820,9 @@
         <v>{{type=4,value=2900},{type=5,value=730},{type=6,value=730}}</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" ht="12" spans="1:23">
       <c r="A21" s="15" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2">
         <v>13</v>
@@ -3237,7 +3835,7 @@
         <v>200005</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2">
         <v>13</v>
@@ -3255,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1674.0000000000002</v>
+        <v>1674</v>
       </c>
       <c r="Q21" s="2">
         <v>8</v>
@@ -3277,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>1674.0000000000002</v>
+        <v>1674</v>
       </c>
       <c r="W21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>{{type=4,value=3272},{type=5,value=823},{type=6,value=823}}</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" ht="12" spans="1:23">
       <c r="A22" s="15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
@@ -3299,7 +3897,7 @@
         <v>200005</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="K22" s="2">
         <v>14</v>
@@ -3317,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1674.0000000000002</v>
+        <v>1674</v>
       </c>
       <c r="Q22" s="2">
         <v>8</v>
@@ -3339,16 +3937,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>1674.0000000000002</v>
+        <v>1674</v>
       </c>
       <c r="W22" s="18" t="str">
         <f t="shared" si="0"/>
         <v>{{type=4,value=3644},{type=5,value=916},{type=6,value=916}}</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" ht="12" spans="1:23">
       <c r="A23" s="15" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2">
         <v>15</v>
@@ -3361,7 +3959,7 @@
         <v>200005</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="K23" s="2">
         <v>15</v>
@@ -3408,9 +4006,9 @@
         <v>{{type=4,value=4044},{type=5,value=1016},{type=6,value=1016}}</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" ht="12" spans="1:23">
       <c r="A24" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
@@ -3423,7 +4021,7 @@
         <v>200005</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="K24" s="2">
         <v>16</v>
@@ -3470,9 +4068,9 @@
         <v>{{type=4,value=4444},{type=5,value=1116},{type=6,value=1116}}</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" ht="12" spans="1:23">
       <c r="A25" s="15" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2">
         <v>17</v>
@@ -3485,7 +4083,7 @@
         <v>200005</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="K25" s="2">
         <v>17</v>
@@ -3532,9 +4130,9 @@
         <v>{{type=4,value=4868},{type=5,value=1222},{type=6,value=1222}}</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" ht="12" spans="1:23">
       <c r="A26" s="15" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2">
         <v>18</v>
@@ -3547,7 +4145,7 @@
         <v>200005</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="K26" s="2">
         <v>18</v>
@@ -3594,9 +4192,9 @@
         <v>{{type=4,value=5292},{type=5,value=1328},{type=6,value=1328}}</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" ht="12" spans="1:23">
       <c r="A27" s="15" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2">
         <v>19</v>
@@ -3609,7 +4207,7 @@
         <v>200005</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="K27" s="2">
         <v>19</v>
@@ -3656,9 +4254,9 @@
         <v>{{type=4,value=5716},{type=5,value=1434},{type=6,value=1434}}</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" ht="12" spans="1:23">
       <c r="A28" s="15" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2">
         <v>20</v>
@@ -3671,7 +4269,7 @@
         <v>200005</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="K28" s="2">
         <v>20</v>
@@ -3718,9 +4316,9 @@
         <v>{{type=4,value=6140},{type=5,value=1540},{type=6,value=1540}}</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" ht="12" spans="1:23">
       <c r="A29" s="15" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2">
         <v>21</v>
@@ -3733,7 +4331,7 @@
         <v>200005</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="K29" s="2">
         <v>21</v>
@@ -3780,9 +4378,9 @@
         <v>{{type=4,value=6584},{type=5,value=1651},{type=6,value=1651}}</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="12" spans="1:23">
       <c r="A30" s="15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2">
         <v>22</v>
@@ -3795,7 +4393,7 @@
         <v>200005</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="K30" s="2">
         <v>22</v>
@@ -3842,9 +4440,9 @@
         <v>{{type=4,value=7028},{type=5,value=1762},{type=6,value=1762}}</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" ht="12" spans="1:23">
       <c r="A31" s="15" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2">
         <v>23</v>
@@ -3857,7 +4455,7 @@
         <v>200005</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="K31" s="2">
         <v>23</v>
@@ -3904,9 +4502,9 @@
         <v>{{type=4,value=7472},{type=5,value=1873},{type=6,value=1873}}</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="12" spans="1:23">
       <c r="A32" s="15" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2">
         <v>24</v>
@@ -3919,7 +4517,7 @@
         <v>200005</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="K32" s="2">
         <v>24</v>
@@ -3966,9 +4564,9 @@
         <v>{{type=4,value=7916},{type=5,value=1984},{type=6,value=1984}}</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" ht="12" spans="1:23">
       <c r="A33" s="15" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2">
         <v>25</v>
@@ -3981,7 +4579,7 @@
         <v>200005</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="K33" s="2">
         <v>25</v>
@@ -4028,9 +4626,9 @@
         <v>{{type=4,value=8360},{type=5,value=2095},{type=6,value=2095}}</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" ht="12" spans="1:23">
       <c r="A34" s="15" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2">
         <v>26</v>
@@ -4043,7 +4641,7 @@
         <v>200005</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>276</v>
+        <v>89</v>
       </c>
       <c r="K34" s="2">
         <v>26</v>
@@ -4090,9 +4688,9 @@
         <v>{{type=4,value=8824},{type=5,value=2211},{type=6,value=2211}}</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" ht="12" spans="1:23">
       <c r="A35" s="15" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2">
         <v>27</v>
@@ -4105,7 +4703,7 @@
         <v>200005</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="K35" s="2">
         <v>27</v>
@@ -4152,9 +4750,9 @@
         <v>{{type=4,value=9288},{type=5,value=2327},{type=6,value=2327}}</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" ht="12" spans="1:23">
       <c r="A36" s="15" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2">
         <v>28</v>
@@ -4167,7 +4765,7 @@
         <v>200005</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="K36" s="2">
         <v>28</v>
@@ -4214,9 +4812,9 @@
         <v>{{type=4,value=9752},{type=5,value=2443},{type=6,value=2443}}</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" ht="12" spans="1:23">
       <c r="A37" s="15" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2">
         <v>29</v>
@@ -4229,7 +4827,7 @@
         <v>200005</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="K37" s="2">
         <v>29</v>
@@ -4276,9 +4874,9 @@
         <v>{{type=4,value=10216},{type=5,value=2559},{type=6,value=2559}}</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" ht="12" spans="1:23">
       <c r="A38" s="15" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2">
         <v>30</v>
@@ -4291,7 +4889,7 @@
         <v>200005</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>280</v>
+        <v>97</v>
       </c>
       <c r="K38" s="2">
         <v>30</v>
@@ -4338,9 +4936,9 @@
         <v>{{type=4,value=10680},{type=5,value=2675},{type=6,value=2675}}</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" ht="12" spans="1:23">
       <c r="A39" s="15" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2">
         <v>31</v>
@@ -4353,7 +4951,7 @@
         <v>200005</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="K39" s="2">
         <v>31</v>
@@ -4400,9 +4998,9 @@
         <v>{{type=4,value=11160},{type=5,value=2795},{type=6,value=2795}}</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" ht="12" spans="1:23">
       <c r="A40" s="15" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2">
         <v>32</v>
@@ -4415,7 +5013,7 @@
         <v>200005</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="K40" s="2">
         <v>32</v>
@@ -4462,9 +5060,9 @@
         <v>{{type=4,value=11640},{type=5,value=2915},{type=6,value=2915}}</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" ht="12" spans="1:23">
       <c r="A41" s="15" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2">
         <v>33</v>
@@ -4477,7 +5075,7 @@
         <v>200005</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="K41" s="2">
         <v>33</v>
@@ -4524,9 +5122,9 @@
         <v>{{type=4,value=12120},{type=5,value=3035},{type=6,value=3035}}</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" ht="12" spans="1:23">
       <c r="A42" s="15" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2">
         <v>34</v>
@@ -4539,7 +5137,7 @@
         <v>200005</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="K42" s="2">
         <v>34</v>
@@ -4586,9 +5184,9 @@
         <v>{{type=4,value=12600},{type=5,value=3155},{type=6,value=3155}}</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" ht="12" spans="1:23">
       <c r="A43" s="15" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2">
         <v>35</v>
@@ -4601,7 +5199,7 @@
         <v>200005</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="K43" s="2">
         <v>35</v>
@@ -4648,9 +5246,9 @@
         <v>{{type=4,value=13080},{type=5,value=3275},{type=6,value=3275}}</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="12" spans="1:23">
       <c r="A44" s="15" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B44" s="2">
         <v>36</v>
@@ -4663,7 +5261,7 @@
         <v>200005</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c r="K44" s="2">
         <v>36</v>
@@ -4710,9 +5308,9 @@
         <v>{{type=4,value=13572},{type=5,value=3398},{type=6,value=3398}}</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" ht="12" spans="1:23">
       <c r="A45" s="15" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2">
         <v>37</v>
@@ -4725,7 +5323,7 @@
         <v>200005</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="K45" s="2">
         <v>37</v>
@@ -4772,9 +5370,9 @@
         <v>{{type=4,value=14064},{type=5,value=3521},{type=6,value=3521}}</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" ht="12" spans="1:23">
       <c r="A46" s="15" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2">
         <v>38</v>
@@ -4787,7 +5385,7 @@
         <v>200005</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="K46" s="2">
         <v>38</v>
@@ -4834,9 +5432,9 @@
         <v>{{type=4,value=14556},{type=5,value=3644},{type=6,value=3644}}</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" ht="12" spans="1:23">
       <c r="A47" s="15" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2">
         <v>39</v>
@@ -4849,7 +5447,7 @@
         <v>200005</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="K47" s="2">
         <v>39</v>
@@ -4896,9 +5494,9 @@
         <v>{{type=4,value=15048},{type=5,value=3767},{type=6,value=3767}}</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" ht="12" spans="1:23">
       <c r="A48" s="15" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2">
         <v>40</v>
@@ -4911,7 +5509,7 @@
         <v>200005</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="K48" s="2">
         <v>40</v>
@@ -4958,9 +5556,9 @@
         <v>{{type=4,value=15540},{type=5,value=3890},{type=6,value=3890}}</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" ht="12" spans="1:23">
       <c r="A49" s="15" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2">
         <v>41</v>
@@ -4973,7 +5571,7 @@
         <v>200005</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="K49" s="2">
         <v>41</v>
@@ -5020,9 +5618,9 @@
         <v>{{type=4,value=16044},{type=5,value=4016},{type=6,value=4016}}</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" ht="12" spans="1:23">
       <c r="A50" s="15" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2">
         <v>42</v>
@@ -5035,7 +5633,7 @@
         <v>200005</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="K50" s="2">
         <v>42</v>
@@ -5082,9 +5680,9 @@
         <v>{{type=4,value=16548},{type=5,value=4142},{type=6,value=4142}}</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="12" spans="1:23">
       <c r="A51" s="15" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2">
         <v>43</v>
@@ -5097,7 +5695,7 @@
         <v>200005</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="K51" s="2">
         <v>43</v>
@@ -5144,9 +5742,9 @@
         <v>{{type=4,value=17052},{type=5,value=4268},{type=6,value=4268}}</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" ht="12" spans="1:23">
       <c r="A52" s="15" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2">
         <v>44</v>
@@ -5159,7 +5757,7 @@
         <v>200005</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="K52" s="2">
         <v>44</v>
@@ -5206,9 +5804,9 @@
         <v>{{type=4,value=17556},{type=5,value=4394},{type=6,value=4394}}</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" ht="12" spans="1:23">
       <c r="A53" s="15" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2">
         <v>45</v>
@@ -5221,7 +5819,7 @@
         <v>200005</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="K53" s="2">
         <v>45</v>
@@ -5268,9 +5866,9 @@
         <v>{{type=4,value=18060},{type=5,value=4520},{type=6,value=4520}}</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" ht="12" spans="1:23">
       <c r="A54" s="15" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2">
         <v>46</v>
@@ -5283,7 +5881,7 @@
         <v>200005</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="K54" s="2">
         <v>46</v>
@@ -5330,9 +5928,9 @@
         <v>{{type=4,value=18572},{type=5,value=4648},{type=6,value=4648}}</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" ht="12" spans="1:23">
       <c r="A55" s="15" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B55" s="2">
         <v>47</v>
@@ -5345,7 +5943,7 @@
         <v>200005</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="K55" s="2">
         <v>47</v>
@@ -5392,9 +5990,9 @@
         <v>{{type=4,value=19084},{type=5,value=4776},{type=6,value=4776}}</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="12" spans="1:23">
       <c r="A56" s="15" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2">
         <v>48</v>
@@ -5407,7 +6005,7 @@
         <v>200005</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="K56" s="2">
         <v>48</v>
@@ -5454,9 +6052,9 @@
         <v>{{type=4,value=19596},{type=5,value=4904},{type=6,value=4904}}</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" ht="12" spans="1:23">
       <c r="A57" s="15" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2">
         <v>49</v>
@@ -5469,7 +6067,7 @@
         <v>200005</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="K57" s="2">
         <v>49</v>
@@ -5516,9 +6114,9 @@
         <v>{{type=4,value=20108},{type=5,value=5032},{type=6,value=5032}}</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" ht="12" spans="1:23">
       <c r="A58" s="15" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2">
         <v>50</v>
@@ -5531,7 +6129,7 @@
         <v>200005</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="K58" s="2">
         <v>50</v>
@@ -5578,9 +6176,9 @@
         <v>{{type=4,value=20620},{type=5,value=5160},{type=6,value=5160}}</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" ht="12" spans="1:23">
       <c r="A59" s="15" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B59" s="2">
         <v>51</v>
@@ -5593,7 +6191,7 @@
         <v>200005</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="K59" s="2">
         <v>51</v>
@@ -5640,9 +6238,9 @@
         <v>{{type=4,value=21168},{type=5,value=5297},{type=6,value=5297}}</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" ht="12" spans="1:23">
       <c r="A60" s="15" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2">
         <v>52</v>
@@ -5655,7 +6253,7 @@
         <v>200005</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="K60" s="2">
         <v>52</v>
@@ -5702,9 +6300,9 @@
         <v>{{type=4,value=21716},{type=5,value=5434},{type=6,value=5434}}</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" ht="12" spans="1:23">
       <c r="A61" s="15" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2">
         <v>53</v>
@@ -5717,7 +6315,7 @@
         <v>200005</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="K61" s="2">
         <v>53</v>
@@ -5764,9 +6362,9 @@
         <v>{{type=4,value=22264},{type=5,value=5571},{type=6,value=5571}}</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" ht="12" spans="1:23">
       <c r="A62" s="15" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B62" s="2">
         <v>54</v>
@@ -5779,7 +6377,7 @@
         <v>200005</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="K62" s="2">
         <v>54</v>
@@ -5826,9 +6424,9 @@
         <v>{{type=4,value=22812},{type=5,value=5708},{type=6,value=5708}}</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" ht="12" spans="1:23">
       <c r="A63" s="15" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B63" s="2">
         <v>55</v>
@@ -5841,7 +6439,7 @@
         <v>200005</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="K63" s="2">
         <v>55</v>
@@ -5888,9 +6486,9 @@
         <v>{{type=4,value=23360},{type=5,value=5845},{type=6,value=5845}}</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" ht="12" spans="1:23">
       <c r="A64" s="15" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B64" s="2">
         <v>56</v>
@@ -5903,7 +6501,7 @@
         <v>200005</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="K64" s="2">
         <v>56</v>
@@ -5950,9 +6548,9 @@
         <v>{{type=4,value=23940},{type=5,value=5990},{type=6,value=5990}}</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" ht="12" spans="1:23">
       <c r="A65" s="15" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="B65" s="2">
         <v>57</v>
@@ -5965,7 +6563,7 @@
         <v>200005</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="K65" s="2">
         <v>57</v>
@@ -6012,9 +6610,9 @@
         <v>{{type=4,value=24520},{type=5,value=6135},{type=6,value=6135}}</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" ht="12" spans="1:23">
       <c r="A66" s="15" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="B66" s="2">
         <v>58</v>
@@ -6027,7 +6625,7 @@
         <v>200005</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="K66" s="2">
         <v>58</v>
@@ -6074,9 +6672,9 @@
         <v>{{type=4,value=25100},{type=5,value=6280},{type=6,value=6280}}</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" ht="12" spans="1:23">
       <c r="A67" s="15" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="B67" s="2">
         <v>59</v>
@@ -6089,7 +6687,7 @@
         <v>200005</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="K67" s="2">
         <v>59</v>
@@ -6136,9 +6734,9 @@
         <v>{{type=4,value=25680},{type=5,value=6425},{type=6,value=6425}}</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" ht="12" spans="1:23">
       <c r="A68" s="15" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="B68" s="2">
         <v>60</v>
@@ -6151,7 +6749,7 @@
         <v>200005</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="K68" s="2">
         <v>60</v>
@@ -6198,9 +6796,9 @@
         <v>{{type=4,value=26260},{type=5,value=6570},{type=6,value=6570}}</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" ht="12" spans="1:23">
       <c r="A69" s="15" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B69" s="2">
         <v>61</v>
@@ -6213,7 +6811,7 @@
         <v>200005</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="K69" s="2">
         <v>61</v>
@@ -6260,9 +6858,9 @@
         <v>{{type=4,value=26868},{type=5,value=6722},{type=6,value=6722}}</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" ht="12" spans="1:23">
       <c r="A70" s="15" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="B70" s="2">
         <v>62</v>
@@ -6275,7 +6873,7 @@
         <v>200005</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="K70" s="2">
         <v>62</v>
@@ -6322,9 +6920,9 @@
         <v>{{type=4,value=27476},{type=5,value=6874},{type=6,value=6874}}</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" ht="12" spans="1:23">
       <c r="A71" s="15" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="B71" s="2">
         <v>63</v>
@@ -6337,7 +6935,7 @@
         <v>200005</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="K71" s="2">
         <v>63</v>
@@ -6384,9 +6982,9 @@
         <v>{{type=4,value=28084},{type=5,value=7026},{type=6,value=7026}}</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" ht="12" spans="1:23">
       <c r="A72" s="15" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B72" s="2">
         <v>64</v>
@@ -6399,7 +6997,7 @@
         <v>200005</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>314</v>
+        <v>165</v>
       </c>
       <c r="K72" s="2">
         <v>64</v>
@@ -6446,9 +7044,9 @@
         <v>{{type=4,value=28692},{type=5,value=7178},{type=6,value=7178}}</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" ht="12" spans="1:23">
       <c r="A73" s="15" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B73" s="2">
         <v>65</v>
@@ -6461,7 +7059,7 @@
         <v>200005</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="K73" s="2">
         <v>65</v>
@@ -6508,9 +7106,9 @@
         <v>{{type=4,value=29300},{type=5,value=7330},{type=6,value=7330}}</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" ht="12" spans="1:23">
       <c r="A74" s="15" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="B74" s="2">
         <v>66</v>
@@ -6523,7 +7121,7 @@
         <v>200005</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>316</v>
+        <v>169</v>
       </c>
       <c r="K74" s="2">
         <v>66</v>
@@ -6570,9 +7168,9 @@
         <v>{{type=4,value=29960},{type=5,value=7495},{type=6,value=7495}}</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" ht="12" spans="1:23">
       <c r="A75" s="15" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B75" s="2">
         <v>67</v>
@@ -6585,7 +7183,7 @@
         <v>200005</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="K75" s="2">
         <v>67</v>
@@ -6632,9 +7230,9 @@
         <v>{{type=4,value=30620},{type=5,value=7660},{type=6,value=7660}}</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" ht="12" spans="1:23">
       <c r="A76" s="15" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="B76" s="2">
         <v>68</v>
@@ -6647,7 +7245,7 @@
         <v>200005</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="K76" s="2">
         <v>68</v>
@@ -6694,9 +7292,9 @@
         <v>{{type=4,value=31280},{type=5,value=7825},{type=6,value=7825}}</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" ht="12" spans="1:23">
       <c r="A77" s="15" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="B77" s="2">
         <v>69</v>
@@ -6709,7 +7307,7 @@
         <v>200005</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="K77" s="2">
         <v>69</v>
@@ -6756,9 +7354,9 @@
         <v>{{type=4,value=31940},{type=5,value=7990},{type=6,value=7990}}</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" ht="12" spans="1:23">
       <c r="A78" s="15" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B78" s="2">
         <v>70</v>
@@ -6771,7 +7369,7 @@
         <v>200005</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="K78" s="2">
         <v>70</v>
@@ -6818,9 +7416,9 @@
         <v>{{type=4,value=32600},{type=5,value=8155},{type=6,value=8155}}</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" ht="12" spans="1:23">
       <c r="A79" s="15" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="B79" s="2">
         <v>71</v>
@@ -6833,7 +7431,7 @@
         <v>200005</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="K79" s="2">
         <v>71</v>
@@ -6851,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="Q79" s="2">
         <v>30</v>
@@ -6873,16 +7471,16 @@
         <v>0</v>
       </c>
       <c r="V79" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="W79" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=33356},{type=5,value=8344},{type=6,value=8344}}</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" ht="12" spans="1:23">
       <c r="A80" s="15" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="B80" s="2">
         <v>72</v>
@@ -6895,7 +7493,7 @@
         <v>200005</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>322</v>
+        <v>181</v>
       </c>
       <c r="K80" s="2">
         <v>72</v>
@@ -6913,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="Q80" s="2">
         <v>30</v>
@@ -6935,16 +7533,16 @@
         <v>0</v>
       </c>
       <c r="V80" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="W80" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=34112},{type=5,value=8533},{type=6,value=8533}}</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" ht="12" spans="1:23">
       <c r="A81" s="15" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="B81" s="2">
         <v>73</v>
@@ -6957,7 +7555,7 @@
         <v>200005</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="K81" s="2">
         <v>73</v>
@@ -6975,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="Q81" s="2">
         <v>30</v>
@@ -6997,16 +7595,16 @@
         <v>0</v>
       </c>
       <c r="V81" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="W81" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=34868},{type=5,value=8722},{type=6,value=8722}}</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" ht="12" spans="1:23">
       <c r="A82" s="15" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="B82" s="2">
         <v>74</v>
@@ -7019,7 +7617,7 @@
         <v>200005</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="K82" s="2">
         <v>74</v>
@@ -7037,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="Q82" s="2">
         <v>30</v>
@@ -7059,16 +7657,16 @@
         <v>0</v>
       </c>
       <c r="V82" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="W82" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=35624},{type=5,value=8911},{type=6,value=8911}}</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" ht="12" spans="1:23">
       <c r="A83" s="15" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="B83" s="2">
         <v>75</v>
@@ -7081,7 +7679,7 @@
         <v>200005</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="K83" s="2">
         <v>75</v>
@@ -7099,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="Q83" s="2">
         <v>30</v>
@@ -7121,16 +7719,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="2">
-        <v>3401.9999999999995</v>
+        <v>3402</v>
       </c>
       <c r="W83" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=36380},{type=5,value=9100},{type=6,value=9100}}</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" ht="12" spans="1:23">
       <c r="A84" s="15" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="B84" s="2">
         <v>76</v>
@@ -7143,7 +7741,7 @@
         <v>200005</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="K84" s="2">
         <v>76</v>
@@ -7190,9 +7788,9 @@
         <v>{{type=4,value=37220},{type=5,value=9310},{type=6,value=9310}}</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" ht="12" spans="1:23">
       <c r="A85" s="15" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="B85" s="2">
         <v>77</v>
@@ -7205,7 +7803,7 @@
         <v>200005</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>327</v>
+        <v>191</v>
       </c>
       <c r="K85" s="2">
         <v>77</v>
@@ -7252,9 +7850,9 @@
         <v>{{type=4,value=38060},{type=5,value=9520},{type=6,value=9520}}</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" ht="12" spans="1:23">
       <c r="A86" s="15" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B86" s="2">
         <v>78</v>
@@ -7267,7 +7865,7 @@
         <v>200005</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="K86" s="2">
         <v>78</v>
@@ -7314,9 +7912,9 @@
         <v>{{type=4,value=38900},{type=5,value=9730},{type=6,value=9730}}</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" ht="12" spans="1:23">
       <c r="A87" s="15" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="B87" s="2">
         <v>79</v>
@@ -7329,7 +7927,7 @@
         <v>200005</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>329</v>
+        <v>195</v>
       </c>
       <c r="K87" s="2">
         <v>79</v>
@@ -7376,9 +7974,9 @@
         <v>{{type=4,value=39740},{type=5,value=9940},{type=6,value=9940}}</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" ht="12" spans="1:23">
       <c r="A88" s="15" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="B88" s="2">
         <v>80</v>
@@ -7391,7 +7989,7 @@
         <v>200005</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="K88" s="2">
         <v>80</v>
@@ -7438,9 +8036,9 @@
         <v>{{type=4,value=40580},{type=5,value=10150},{type=6,value=10150}}</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" ht="12" spans="1:23">
       <c r="A89" s="15" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2">
         <v>81</v>
@@ -7453,7 +8051,7 @@
         <v>200005</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="K89" s="2">
         <v>81</v>
@@ -7500,9 +8098,9 @@
         <v>{{type=4,value=41492},{type=5,value=10378},{type=6,value=10378}}</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" ht="12" spans="1:23">
       <c r="A90" s="15" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="B90" s="2">
         <v>82</v>
@@ -7515,7 +8113,7 @@
         <v>200005</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="K90" s="2">
         <v>82</v>
@@ -7562,9 +8160,9 @@
         <v>{{type=4,value=42404},{type=5,value=10606},{type=6,value=10606}}</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" ht="12" spans="1:23">
       <c r="A91" s="15" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="B91" s="2">
         <v>83</v>
@@ -7577,7 +8175,7 @@
         <v>200005</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="K91" s="2">
         <v>83</v>
@@ -7624,9 +8222,9 @@
         <v>{{type=4,value=43316},{type=5,value=10834},{type=6,value=10834}}</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" ht="12" spans="1:23">
       <c r="A92" s="15" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B92" s="2">
         <v>84</v>
@@ -7639,7 +8237,7 @@
         <v>200005</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="K92" s="2">
         <v>84</v>
@@ -7686,9 +8284,9 @@
         <v>{{type=4,value=44228},{type=5,value=11062},{type=6,value=11062}}</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" ht="12" spans="1:23">
       <c r="A93" s="15" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="B93" s="2">
         <v>85</v>
@@ -7701,7 +8299,7 @@
         <v>200005</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>335</v>
+        <v>207</v>
       </c>
       <c r="K93" s="2">
         <v>85</v>
@@ -7748,9 +8346,9 @@
         <v>{{type=4,value=45140},{type=5,value=11290},{type=6,value=11290}}</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" ht="12" spans="1:23">
       <c r="A94" s="15" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="B94" s="2">
         <v>86</v>
@@ -7763,7 +8361,7 @@
         <v>200005</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="K94" s="2">
         <v>86</v>
@@ -7810,9 +8408,9 @@
         <v>{{type=4,value=46116},{type=5,value=11534},{type=6,value=11534}}</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" ht="12" spans="1:23">
       <c r="A95" s="15" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="B95" s="2">
         <v>87</v>
@@ -7825,7 +8423,7 @@
         <v>200005</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="K95" s="2">
         <v>87</v>
@@ -7872,9 +8470,9 @@
         <v>{{type=4,value=47092},{type=5,value=11778},{type=6,value=11778}}</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" ht="12" spans="1:23">
       <c r="A96" s="15" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2">
         <v>88</v>
@@ -7887,7 +8485,7 @@
         <v>200005</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="K96" s="2">
         <v>88</v>
@@ -7934,9 +8532,9 @@
         <v>{{type=4,value=48068},{type=5,value=12022},{type=6,value=12022}}</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" ht="12" spans="1:23">
       <c r="A97" s="15" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="B97" s="2">
         <v>89</v>
@@ -7949,7 +8547,7 @@
         <v>200005</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="K97" s="2">
         <v>89</v>
@@ -7996,9 +8594,9 @@
         <v>{{type=4,value=49044},{type=5,value=12266},{type=6,value=12266}}</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" ht="12" spans="1:23">
       <c r="A98" s="15" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="B98" s="2">
         <v>90</v>
@@ -8011,7 +8609,7 @@
         <v>200005</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="K98" s="2">
         <v>90</v>
@@ -8058,9 +8656,9 @@
         <v>{{type=4,value=50020},{type=5,value=12510},{type=6,value=12510}}</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" ht="12" spans="1:23">
       <c r="A99" s="15" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="B99" s="2">
         <v>91</v>
@@ -8073,7 +8671,7 @@
         <v>200005</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>341</v>
+        <v>219</v>
       </c>
       <c r="K99" s="2">
         <v>91</v>
@@ -8120,9 +8718,9 @@
         <v>{{type=4,value=51052},{type=5,value=12768},{type=6,value=12768}}</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" ht="12" spans="1:23">
       <c r="A100" s="15" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="B100" s="2">
         <v>92</v>
@@ -8135,7 +8733,7 @@
         <v>200005</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>342</v>
+        <v>221</v>
       </c>
       <c r="K100" s="2">
         <v>92</v>
@@ -8182,9 +8780,9 @@
         <v>{{type=4,value=52084},{type=5,value=13026},{type=6,value=13026}}</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" ht="12" spans="1:23">
       <c r="A101" s="15" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="B101" s="2">
         <v>93</v>
@@ -8197,7 +8795,7 @@
         <v>200005</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="K101" s="2">
         <v>93</v>
@@ -8244,9 +8842,9 @@
         <v>{{type=4,value=53116},{type=5,value=13284},{type=6,value=13284}}</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" ht="12" spans="1:23">
       <c r="A102" s="15" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="B102" s="2">
         <v>94</v>
@@ -8259,7 +8857,7 @@
         <v>200005</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="K102" s="2">
         <v>94</v>
@@ -8306,9 +8904,9 @@
         <v>{{type=4,value=54148},{type=5,value=13542},{type=6,value=13542}}</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" ht="12" spans="1:23">
       <c r="A103" s="15" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="B103" s="2">
         <v>95</v>
@@ -8321,7 +8919,7 @@
         <v>200005</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="K103" s="2">
         <v>95</v>
@@ -8368,9 +8966,9 @@
         <v>{{type=4,value=55180},{type=5,value=13800},{type=6,value=13800}}</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" ht="12" spans="1:23">
       <c r="A104" s="15" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="B104" s="2">
         <v>96</v>
@@ -8383,7 +8981,7 @@
         <v>200005</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="K104" s="2">
         <v>96</v>
@@ -8430,9 +9028,9 @@
         <v>{{type=4,value=56260},{type=5,value=14070},{type=6,value=14070}}</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" ht="12" spans="1:23">
       <c r="A105" s="15" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B105" s="2">
         <v>97</v>
@@ -8445,7 +9043,7 @@
         <v>200005</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="K105" s="2">
         <v>97</v>
@@ -8492,9 +9090,9 @@
         <v>{{type=4,value=57340},{type=5,value=14340},{type=6,value=14340}}</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" ht="12" spans="1:23">
       <c r="A106" s="15" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="B106" s="2">
         <v>98</v>
@@ -8507,7 +9105,7 @@
         <v>200005</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="K106" s="2">
         <v>98</v>
@@ -8554,9 +9152,9 @@
         <v>{{type=4,value=58420},{type=5,value=14610},{type=6,value=14610}}</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" ht="12" spans="1:23">
       <c r="A107" s="15" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="B107" s="2">
         <v>99</v>
@@ -8569,7 +9167,7 @@
         <v>200005</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="K107" s="2">
         <v>99</v>
@@ -8616,9 +9214,9 @@
         <v>{{type=4,value=59500},{type=5,value=14880},{type=6,value=14880}}</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" ht="12" spans="1:23">
       <c r="A108" s="15" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="B108" s="2">
         <v>100</v>
@@ -8631,7 +9229,7 @@
         <v>200005</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="K108" s="2">
         <v>100</v>
@@ -8678,9 +9276,9 @@
         <v>{{type=4,value=60580},{type=5,value=15150},{type=6,value=15150}}</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" ht="12" spans="1:23">
       <c r="A109" s="15" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="B109" s="2">
         <v>101</v>
@@ -8693,7 +9291,7 @@
         <v>200005</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>351</v>
+        <v>239</v>
       </c>
       <c r="K109" s="2">
         <v>101</v>
@@ -8740,9 +9338,9 @@
         <v>{{type=4,value=61700},{type=5,value=15430},{type=6,value=15430}}</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" ht="12" spans="1:23">
       <c r="A110" s="15" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="B110" s="2">
         <v>102</v>
@@ -8755,7 +9353,7 @@
         <v>200005</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="K110" s="2">
         <v>102</v>
@@ -8802,9 +9400,9 @@
         <v>{{type=4,value=62820},{type=5,value=15710},{type=6,value=15710}}</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" ht="12" spans="1:23">
       <c r="A111" s="15" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="B111" s="2">
         <v>103</v>
@@ -8817,7 +9415,7 @@
         <v>200005</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="K111" s="2">
         <v>103</v>
@@ -8864,9 +9462,9 @@
         <v>{{type=4,value=63940},{type=5,value=15990},{type=6,value=15990}}</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" ht="12" spans="1:23">
       <c r="A112" s="15" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="B112" s="2">
         <v>104</v>
@@ -8879,7 +9477,7 @@
         <v>200005</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="K112" s="2">
         <v>104</v>
@@ -8926,9 +9524,9 @@
         <v>{{type=4,value=65060},{type=5,value=16270},{type=6,value=16270}}</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" ht="12" spans="1:23">
       <c r="A113" s="15" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="B113" s="2">
         <v>105</v>
@@ -8941,7 +9539,7 @@
         <v>200005</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="K113" s="2">
         <v>105</v>
@@ -8988,9 +9586,9 @@
         <v>{{type=4,value=66180},{type=5,value=16550},{type=6,value=16550}}</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" ht="12" spans="1:23">
       <c r="A114" s="15" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="B114" s="2">
         <v>106</v>
@@ -9003,7 +9601,7 @@
         <v>200005</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="K114" s="2">
         <v>106</v>
@@ -9050,9 +9648,9 @@
         <v>{{type=4,value=67336},{type=5,value=16839},{type=6,value=16839}}</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" ht="12" spans="1:23">
       <c r="A115" s="15" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="B115" s="2">
         <v>107</v>
@@ -9065,7 +9663,7 @@
         <v>200005</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="K115" s="2">
         <v>107</v>
@@ -9112,9 +9710,9 @@
         <v>{{type=4,value=68492},{type=5,value=17128},{type=6,value=17128}}</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" ht="12" spans="1:23">
       <c r="A116" s="15" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="B116" s="2">
         <v>108</v>
@@ -9127,7 +9725,7 @@
         <v>200005</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="K116" s="2">
         <v>108</v>
@@ -9174,9 +9772,9 @@
         <v>{{type=4,value=69648},{type=5,value=17417},{type=6,value=17417}}</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" ht="12" spans="1:23">
       <c r="A117" s="15" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="B117" s="2">
         <v>109</v>
@@ -9189,7 +9787,7 @@
         <v>200005</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="K117" s="2">
         <v>109</v>
@@ -9236,9 +9834,9 @@
         <v>{{type=4,value=70804},{type=5,value=17706},{type=6,value=17706}}</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" ht="12" spans="1:23">
       <c r="A118" s="15" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="B118" s="2">
         <v>110</v>
@@ -9251,7 +9849,7 @@
         <v>200005</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="K118" s="2">
         <v>110</v>
@@ -9298,9 +9896,9 @@
         <v>{{type=4,value=71960},{type=5,value=17995},{type=6,value=17995}}</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" ht="12" spans="1:23">
       <c r="A119" s="15" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="B119" s="2">
         <v>111</v>
@@ -9313,7 +9911,7 @@
         <v>200005</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="K119" s="2">
         <v>111</v>
@@ -9331,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="Q119" s="2">
         <v>70</v>
@@ -9353,16 +9951,16 @@
         <v>0</v>
       </c>
       <c r="V119" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="W119" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=73144},{type=5,value=18291},{type=6,value=18291}}</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" ht="12" spans="1:23">
       <c r="A120" s="15" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="B120" s="2">
         <v>112</v>
@@ -9375,7 +9973,7 @@
         <v>200005</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="K120" s="2">
         <v>112</v>
@@ -9393,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="Q120" s="2">
         <v>70</v>
@@ -9415,16 +10013,16 @@
         <v>0</v>
       </c>
       <c r="V120" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="W120" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=74328},{type=5,value=18587},{type=6,value=18587}}</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" ht="12" spans="1:23">
       <c r="A121" s="15" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B121" s="2">
         <v>113</v>
@@ -9437,7 +10035,7 @@
         <v>200005</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="K121" s="2">
         <v>113</v>
@@ -9455,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="Q121" s="2">
         <v>70</v>
@@ -9477,16 +10075,16 @@
         <v>0</v>
       </c>
       <c r="V121" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="W121" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=75512},{type=5,value=18883},{type=6,value=18883}}</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" ht="12" spans="1:23">
       <c r="A122" s="15" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="B122" s="2">
         <v>114</v>
@@ -9499,7 +10097,7 @@
         <v>200005</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="K122" s="2">
         <v>114</v>
@@ -9517,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="Q122" s="2">
         <v>70</v>
@@ -9539,16 +10137,16 @@
         <v>0</v>
       </c>
       <c r="V122" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="W122" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=76696},{type=5,value=19179},{type=6,value=19179}}</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" ht="12" spans="1:23">
       <c r="A123" s="15" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="B123" s="2">
         <v>115</v>
@@ -9561,7 +10159,7 @@
         <v>200005</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="K123" s="2">
         <v>115</v>
@@ -9579,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="Q123" s="2">
         <v>70</v>
@@ -9601,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="V123" s="2">
-        <v>5328.0000000000009</v>
+        <v>5328</v>
       </c>
       <c r="W123" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=77880},{type=5,value=19475},{type=6,value=19475}}</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" ht="12" spans="1:23">
       <c r="A124" s="15" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="B124" s="2">
         <v>116</v>
@@ -9623,7 +10221,7 @@
         <v>200005</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>366</v>
+        <v>269</v>
       </c>
       <c r="K124" s="2">
         <v>116</v>
@@ -9641,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="Q124" s="2">
         <v>75</v>
@@ -9663,16 +10261,16 @@
         <v>0</v>
       </c>
       <c r="V124" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="W124" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=79088},{type=5,value=19777},{type=6,value=19777}}</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" ht="12" spans="1:23">
       <c r="A125" s="15" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="B125" s="2">
         <v>117</v>
@@ -9685,7 +10283,7 @@
         <v>200005</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="K125" s="2">
         <v>117</v>
@@ -9703,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="Q125" s="2">
         <v>75</v>
@@ -9725,16 +10323,16 @@
         <v>0</v>
       </c>
       <c r="V125" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="W125" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=80296},{type=5,value=20079},{type=6,value=20079}}</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" ht="12" spans="1:23">
       <c r="A126" s="15" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="B126" s="2">
         <v>118</v>
@@ -9747,7 +10345,7 @@
         <v>200005</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>368</v>
+        <v>273</v>
       </c>
       <c r="K126" s="2">
         <v>118</v>
@@ -9765,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="Q126" s="2">
         <v>75</v>
@@ -9787,16 +10385,16 @@
         <v>0</v>
       </c>
       <c r="V126" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="W126" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=81504},{type=5,value=20381},{type=6,value=20381}}</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" ht="12" spans="1:23">
       <c r="A127" s="15" t="s">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="B127" s="2">
         <v>119</v>
@@ -9809,7 +10407,7 @@
         <v>200005</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="K127" s="2">
         <v>119</v>
@@ -9827,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="Q127" s="2">
         <v>75</v>
@@ -9849,16 +10447,16 @@
         <v>0</v>
       </c>
       <c r="V127" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="W127" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=82712},{type=5,value=20683},{type=6,value=20683}}</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" ht="12" spans="1:23">
       <c r="A128" s="15" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="B128" s="2">
         <v>120</v>
@@ -9871,7 +10469,7 @@
         <v>200005</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
       <c r="K128" s="2">
         <v>120</v>
@@ -9889,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="Q128" s="2">
         <v>75</v>
@@ -9911,16 +10509,16 @@
         <v>0</v>
       </c>
       <c r="V128" s="2">
-        <v>5436.0000000000009</v>
+        <v>5436</v>
       </c>
       <c r="W128" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=83920},{type=5,value=20985},{type=6,value=20985}}</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" ht="12" spans="1:23">
       <c r="A129" s="15" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="B129" s="2">
         <v>121</v>
@@ -9933,7 +10531,7 @@
         <v>200005</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="K129" s="2">
         <v>121</v>
@@ -9951,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="P129" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="Q129" s="2">
         <v>80</v>
@@ -9973,16 +10571,16 @@
         <v>0</v>
       </c>
       <c r="V129" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="W129" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=85148},{type=5,value=21292},{type=6,value=21292}}</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" ht="12" spans="1:23">
       <c r="A130" s="15" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="B130" s="2">
         <v>122</v>
@@ -9995,7 +10593,7 @@
         <v>200005</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="K130" s="2">
         <v>122</v>
@@ -10013,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="Q130" s="2">
         <v>80</v>
@@ -10035,16 +10633,16 @@
         <v>0</v>
       </c>
       <c r="V130" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="W130" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=86376},{type=5,value=21599},{type=6,value=21599}}</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" ht="12" spans="1:23">
       <c r="A131" s="15" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="B131" s="2">
         <v>123</v>
@@ -10057,7 +10655,7 @@
         <v>200005</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="K131" s="2">
         <v>123</v>
@@ -10075,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="Q131" s="2">
         <v>80</v>
@@ -10097,16 +10695,16 @@
         <v>0</v>
       </c>
       <c r="V131" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="W131" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=87604},{type=5,value=21906},{type=6,value=21906}}</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" ht="12" spans="1:23">
       <c r="A132" s="15" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2">
         <v>124</v>
@@ -10119,7 +10717,7 @@
         <v>200005</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="K132" s="2">
         <v>124</v>
@@ -10137,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="Q132" s="2">
         <v>80</v>
@@ -10159,16 +10757,16 @@
         <v>0</v>
       </c>
       <c r="V132" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="W132" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=88832},{type=5,value=22213},{type=6,value=22213}}</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" ht="12" spans="1:23">
       <c r="A133" s="15" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="B133" s="2">
         <v>125</v>
@@ -10181,7 +10779,7 @@
         <v>200005</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="K133" s="2">
         <v>125</v>
@@ -10199,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="Q133" s="2">
         <v>80</v>
@@ -10221,16 +10819,16 @@
         <v>0</v>
       </c>
       <c r="V133" s="2">
-        <v>5526.0000000000009</v>
+        <v>5526</v>
       </c>
       <c r="W133" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=90060},{type=5,value=22520},{type=6,value=22520}}</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" ht="12" spans="1:23">
       <c r="A134" s="15" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="B134" s="2">
         <v>126</v>
@@ -10243,7 +10841,7 @@
         <v>200005</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="K134" s="2">
         <v>126</v>
@@ -10290,9 +10888,9 @@
         <v>{{type=4,value=91300},{type=5,value=22830},{type=6,value=22830}}</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" ht="12" spans="1:23">
       <c r="A135" s="15" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="B135" s="2">
         <v>127</v>
@@ -10305,7 +10903,7 @@
         <v>200005</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="K135" s="2">
         <v>127</v>
@@ -10352,9 +10950,9 @@
         <v>{{type=4,value=92540},{type=5,value=23140},{type=6,value=23140}}</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" ht="12" spans="1:23">
       <c r="A136" s="15" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="B136" s="2">
         <v>128</v>
@@ -10367,7 +10965,7 @@
         <v>200005</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="K136" s="2">
         <v>128</v>
@@ -10414,9 +11012,9 @@
         <v>{{type=4,value=93780},{type=5,value=23450},{type=6,value=23450}}</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" ht="12" spans="1:23">
       <c r="A137" s="15" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="B137" s="2">
         <v>129</v>
@@ -10429,7 +11027,7 @@
         <v>200005</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="K137" s="2">
         <v>129</v>
@@ -10476,9 +11074,9 @@
         <v>{{type=4,value=95020},{type=5,value=23760},{type=6,value=23760}}</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" ht="12" spans="1:23">
       <c r="A138" s="15" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="B138" s="2">
         <v>130</v>
@@ -10491,7 +11089,7 @@
         <v>200005</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="K138" s="2">
         <v>130</v>
@@ -10538,9 +11136,9 @@
         <v>{{type=4,value=96260},{type=5,value=24070},{type=6,value=24070}}</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" ht="12" spans="1:23">
       <c r="A139" s="15" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="B139" s="2">
         <v>131</v>
@@ -10553,7 +11151,7 @@
         <v>200005</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>381</v>
+        <v>299</v>
       </c>
       <c r="K139" s="2">
         <v>131</v>
@@ -10571,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="Q139" s="2">
         <v>90</v>
@@ -10593,16 +11191,16 @@
         <v>0</v>
       </c>
       <c r="V139" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="W139" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=97508},{type=5,value=24382},{type=6,value=24382}}</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" ht="12" spans="1:23">
       <c r="A140" s="15" t="s">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="B140" s="2">
         <v>132</v>
@@ -10615,7 +11213,7 @@
         <v>200005</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>382</v>
+        <v>301</v>
       </c>
       <c r="K140" s="2">
         <v>132</v>
@@ -10633,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="Q140" s="2">
         <v>90</v>
@@ -10655,16 +11253,16 @@
         <v>0</v>
       </c>
       <c r="V140" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="W140" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=98756},{type=5,value=24694},{type=6,value=24694}}</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" ht="12" spans="1:23">
       <c r="A141" s="15" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="B141" s="2">
         <v>133</v>
@@ -10677,7 +11275,7 @@
         <v>200005</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="K141" s="2">
         <v>133</v>
@@ -10695,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="Q141" s="2">
         <v>90</v>
@@ -10717,16 +11315,16 @@
         <v>0</v>
       </c>
       <c r="V141" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="W141" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=100004},{type=5,value=25006},{type=6,value=25006}}</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" ht="12" spans="1:23">
       <c r="A142" s="15" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="B142" s="2">
         <v>134</v>
@@ -10739,7 +11337,7 @@
         <v>200005</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="K142" s="2">
         <v>134</v>
@@ -10757,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="Q142" s="2">
         <v>90</v>
@@ -10779,16 +11377,16 @@
         <v>0</v>
       </c>
       <c r="V142" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="W142" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=101252},{type=5,value=25318},{type=6,value=25318}}</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" ht="12" spans="1:23">
       <c r="A143" s="15" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="B143" s="2">
         <v>135</v>
@@ -10801,7 +11399,7 @@
         <v>200005</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="K143" s="2">
         <v>135</v>
@@ -10819,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="Q143" s="2">
         <v>90</v>
@@ -10841,16 +11439,16 @@
         <v>0</v>
       </c>
       <c r="V143" s="2">
-        <v>5616.0000000000009</v>
+        <v>5616</v>
       </c>
       <c r="W143" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=102500},{type=5,value=25630},{type=6,value=25630}}</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" ht="12" spans="1:23">
       <c r="A144" s="15" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B144" s="2">
         <v>136</v>
@@ -10863,7 +11461,7 @@
         <v>200005</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="K144" s="2">
         <v>136</v>
@@ -10881,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="Q144" s="2">
         <v>95</v>
@@ -10903,16 +11501,16 @@
         <v>0</v>
       </c>
       <c r="V144" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="W144" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=103752},{type=5,value=25943},{type=6,value=25943}}</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" ht="12" spans="1:23">
       <c r="A145" s="15" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="B145" s="2">
         <v>137</v>
@@ -10925,7 +11523,7 @@
         <v>200005</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="K145" s="2">
         <v>137</v>
@@ -10943,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="Q145" s="2">
         <v>95</v>
@@ -10965,16 +11563,16 @@
         <v>0</v>
       </c>
       <c r="V145" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="W145" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=105004},{type=5,value=26256},{type=6,value=26256}}</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" ht="12" spans="1:23">
       <c r="A146" s="15" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="B146" s="2">
         <v>138</v>
@@ -10987,7 +11585,7 @@
         <v>200005</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="K146" s="2">
         <v>138</v>
@@ -11005,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="Q146" s="2">
         <v>95</v>
@@ -11027,16 +11625,16 @@
         <v>0</v>
       </c>
       <c r="V146" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="W146" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=106256},{type=5,value=26569},{type=6,value=26569}}</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" ht="12" spans="1:23">
       <c r="A147" s="15" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="B147" s="2">
         <v>139</v>
@@ -11049,7 +11647,7 @@
         <v>200005</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="K147" s="2">
         <v>139</v>
@@ -11067,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="Q147" s="2">
         <v>95</v>
@@ -11089,16 +11687,16 @@
         <v>0</v>
       </c>
       <c r="V147" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="W147" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=107508},{type=5,value=26882},{type=6,value=26882}}</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" ht="12" spans="1:23">
       <c r="A148" s="15" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="B148" s="2">
         <v>140</v>
@@ -11111,7 +11709,7 @@
         <v>200005</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="K148" s="2">
         <v>140</v>
@@ -11129,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="Q148" s="2">
         <v>95</v>
@@ -11151,16 +11749,16 @@
         <v>0</v>
       </c>
       <c r="V148" s="2">
-        <v>5633.9999999999991</v>
+        <v>5634</v>
       </c>
       <c r="W148" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=108760},{type=5,value=27195},{type=6,value=27195}}</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" ht="12" spans="1:23">
       <c r="A149" s="15" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="B149" s="2">
         <v>141</v>
@@ -11173,7 +11771,7 @@
         <v>200005</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="K149" s="2">
         <v>141</v>
@@ -11220,9 +11818,9 @@
         <v>{{type=4,value=110080},{type=5,value=27525},{type=6,value=27525}}</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" ht="12" spans="1:23">
       <c r="A150" s="15" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="B150" s="2">
         <v>142</v>
@@ -11235,7 +11833,7 @@
         <v>200005</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="K150" s="2">
         <v>142</v>
@@ -11282,9 +11880,9 @@
         <v>{{type=4,value=111400},{type=5,value=27855},{type=6,value=27855}}</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" ht="12" spans="1:23">
       <c r="A151" s="15" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="B151" s="2">
         <v>143</v>
@@ -11297,7 +11895,7 @@
         <v>200005</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="K151" s="2">
         <v>143</v>
@@ -11344,9 +11942,9 @@
         <v>{{type=4,value=112720},{type=5,value=28185},{type=6,value=28185}}</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" ht="12" spans="1:23">
       <c r="A152" s="15" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="B152" s="2">
         <v>144</v>
@@ -11359,7 +11957,7 @@
         <v>200005</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
       <c r="K152" s="2">
         <v>144</v>
@@ -11406,9 +12004,9 @@
         <v>{{type=4,value=114040},{type=5,value=28515},{type=6,value=28515}}</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" ht="12" spans="1:23">
       <c r="A153" s="15" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="B153" s="2">
         <v>145</v>
@@ -11421,7 +12019,7 @@
         <v>200005</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="K153" s="2">
         <v>145</v>
@@ -11468,9 +12066,9 @@
         <v>{{type=4,value=115360},{type=5,value=28845},{type=6,value=28845}}</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" ht="12" spans="1:23">
       <c r="A154" s="15" t="s">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="B154" s="2">
         <v>146</v>
@@ -11483,7 +12081,7 @@
         <v>200005</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="K154" s="2">
         <v>146</v>
@@ -11501,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="Q154" s="2">
         <v>105</v>
@@ -11523,16 +12121,16 @@
         <v>0</v>
       </c>
       <c r="V154" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="W154" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=116748},{type=5,value=29192},{type=6,value=29192}}</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" ht="12" spans="1:23">
       <c r="A155" s="15" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="B155" s="2">
         <v>147</v>
@@ -11545,7 +12143,7 @@
         <v>200005</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="K155" s="2">
         <v>147</v>
@@ -11563,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="Q155" s="2">
         <v>105</v>
@@ -11585,16 +12183,16 @@
         <v>0</v>
       </c>
       <c r="V155" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="W155" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=118136},{type=5,value=29539},{type=6,value=29539}}</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" ht="12" spans="1:23">
       <c r="A156" s="15" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="B156" s="2">
         <v>148</v>
@@ -11607,7 +12205,7 @@
         <v>200005</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="K156" s="2">
         <v>148</v>
@@ -11625,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="Q156" s="2">
         <v>105</v>
@@ -11647,16 +12245,16 @@
         <v>0</v>
       </c>
       <c r="V156" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="W156" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=119524},{type=5,value=29886},{type=6,value=29886}}</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" ht="12" spans="1:23">
       <c r="A157" s="15" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="B157" s="2">
         <v>149</v>
@@ -11669,7 +12267,7 @@
         <v>200005</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="K157" s="2">
         <v>149</v>
@@ -11687,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="Q157" s="2">
         <v>105</v>
@@ -11709,16 +12307,16 @@
         <v>0</v>
       </c>
       <c r="V157" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="W157" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=120912},{type=5,value=30233},{type=6,value=30233}}</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" ht="12" spans="1:23">
       <c r="A158" s="15" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="B158" s="2">
         <v>150</v>
@@ -11731,7 +12329,7 @@
         <v>200005</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="K158" s="2">
         <v>150</v>
@@ -11749,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="Q158" s="2">
         <v>105</v>
@@ -11771,16 +12369,16 @@
         <v>0</v>
       </c>
       <c r="V158" s="2">
-        <v>6246.0000000000009</v>
+        <v>6246</v>
       </c>
       <c r="W158" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=122300},{type=5,value=30580},{type=6,value=30580}}</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" ht="12" spans="1:23">
       <c r="A159" s="15" t="s">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c r="B159" s="2">
         <v>151</v>
@@ -11793,7 +12391,7 @@
         <v>200005</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="K159" s="2">
         <v>151</v>
@@ -11840,9 +12438,9 @@
         <v>{{type=4,value=123696},{type=5,value=30929},{type=6,value=30929}}</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" ht="12" spans="1:23">
       <c r="A160" s="15" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="B160" s="2">
         <v>152</v>
@@ -11855,7 +12453,7 @@
         <v>200005</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K160" s="2">
         <v>152</v>
@@ -11902,9 +12500,9 @@
         <v>{{type=4,value=125092},{type=5,value=31278},{type=6,value=31278}}</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" ht="12" spans="1:23">
       <c r="A161" s="15" t="s">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="B161" s="2">
         <v>153</v>
@@ -11917,7 +12515,7 @@
         <v>200005</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="K161" s="2">
         <v>153</v>
@@ -11964,9 +12562,9 @@
         <v>{{type=4,value=126488},{type=5,value=31627},{type=6,value=31627}}</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" ht="12" spans="1:23">
       <c r="A162" s="15" t="s">
-        <v>183</v>
+        <v>344</v>
       </c>
       <c r="B162" s="2">
         <v>154</v>
@@ -11979,7 +12577,7 @@
         <v>200005</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="K162" s="2">
         <v>154</v>
@@ -12026,9 +12624,9 @@
         <v>{{type=4,value=127884},{type=5,value=31976},{type=6,value=31976}}</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" ht="12" spans="1:23">
       <c r="A163" s="15" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="B163" s="2">
         <v>155</v>
@@ -12041,7 +12639,7 @@
         <v>200005</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="K163" s="2">
         <v>155</v>
@@ -12088,9 +12686,9 @@
         <v>{{type=4,value=129280},{type=5,value=32325},{type=6,value=32325}}</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" ht="12" spans="1:23">
       <c r="A164" s="15" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="B164" s="2">
         <v>156</v>
@@ -12103,7 +12701,7 @@
         <v>200005</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="K164" s="2">
         <v>156</v>
@@ -12121,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="Q164" s="2">
         <v>115</v>
@@ -12143,16 +12741,16 @@
         <v>0</v>
       </c>
       <c r="V164" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="W164" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=130684},{type=5,value=32676},{type=6,value=32676}}</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" ht="12" spans="1:23">
       <c r="A165" s="15" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="B165" s="2">
         <v>157</v>
@@ -12165,7 +12763,7 @@
         <v>200005</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="K165" s="2">
         <v>157</v>
@@ -12183,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="Q165" s="2">
         <v>115</v>
@@ -12205,16 +12803,16 @@
         <v>0</v>
       </c>
       <c r="V165" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="W165" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=132088},{type=5,value=33027},{type=6,value=33027}}</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" ht="12" spans="1:23">
       <c r="A166" s="15" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="B166" s="2">
         <v>158</v>
@@ -12227,7 +12825,7 @@
         <v>200005</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="K166" s="2">
         <v>158</v>
@@ -12245,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="Q166" s="2">
         <v>115</v>
@@ -12267,16 +12865,16 @@
         <v>0</v>
       </c>
       <c r="V166" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="W166" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=133492},{type=5,value=33378},{type=6,value=33378}}</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" ht="12" spans="1:23">
       <c r="A167" s="15" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="B167" s="2">
         <v>159</v>
@@ -12289,7 +12887,7 @@
         <v>200005</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="K167" s="2">
         <v>159</v>
@@ -12307,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="Q167" s="2">
         <v>115</v>
@@ -12329,16 +12927,16 @@
         <v>0</v>
       </c>
       <c r="V167" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="W167" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=134896},{type=5,value=33729},{type=6,value=33729}}</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" ht="12" spans="1:23">
       <c r="A168" s="15" t="s">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="B168" s="2">
         <v>160</v>
@@ -12351,7 +12949,7 @@
         <v>200005</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="K168" s="2">
         <v>160</v>
@@ -12369,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="P168" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="Q168" s="2">
         <v>115</v>
@@ -12391,16 +12989,16 @@
         <v>0</v>
       </c>
       <c r="V168" s="2">
-        <v>6318.0000000000009</v>
+        <v>6318</v>
       </c>
       <c r="W168" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=136300},{type=5,value=34080},{type=6,value=34080}}</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" ht="12" spans="1:23">
       <c r="A169" s="15" t="s">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="B169" s="2">
         <v>161</v>
@@ -12413,7 +13011,7 @@
         <v>200005</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="K169" s="2">
         <v>161</v>
@@ -12431,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="Q169" s="2">
         <v>120</v>
@@ -12453,16 +13051,16 @@
         <v>0</v>
       </c>
       <c r="V169" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="W169" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=137708},{type=5,value=34432},{type=6,value=34432}}</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" ht="12" spans="1:23">
       <c r="A170" s="15" t="s">
-        <v>191</v>
+        <v>360</v>
       </c>
       <c r="B170" s="2">
         <v>162</v>
@@ -12475,7 +13073,7 @@
         <v>200005</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="K170" s="2">
         <v>162</v>
@@ -12493,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="Q170" s="2">
         <v>120</v>
@@ -12515,16 +13113,16 @@
         <v>0</v>
       </c>
       <c r="V170" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="W170" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=139116},{type=5,value=34784},{type=6,value=34784}}</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" ht="12" spans="1:23">
       <c r="A171" s="15" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="B171" s="2">
         <v>163</v>
@@ -12537,7 +13135,7 @@
         <v>200005</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="K171" s="2">
         <v>163</v>
@@ -12555,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="P171" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="Q171" s="2">
         <v>120</v>
@@ -12577,16 +13175,16 @@
         <v>0</v>
       </c>
       <c r="V171" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="W171" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=140524},{type=5,value=35136},{type=6,value=35136}}</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" ht="12" spans="1:23">
       <c r="A172" s="15" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
       <c r="B172" s="2">
         <v>164</v>
@@ -12599,7 +13197,7 @@
         <v>200005</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="K172" s="2">
         <v>164</v>
@@ -12617,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="Q172" s="2">
         <v>120</v>
@@ -12639,16 +13237,16 @@
         <v>0</v>
       </c>
       <c r="V172" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="W172" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=141932},{type=5,value=35488},{type=6,value=35488}}</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" ht="12" spans="1:23">
       <c r="A173" s="15" t="s">
-        <v>194</v>
+        <v>366</v>
       </c>
       <c r="B173" s="2">
         <v>165</v>
@@ -12661,7 +13259,7 @@
         <v>200005</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="K173" s="2">
         <v>165</v>
@@ -12679,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="Q173" s="2">
         <v>120</v>
@@ -12701,16 +13299,16 @@
         <v>0</v>
       </c>
       <c r="V173" s="2">
-        <v>6336.0000000000009</v>
+        <v>6336</v>
       </c>
       <c r="W173" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=143340},{type=5,value=35840},{type=6,value=35840}}</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" ht="12" spans="1:23">
       <c r="A174" s="15" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="B174" s="2">
         <v>166</v>
@@ -12723,7 +13321,7 @@
         <v>200005</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="K174" s="2">
         <v>166</v>
@@ -12741,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="Q174" s="2">
         <v>125</v>
@@ -12763,16 +13361,16 @@
         <v>0</v>
       </c>
       <c r="V174" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="W174" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=144808},{type=5,value=36207},{type=6,value=36207}}</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" ht="12" spans="1:23">
       <c r="A175" s="15" t="s">
-        <v>196</v>
+        <v>370</v>
       </c>
       <c r="B175" s="2">
         <v>167</v>
@@ -12785,7 +13383,7 @@
         <v>200005</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="K175" s="2">
         <v>167</v>
@@ -12803,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="Q175" s="2">
         <v>125</v>
@@ -12825,16 +13423,16 @@
         <v>0</v>
       </c>
       <c r="V175" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="W175" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=146276},{type=5,value=36574},{type=6,value=36574}}</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" ht="12" spans="1:23">
       <c r="A176" s="15" t="s">
-        <v>197</v>
+        <v>372</v>
       </c>
       <c r="B176" s="2">
         <v>168</v>
@@ -12847,7 +13445,7 @@
         <v>200005</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="K176" s="2">
         <v>168</v>
@@ -12865,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="Q176" s="2">
         <v>125</v>
@@ -12887,16 +13485,16 @@
         <v>0</v>
       </c>
       <c r="V176" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="W176" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=147744},{type=5,value=36941},{type=6,value=36941}}</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" ht="12" spans="1:23">
       <c r="A177" s="15" t="s">
-        <v>198</v>
+        <v>374</v>
       </c>
       <c r="B177" s="2">
         <v>169</v>
@@ -12909,7 +13507,7 @@
         <v>200005</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="K177" s="2">
         <v>169</v>
@@ -12927,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="Q177" s="2">
         <v>125</v>
@@ -12949,16 +13547,16 @@
         <v>0</v>
       </c>
       <c r="V177" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="W177" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=149212},{type=5,value=37308},{type=6,value=37308}}</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" ht="12" spans="1:23">
       <c r="A178" s="15" t="s">
-        <v>199</v>
+        <v>376</v>
       </c>
       <c r="B178" s="2">
         <v>170</v>
@@ -12971,7 +13569,7 @@
         <v>200005</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="K178" s="2">
         <v>170</v>
@@ -12989,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="P178" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="Q178" s="2">
         <v>125</v>
@@ -13011,16 +13609,16 @@
         <v>0</v>
       </c>
       <c r="V178" s="2">
-        <v>6606.0000000000009</v>
+        <v>6606</v>
       </c>
       <c r="W178" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=150680},{type=5,value=37675},{type=6,value=37675}}</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" ht="12" spans="1:23">
       <c r="A179" s="15" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="B179" s="2">
         <v>171</v>
@@ -13033,7 +13631,7 @@
         <v>200005</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="K179" s="2">
         <v>171</v>
@@ -13051,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="Q179" s="2">
         <v>130</v>
@@ -13073,16 +13671,16 @@
         <v>0</v>
       </c>
       <c r="V179" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="W179" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=152208},{type=5,value=38057},{type=6,value=38057}}</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" ht="12" spans="1:23">
       <c r="A180" s="15" t="s">
-        <v>201</v>
+        <v>380</v>
       </c>
       <c r="B180" s="2">
         <v>172</v>
@@ -13095,7 +13693,7 @@
         <v>200005</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="K180" s="2">
         <v>172</v>
@@ -13113,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="Q180" s="2">
         <v>130</v>
@@ -13135,16 +13733,16 @@
         <v>0</v>
       </c>
       <c r="V180" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="W180" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=153736},{type=5,value=38439},{type=6,value=38439}}</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" ht="12" spans="1:23">
       <c r="A181" s="15" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="B181" s="2">
         <v>173</v>
@@ -13157,7 +13755,7 @@
         <v>200005</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="K181" s="2">
         <v>173</v>
@@ -13175,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="Q181" s="2">
         <v>130</v>
@@ -13197,16 +13795,16 @@
         <v>0</v>
       </c>
       <c r="V181" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="W181" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=155264},{type=5,value=38821},{type=6,value=38821}}</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" ht="12" spans="1:23">
       <c r="A182" s="15" t="s">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="B182" s="2">
         <v>174</v>
@@ -13219,7 +13817,7 @@
         <v>200005</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="K182" s="2">
         <v>174</v>
@@ -13237,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="Q182" s="2">
         <v>130</v>
@@ -13259,16 +13857,16 @@
         <v>0</v>
       </c>
       <c r="V182" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="W182" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=156792},{type=5,value=39203},{type=6,value=39203}}</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" ht="12" spans="1:23">
       <c r="A183" s="15" t="s">
-        <v>204</v>
+        <v>386</v>
       </c>
       <c r="B183" s="2">
         <v>175</v>
@@ -13281,7 +13879,7 @@
         <v>200005</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="K183" s="2">
         <v>175</v>
@@ -13299,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="Q183" s="2">
         <v>130</v>
@@ -13321,16 +13919,16 @@
         <v>0</v>
       </c>
       <c r="V183" s="2">
-        <v>6876.0000000000009</v>
+        <v>6876</v>
       </c>
       <c r="W183" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=158320},{type=5,value=39585},{type=6,value=39585}}</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" ht="12" spans="1:23">
       <c r="A184" s="15" t="s">
-        <v>205</v>
+        <v>388</v>
       </c>
       <c r="B184" s="2">
         <v>176</v>
@@ -13343,7 +13941,7 @@
         <v>200005</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="K184" s="2">
         <v>176</v>
@@ -13390,9 +13988,9 @@
         <v>{{type=4,value=159876},{type=5,value=39974},{type=6,value=39974}}</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" ht="12" spans="1:23">
       <c r="A185" s="15" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="B185" s="2">
         <v>177</v>
@@ -13405,7 +14003,7 @@
         <v>200005</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="K185" s="2">
         <v>177</v>
@@ -13452,9 +14050,9 @@
         <v>{{type=4,value=161432},{type=5,value=40363},{type=6,value=40363}}</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" ht="12" spans="1:23">
       <c r="A186" s="15" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="B186" s="2">
         <v>178</v>
@@ -13467,7 +14065,7 @@
         <v>200005</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="K186" s="2">
         <v>178</v>
@@ -13514,9 +14112,9 @@
         <v>{{type=4,value=162988},{type=5,value=40752},{type=6,value=40752}}</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" ht="12" spans="1:23">
       <c r="A187" s="15" t="s">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="B187" s="2">
         <v>179</v>
@@ -13529,7 +14127,7 @@
         <v>200005</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="K187" s="2">
         <v>179</v>
@@ -13576,9 +14174,9 @@
         <v>{{type=4,value=164544},{type=5,value=41141},{type=6,value=41141}}</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" ht="12" spans="1:23">
       <c r="A188" s="15" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="B188" s="2">
         <v>180</v>
@@ -13591,7 +14189,7 @@
         <v>200005</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="K188" s="2">
         <v>180</v>
@@ -13638,9 +14236,9 @@
         <v>{{type=4,value=166100},{type=5,value=41530},{type=6,value=41530}}</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" ht="12" spans="1:23">
       <c r="A189" s="15" t="s">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="B189" s="2">
         <v>181</v>
@@ -13653,7 +14251,7 @@
         <v>200005</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="K189" s="2">
         <v>181</v>
@@ -13671,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="Q189" s="2">
         <v>140</v>
@@ -13693,16 +14291,16 @@
         <v>0</v>
       </c>
       <c r="V189" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="W189" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=167684},{type=5,value=41926},{type=6,value=41926}}</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" ht="12" spans="1:23">
       <c r="A190" s="15" t="s">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="B190" s="2">
         <v>182</v>
@@ -13715,7 +14313,7 @@
         <v>200005</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="K190" s="2">
         <v>182</v>
@@ -13733,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="Q190" s="2">
         <v>140</v>
@@ -13755,16 +14353,16 @@
         <v>0</v>
       </c>
       <c r="V190" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="W190" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=169268},{type=5,value=42322},{type=6,value=42322}}</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" ht="12" spans="1:23">
       <c r="A191" s="15" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="B191" s="2">
         <v>183</v>
@@ -13777,7 +14375,7 @@
         <v>200005</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="K191" s="2">
         <v>183</v>
@@ -13795,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="Q191" s="2">
         <v>140</v>
@@ -13817,16 +14415,16 @@
         <v>0</v>
       </c>
       <c r="V191" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="W191" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=170852},{type=5,value=42718},{type=6,value=42718}}</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" ht="12" spans="1:23">
       <c r="A192" s="15" t="s">
-        <v>213</v>
+        <v>404</v>
       </c>
       <c r="B192" s="2">
         <v>184</v>
@@ -13839,7 +14437,7 @@
         <v>200005</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="K192" s="2">
         <v>184</v>
@@ -13857,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="Q192" s="2">
         <v>140</v>
@@ -13879,16 +14477,16 @@
         <v>0</v>
       </c>
       <c r="V192" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="W192" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=172436},{type=5,value=43114},{type=6,value=43114}}</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" ht="12" spans="1:23">
       <c r="A193" s="15" t="s">
-        <v>214</v>
+        <v>406</v>
       </c>
       <c r="B193" s="2">
         <v>185</v>
@@ -13901,7 +14499,7 @@
         <v>200005</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="K193" s="2">
         <v>185</v>
@@ -13919,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="Q193" s="2">
         <v>140</v>
@@ -13941,16 +14539,16 @@
         <v>0</v>
       </c>
       <c r="V193" s="2">
-        <v>7128.0000000000009</v>
+        <v>7128</v>
       </c>
       <c r="W193" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=174020},{type=5,value=43510},{type=6,value=43510}}</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" ht="12" spans="1:23">
       <c r="A194" s="15" t="s">
-        <v>215</v>
+        <v>408</v>
       </c>
       <c r="B194" s="2">
         <v>186</v>
@@ -13963,7 +14561,7 @@
         <v>200005</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="K194" s="2">
         <v>186</v>
@@ -13981,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="Q194" s="2">
         <v>145</v>
@@ -14003,16 +14601,16 @@
         <v>0</v>
       </c>
       <c r="V194" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="W194" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=175628},{type=5,value=43912},{type=6,value=43912}}</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" ht="12" spans="1:23">
       <c r="A195" s="15" t="s">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="B195" s="2">
         <v>187</v>
@@ -14025,7 +14623,7 @@
         <v>200005</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="K195" s="2">
         <v>187</v>
@@ -14043,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="Q195" s="2">
         <v>145</v>
@@ -14065,16 +14663,16 @@
         <v>0</v>
       </c>
       <c r="V195" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="W195" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=177236},{type=5,value=44314},{type=6,value=44314}}</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" ht="12" spans="1:23">
       <c r="A196" s="15" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="B196" s="2">
         <v>188</v>
@@ -14087,7 +14685,7 @@
         <v>200005</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="K196" s="2">
         <v>188</v>
@@ -14105,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="Q196" s="2">
         <v>145</v>
@@ -14127,16 +14725,16 @@
         <v>0</v>
       </c>
       <c r="V196" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="W196" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=178844},{type=5,value=44716},{type=6,value=44716}}</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" ht="12" spans="1:23">
       <c r="A197" s="15" t="s">
-        <v>218</v>
+        <v>414</v>
       </c>
       <c r="B197" s="2">
         <v>189</v>
@@ -14149,7 +14747,7 @@
         <v>200005</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="K197" s="2">
         <v>189</v>
@@ -14167,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="Q197" s="2">
         <v>145</v>
@@ -14189,16 +14787,16 @@
         <v>0</v>
       </c>
       <c r="V197" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="W197" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=180452},{type=5,value=45118},{type=6,value=45118}}</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" ht="12" spans="1:23">
       <c r="A198" s="15" t="s">
-        <v>219</v>
+        <v>416</v>
       </c>
       <c r="B198" s="2">
         <v>190</v>
@@ -14211,7 +14809,7 @@
         <v>200005</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="K198" s="2">
         <v>190</v>
@@ -14229,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="Q198" s="2">
         <v>145</v>
@@ -14251,16 +14849,16 @@
         <v>0</v>
       </c>
       <c r="V198" s="2">
-        <v>7236.0000000000009</v>
+        <v>7236</v>
       </c>
       <c r="W198" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=182060},{type=5,value=45520},{type=6,value=45520}}</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" ht="12" spans="1:23">
       <c r="A199" s="15" t="s">
-        <v>220</v>
+        <v>418</v>
       </c>
       <c r="B199" s="2">
         <v>191</v>
@@ -14273,7 +14871,7 @@
         <v>200005</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="K199" s="2">
         <v>191</v>
@@ -14291,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="Q199" s="2">
         <v>150</v>
@@ -14313,16 +14911,16 @@
         <v>0</v>
       </c>
       <c r="V199" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="W199" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=183692},{type=5,value=45928},{type=6,value=45928}}</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" ht="12" spans="1:23">
       <c r="A200" s="15" t="s">
-        <v>221</v>
+        <v>420</v>
       </c>
       <c r="B200" s="2">
         <v>192</v>
@@ -14335,7 +14933,7 @@
         <v>200005</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K200" s="2">
         <v>192</v>
@@ -14353,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="Q200" s="2">
         <v>150</v>
@@ -14375,16 +14973,16 @@
         <v>0</v>
       </c>
       <c r="V200" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="W200" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=185324},{type=5,value=46336},{type=6,value=46336}}</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" ht="12" spans="1:23">
       <c r="A201" s="15" t="s">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="B201" s="2">
         <v>193</v>
@@ -14397,7 +14995,7 @@
         <v>200005</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="K201" s="2">
         <v>193</v>
@@ -14415,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="Q201" s="2">
         <v>150</v>
@@ -14437,16 +15035,16 @@
         <v>0</v>
       </c>
       <c r="V201" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="W201" s="18" t="str">
         <f t="shared" ref="W201:W208" si="9">"{{type=4,value="&amp;R201&amp;"},{type=5,value="&amp;S201&amp;"},{type=6,value="&amp;T201&amp;"}}"</f>
         <v>{{type=4,value=186956},{type=5,value=46744},{type=6,value=46744}}</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" ht="12" spans="1:23">
       <c r="A202" s="15" t="s">
-        <v>223</v>
+        <v>424</v>
       </c>
       <c r="B202" s="2">
         <v>194</v>
@@ -14459,7 +15057,7 @@
         <v>200005</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="K202" s="2">
         <v>194</v>
@@ -14477,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="Q202" s="2">
         <v>150</v>
@@ -14499,16 +15097,16 @@
         <v>0</v>
       </c>
       <c r="V202" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="W202" s="18" t="str">
         <f t="shared" si="9"/>
         <v>{{type=4,value=188588},{type=5,value=47152},{type=6,value=47152}}</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" ht="12" spans="1:23">
       <c r="A203" s="15" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
       <c r="B203" s="2">
         <v>195</v>
@@ -14521,7 +15119,7 @@
         <v>200005</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="K203" s="2">
         <v>195</v>
@@ -14539,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="Q203" s="2">
         <v>150</v>
@@ -14561,16 +15159,16 @@
         <v>0</v>
       </c>
       <c r="V203" s="2">
-        <v>7343.9999999999991</v>
+        <v>7344</v>
       </c>
       <c r="W203" s="18" t="str">
         <f t="shared" si="9"/>
         <v>{{type=4,value=190220},{type=5,value=47560},{type=6,value=47560}}</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" ht="12" spans="1:23">
       <c r="A204" s="15" t="s">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="B204" s="2">
         <v>196</v>
@@ -14583,7 +15181,7 @@
         <v>200005</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="K204" s="2">
         <v>196</v>
@@ -14630,9 +15228,9 @@
         <v>{{type=4,value=191876},{type=5,value=47974},{type=6,value=47974}}</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" ht="12" spans="1:23">
       <c r="A205" s="15" t="s">
-        <v>226</v>
+        <v>430</v>
       </c>
       <c r="B205" s="2">
         <v>197</v>
@@ -14645,7 +15243,7 @@
         <v>200005</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="K205" s="2">
         <v>197</v>
@@ -14692,9 +15290,9 @@
         <v>{{type=4,value=193532},{type=5,value=48388},{type=6,value=48388}}</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" ht="12" spans="1:23">
       <c r="A206" s="15" t="s">
-        <v>227</v>
+        <v>432</v>
       </c>
       <c r="B206" s="2">
         <v>198</v>
@@ -14707,7 +15305,7 @@
         <v>200005</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="K206" s="2">
         <v>198</v>
@@ -14754,9 +15352,9 @@
         <v>{{type=4,value=195188},{type=5,value=48802},{type=6,value=48802}}</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" ht="12" spans="1:23">
       <c r="A207" s="15" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="B207" s="2">
         <v>199</v>
@@ -14769,7 +15367,7 @@
         <v>200005</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K207" s="2">
         <v>199</v>
@@ -14816,9 +15414,9 @@
         <v>{{type=4,value=196844},{type=5,value=49216},{type=6,value=49216}}</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" ht="12" spans="1:23">
       <c r="A208" s="15" t="s">
-        <v>229</v>
+        <v>436</v>
       </c>
       <c r="B208" s="2">
         <v>200</v>
@@ -14831,7 +15429,7 @@
         <v>200005</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="K208" s="2">
         <v>200</v>
@@ -14878,9 +15476,9 @@
         <v>{{type=4,value=198500},{type=5,value=49630},{type=6,value=49630}}</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" ht="12" spans="1:6">
       <c r="A209" s="15" t="s">
-        <v>229</v>
+        <v>436</v>
       </c>
       <c r="B209" s="2">
         <v>201</v>
@@ -14893,36 +15491,37 @@
         <v>200005</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14934,15 +15533,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -14952,7 +15551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -14963,7 +15562,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -14977,19 +15576,19 @@
         <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>233</v>
+        <v>441</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -15009,56 +15608,56 @@
         <v>14</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>235</v>
+        <v>444</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>237</v>
+        <v>446</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="12" spans="2:16">
       <c r="B8" s="16">
         <v>0</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D8" s="17">
         <v>2</v>
@@ -15067,7 +15666,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>241</v>
+        <v>451</v>
       </c>
       <c r="G8" s="19">
         <v>6</v>
@@ -15095,12 +15694,12 @@
         <v>{{type=4,value=0},{type=5,value=0},{type=6,value=0}}</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" ht="12" spans="2:16">
       <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
@@ -15109,7 +15708,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="19">
         <v>8</v>
@@ -15137,12 +15736,12 @@
         <v>{{type=4,value=324},{type=5,value=81},{type=6,value=81}}</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="12" spans="2:16">
       <c r="B10" s="20">
         <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -15151,7 +15750,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>250</v>
+        <v>453</v>
       </c>
       <c r="G10" s="19">
         <v>10</v>
@@ -15179,12 +15778,12 @@
         <v>{{type=4,value=912},{type=5,value=228},{type=6,value=228}}</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" ht="12" spans="2:16">
       <c r="B11" s="20">
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
@@ -15221,12 +15820,12 @@
         <v>{{type=4,value=1593},{type=5,value=399},{type=6,value=399}}</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" ht="12" spans="2:16">
       <c r="B12" s="20">
         <v>4</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D12" s="17">
         <v>3</v>
@@ -15263,12 +15862,12 @@
         <v>{{type=4,value=2322},{type=5,value=581},{type=6,value=581}}</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" ht="12" spans="2:16">
       <c r="B13" s="20">
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D13" s="17">
         <v>4</v>
@@ -15305,12 +15904,12 @@
         <v>{{type=4,value=3084},{type=5,value=771},{type=6,value=771}}</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" ht="12" spans="2:16">
       <c r="B14" s="20">
         <v>6</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D14" s="17">
         <v>4</v>
@@ -15347,12 +15946,12 @@
         <v>{{type=4,value=3930},{type=5,value=983},{type=6,value=983}}</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" ht="12" spans="2:16">
       <c r="B15" s="20">
         <v>7</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D15" s="17">
         <v>5</v>
@@ -15389,12 +15988,12 @@
         <v>{{type=4,value=4881},{type=5,value=1221},{type=6,value=1221}}</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" ht="12" spans="2:16">
       <c r="B16" s="20">
         <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D16" s="17">
         <v>5</v>
@@ -15431,12 +16030,12 @@
         <v>{{type=4,value=6078},{type=5,value=1520},{type=6,value=1520}}</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" ht="12" spans="2:16">
       <c r="B17" s="20">
         <v>9</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D17" s="17">
         <v>6</v>
@@ -15473,12 +16072,12 @@
         <v>{{type=4,value=7494},{type=5,value=1874},{type=6,value=1874}}</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" ht="12" spans="2:16">
       <c r="B18" s="20">
         <v>10</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D18" s="17">
         <v>6</v>
@@ -15515,12 +16114,12 @@
         <v>{{type=4,value=9078},{type=5,value=2270},{type=6,value=2270}}</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" ht="12" spans="2:16">
       <c r="B19" s="20">
         <v>11</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D19" s="17">
         <v>7</v>
@@ -15557,12 +16156,12 @@
         <v>{{type=4,value=10785},{type=5,value=2697},{type=6,value=2697}}</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" ht="12" spans="2:16">
       <c r="B20" s="20">
         <v>12</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D20" s="17">
         <v>7</v>
@@ -15599,12 +16198,12 @@
         <v>{{type=4,value=12579},{type=5,value=3145},{type=6,value=3145}}</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" ht="12" spans="2:16">
       <c r="B21" s="20">
         <v>13</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D21" s="17">
         <v>8</v>
@@ -15641,12 +16240,12 @@
         <v>{{type=4,value=14430},{type=5,value=3608},{type=6,value=3608}}</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" ht="12" spans="2:16">
       <c r="B22" s="20">
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D22" s="17">
         <v>8</v>
@@ -15683,12 +16282,12 @@
         <v>{{type=4,value=16305},{type=5,value=4077},{type=6,value=4077}}</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" ht="12" spans="2:16">
       <c r="B23" s="20">
         <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D23" s="17">
         <v>9</v>
@@ -15725,12 +16324,12 @@
         <v>{{type=4,value=18336},{type=5,value=4584},{type=6,value=4584}}</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" ht="12" spans="2:16">
       <c r="B24" s="20">
         <v>16</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D24" s="17">
         <v>9</v>
@@ -15767,12 +16366,12 @@
         <v>{{type=4,value=20436},{type=5,value=5109},{type=6,value=5109}}</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" ht="12" spans="2:16">
       <c r="B25" s="20">
         <v>17</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D25" s="17">
         <v>10</v>
@@ -15809,12 +16408,12 @@
         <v>{{type=4,value=22593},{type=5,value=5649},{type=6,value=5649}}</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" ht="12" spans="2:16">
       <c r="B26" s="20">
         <v>18</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D26" s="17">
         <v>10</v>
@@ -15851,12 +16450,12 @@
         <v>{{type=4,value=24906},{type=5,value=6227},{type=6,value=6227}}</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" ht="12" spans="2:16">
       <c r="B27" s="20">
         <v>19</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D27" s="17">
         <v>11</v>
@@ -15893,12 +16492,12 @@
         <v>{{type=4,value=27300},{type=5,value=6825},{type=6,value=6825}}</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" ht="12" spans="2:16">
       <c r="B28" s="20">
         <v>20</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D28" s="17">
         <v>11</v>
@@ -15936,8 +16535,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/导表工具/L-龙魂配置.xlsx
+++ b/导表工具/L-龙魂配置.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\h10-d\trunk\表格导出\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="龙魂基础配置" sheetId="3" r:id="rId1"/>
     <sheet name="龙魂星级属性" sheetId="1" r:id="rId2"/>
     <sheet name="龙魂阶数" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,12 +26,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Selenic:
@@ -34,13 +40,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -49,6 +56,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,1279 +158,1279 @@
     <t>attr</t>
   </si>
   <si>
+    <t>"龙魂(0级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(1级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(2级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(3级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(4级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(5级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(6级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(7级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(8级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(9级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(10级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(11级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(12级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(13级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(14级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(15级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(16级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(17级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(18级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(19级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(20级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(21级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(22级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(23级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(24级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(25级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(26级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(27级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(28级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(29级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(30级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(31级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(32级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(33级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(34级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(35级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(36级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(37级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(38级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(39级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(40级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(41级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(42级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(43级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(44级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(45级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(46级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(47级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(48级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(49级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(50级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(51级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(52级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(53级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(54级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(55级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(56级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(57级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(58级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(59级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(60级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(61级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(62级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(63级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(64级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(65级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(66级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(67级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(68级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(69级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(70级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(71级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(72级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(73级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(74级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(75级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(76级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(77级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(78级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(79级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(80级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(81级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(82级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(83级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(84级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(85级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(86级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(87级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(88级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(89级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(90级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(91级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(92级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(93级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(94级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(95级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(96级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(97级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(98级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(99级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(100级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(101级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(102级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(103级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(104级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(105级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(106级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(107级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(108级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(109级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(110级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(111级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(112级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(113级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(114级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(115级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(116级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(117级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(118级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(119级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(120级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(121级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(122级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(123级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(124级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(125级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(126级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(127级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(128级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(129级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(130级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(131级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(132级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(133级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(134级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(135级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(136级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(137级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(138级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(139级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(140级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(141级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(142级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(143级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(144级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(145级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(146级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(147级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(148级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(149级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(150级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(151级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(152级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(153级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(154级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(155级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(156级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(157级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(158级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(159级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(160级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(161级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(162级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(163级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(164级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(165级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(166级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(167级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(168级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(169级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(170级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(171级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(172级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(173级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(174级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(175级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(176级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(177级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(178级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(179级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(180级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(181级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(182级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(183级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(184级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(185级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(186级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(187级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(188级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(189级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(190级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(191级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(192级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(193级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(194级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(195级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(196级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(197级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(198级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(199级)"</t>
+  </si>
+  <si>
+    <t>"龙魂(200级)"</t>
+  </si>
+  <si>
+    <t>LoongSoulStageConfig={</t>
+  </si>
+  <si>
+    <t>loongsoul/loongsoulstage.config</t>
+  </si>
+  <si>
+    <t>每个碎片增加的经验</t>
+  </si>
+  <si>
+    <t>本阶提示小红点的金币金额</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>normalCost</t>
+  </si>
+  <si>
+    <t>normalBaseExp</t>
+  </si>
+  <si>
+    <t>normalCostTip</t>
+  </si>
+  <si>
+    <t>"longhun_01_png"</t>
+  </si>
+  <si>
+    <t>{{type=4,value=0},{type=5,value=0},{type=6,value=0}}</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>物防</t>
+  </si>
+  <si>
+    <t>法防</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>战力</t>
+  </si>
+  <si>
+    <t>单级消耗</t>
+  </si>
+  <si>
     <t>龙魂等级</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>物防</t>
-  </si>
-  <si>
-    <t>法防</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>战力</t>
-  </si>
-  <si>
-    <t>单级消耗</t>
-  </si>
-  <si>
-    <t>"龙魂(0级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=60},{type=5,value=20},{type=6,value=20}}</t>
   </si>
   <si>
-    <t>"龙魂(1级)"</t>
+    <t>{{type=4,value=912},{type=5,value=228},{type=6,value=228}}</t>
   </si>
   <si>
     <t>{{type=4,value=180},{type=5,value=50},{type=6,value=50}}</t>
   </si>
   <si>
-    <t>"龙魂(2级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=300},{type=5,value=80},{type=6,value=80}}</t>
   </si>
   <si>
-    <t>"龙魂(3级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=472},{type=5,value=123},{type=6,value=123}}</t>
   </si>
   <si>
-    <t>"龙魂(4级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=644},{type=5,value=166},{type=6,value=166}}</t>
   </si>
   <si>
-    <t>"龙魂(5级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=864},{type=5,value=221},{type=6,value=221}}</t>
   </si>
   <si>
-    <t>"龙魂(6级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=1084},{type=5,value=276},{type=6,value=276}}</t>
   </si>
   <si>
-    <t>"龙魂(7级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=1348},{type=5,value=342},{type=6,value=342}}</t>
   </si>
   <si>
-    <t>"龙魂(8级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=1612},{type=5,value=408},{type=6,value=408}}</t>
   </si>
   <si>
-    <t>"龙魂(9级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=1916},{type=5,value=484},{type=6,value=484}}</t>
   </si>
   <si>
-    <t>"龙魂(10级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=2220},{type=5,value=560},{type=6,value=560}}</t>
   </si>
   <si>
-    <t>"龙魂(11级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=2560},{type=5,value=645},{type=6,value=645}}</t>
   </si>
   <si>
-    <t>"龙魂(12级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=2900},{type=5,value=730},{type=6,value=730}}</t>
   </si>
   <si>
-    <t>"龙魂(13级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=3272},{type=5,value=823},{type=6,value=823}}</t>
   </si>
   <si>
-    <t>"龙魂(14级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=3644},{type=5,value=916},{type=6,value=916}}</t>
   </si>
   <si>
-    <t>"龙魂(15级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=4044},{type=5,value=1016},{type=6,value=1016}}</t>
   </si>
   <si>
-    <t>"龙魂(16级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=4444},{type=5,value=1116},{type=6,value=1116}}</t>
   </si>
   <si>
-    <t>"龙魂(17级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=4868},{type=5,value=1222},{type=6,value=1222}}</t>
   </si>
   <si>
-    <t>"龙魂(18级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=5292},{type=5,value=1328},{type=6,value=1328}}</t>
   </si>
   <si>
-    <t>"龙魂(19级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=5716},{type=5,value=1434},{type=6,value=1434}}</t>
   </si>
   <si>
-    <t>"龙魂(20级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=6140},{type=5,value=1540},{type=6,value=1540}}</t>
   </si>
   <si>
-    <t>"龙魂(21级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=6584},{type=5,value=1651},{type=6,value=1651}}</t>
   </si>
   <si>
-    <t>"龙魂(22级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=7028},{type=5,value=1762},{type=6,value=1762}}</t>
   </si>
   <si>
-    <t>"龙魂(23级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=7472},{type=5,value=1873},{type=6,value=1873}}</t>
   </si>
   <si>
-    <t>"龙魂(24级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=7916},{type=5,value=1984},{type=6,value=1984}}</t>
   </si>
   <si>
-    <t>"龙魂(25级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=8360},{type=5,value=2095},{type=6,value=2095}}</t>
   </si>
   <si>
-    <t>"龙魂(26级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=8824},{type=5,value=2211},{type=6,value=2211}}</t>
   </si>
   <si>
-    <t>"龙魂(27级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=9288},{type=5,value=2327},{type=6,value=2327}}</t>
   </si>
   <si>
-    <t>"龙魂(28级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=9752},{type=5,value=2443},{type=6,value=2443}}</t>
   </si>
   <si>
-    <t>"龙魂(29级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=10216},{type=5,value=2559},{type=6,value=2559}}</t>
   </si>
   <si>
-    <t>"龙魂(30级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=10680},{type=5,value=2675},{type=6,value=2675}}</t>
   </si>
   <si>
-    <t>"龙魂(31级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=11160},{type=5,value=2795},{type=6,value=2795}}</t>
   </si>
   <si>
-    <t>"龙魂(32级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=11640},{type=5,value=2915},{type=6,value=2915}}</t>
   </si>
   <si>
-    <t>"龙魂(33级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=12120},{type=5,value=3035},{type=6,value=3035}}</t>
   </si>
   <si>
-    <t>"龙魂(34级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=12600},{type=5,value=3155},{type=6,value=3155}}</t>
   </si>
   <si>
-    <t>"龙魂(35级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=13080},{type=5,value=3275},{type=6,value=3275}}</t>
   </si>
   <si>
-    <t>"龙魂(36级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=13572},{type=5,value=3398},{type=6,value=3398}}</t>
   </si>
   <si>
-    <t>"龙魂(37级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=14064},{type=5,value=3521},{type=6,value=3521}}</t>
   </si>
   <si>
-    <t>"龙魂(38级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=14556},{type=5,value=3644},{type=6,value=3644}}</t>
   </si>
   <si>
-    <t>"龙魂(39级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=15048},{type=5,value=3767},{type=6,value=3767}}</t>
   </si>
   <si>
-    <t>"龙魂(40级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=15540},{type=5,value=3890},{type=6,value=3890}}</t>
   </si>
   <si>
-    <t>"龙魂(41级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=16044},{type=5,value=4016},{type=6,value=4016}}</t>
   </si>
   <si>
-    <t>"龙魂(42级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=16548},{type=5,value=4142},{type=6,value=4142}}</t>
   </si>
   <si>
-    <t>"龙魂(43级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=17052},{type=5,value=4268},{type=6,value=4268}}</t>
   </si>
   <si>
-    <t>"龙魂(44级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=17556},{type=5,value=4394},{type=6,value=4394}}</t>
   </si>
   <si>
-    <t>"龙魂(45级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=18060},{type=5,value=4520},{type=6,value=4520}}</t>
   </si>
   <si>
-    <t>"龙魂(46级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=18572},{type=5,value=4648},{type=6,value=4648}}</t>
   </si>
   <si>
-    <t>"龙魂(47级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=19084},{type=5,value=4776},{type=6,value=4776}}</t>
   </si>
   <si>
-    <t>"龙魂(48级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=19596},{type=5,value=4904},{type=6,value=4904}}</t>
   </si>
   <si>
-    <t>"龙魂(49级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=20108},{type=5,value=5032},{type=6,value=5032}}</t>
   </si>
   <si>
-    <t>"龙魂(50级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=20620},{type=5,value=5160},{type=6,value=5160}}</t>
   </si>
   <si>
-    <t>"龙魂(51级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=21168},{type=5,value=5297},{type=6,value=5297}}</t>
   </si>
   <si>
-    <t>"龙魂(52级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=21716},{type=5,value=5434},{type=6,value=5434}}</t>
   </si>
   <si>
-    <t>"龙魂(53级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=22264},{type=5,value=5571},{type=6,value=5571}}</t>
   </si>
   <si>
-    <t>"龙魂(54级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=22812},{type=5,value=5708},{type=6,value=5708}}</t>
   </si>
   <si>
-    <t>"龙魂(55级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=23360},{type=5,value=5845},{type=6,value=5845}}</t>
   </si>
   <si>
-    <t>"龙魂(56级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=23940},{type=5,value=5990},{type=6,value=5990}}</t>
   </si>
   <si>
-    <t>"龙魂(57级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=24520},{type=5,value=6135},{type=6,value=6135}}</t>
   </si>
   <si>
-    <t>"龙魂(58级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=25100},{type=5,value=6280},{type=6,value=6280}}</t>
   </si>
   <si>
-    <t>"龙魂(59级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=25680},{type=5,value=6425},{type=6,value=6425}}</t>
   </si>
   <si>
-    <t>"龙魂(60级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=26260},{type=5,value=6570},{type=6,value=6570}}</t>
   </si>
   <si>
-    <t>"龙魂(61级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=26868},{type=5,value=6722},{type=6,value=6722}}</t>
   </si>
   <si>
-    <t>"龙魂(62级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=27476},{type=5,value=6874},{type=6,value=6874}}</t>
   </si>
   <si>
-    <t>"龙魂(63级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=28084},{type=5,value=7026},{type=6,value=7026}}</t>
   </si>
   <si>
-    <t>"龙魂(64级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=28692},{type=5,value=7178},{type=6,value=7178}}</t>
   </si>
   <si>
-    <t>"龙魂(65级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=29300},{type=5,value=7330},{type=6,value=7330}}</t>
   </si>
   <si>
-    <t>"龙魂(66级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=29960},{type=5,value=7495},{type=6,value=7495}}</t>
   </si>
   <si>
-    <t>"龙魂(67级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=30620},{type=5,value=7660},{type=6,value=7660}}</t>
   </si>
   <si>
-    <t>"龙魂(68级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=31280},{type=5,value=7825},{type=6,value=7825}}</t>
   </si>
   <si>
-    <t>"龙魂(69级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=31940},{type=5,value=7990},{type=6,value=7990}}</t>
   </si>
   <si>
-    <t>"龙魂(70级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=32600},{type=5,value=8155},{type=6,value=8155}}</t>
   </si>
   <si>
-    <t>"龙魂(71级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=33356},{type=5,value=8344},{type=6,value=8344}}</t>
   </si>
   <si>
-    <t>"龙魂(72级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=34112},{type=5,value=8533},{type=6,value=8533}}</t>
   </si>
   <si>
-    <t>"龙魂(73级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=34868},{type=5,value=8722},{type=6,value=8722}}</t>
   </si>
   <si>
-    <t>"龙魂(74级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=35624},{type=5,value=8911},{type=6,value=8911}}</t>
   </si>
   <si>
-    <t>"龙魂(75级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=36380},{type=5,value=9100},{type=6,value=9100}}</t>
   </si>
   <si>
-    <t>"龙魂(76级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=37220},{type=5,value=9310},{type=6,value=9310}}</t>
   </si>
   <si>
-    <t>"龙魂(77级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=38060},{type=5,value=9520},{type=6,value=9520}}</t>
   </si>
   <si>
-    <t>"龙魂(78级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=38900},{type=5,value=9730},{type=6,value=9730}}</t>
   </si>
   <si>
-    <t>"龙魂(79级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=39740},{type=5,value=9940},{type=6,value=9940}}</t>
   </si>
   <si>
-    <t>"龙魂(80级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=40580},{type=5,value=10150},{type=6,value=10150}}</t>
   </si>
   <si>
-    <t>"龙魂(81级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=41492},{type=5,value=10378},{type=6,value=10378}}</t>
   </si>
   <si>
-    <t>"龙魂(82级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=42404},{type=5,value=10606},{type=6,value=10606}}</t>
   </si>
   <si>
-    <t>"龙魂(83级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=43316},{type=5,value=10834},{type=6,value=10834}}</t>
   </si>
   <si>
-    <t>"龙魂(84级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=44228},{type=5,value=11062},{type=6,value=11062}}</t>
   </si>
   <si>
-    <t>"龙魂(85级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=45140},{type=5,value=11290},{type=6,value=11290}}</t>
   </si>
   <si>
-    <t>"龙魂(86级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=46116},{type=5,value=11534},{type=6,value=11534}}</t>
   </si>
   <si>
-    <t>"龙魂(87级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=47092},{type=5,value=11778},{type=6,value=11778}}</t>
   </si>
   <si>
-    <t>"龙魂(88级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=48068},{type=5,value=12022},{type=6,value=12022}}</t>
   </si>
   <si>
-    <t>"龙魂(89级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=49044},{type=5,value=12266},{type=6,value=12266}}</t>
   </si>
   <si>
-    <t>"龙魂(90级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=50020},{type=5,value=12510},{type=6,value=12510}}</t>
   </si>
   <si>
-    <t>"龙魂(91级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=51052},{type=5,value=12768},{type=6,value=12768}}</t>
   </si>
   <si>
-    <t>"龙魂(92级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=52084},{type=5,value=13026},{type=6,value=13026}}</t>
   </si>
   <si>
-    <t>"龙魂(93级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=53116},{type=5,value=13284},{type=6,value=13284}}</t>
   </si>
   <si>
-    <t>"龙魂(94级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=54148},{type=5,value=13542},{type=6,value=13542}}</t>
   </si>
   <si>
-    <t>"龙魂(95级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=55180},{type=5,value=13800},{type=6,value=13800}}</t>
   </si>
   <si>
-    <t>"龙魂(96级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=56260},{type=5,value=14070},{type=6,value=14070}}</t>
   </si>
   <si>
-    <t>"龙魂(97级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=57340},{type=5,value=14340},{type=6,value=14340}}</t>
   </si>
   <si>
-    <t>"龙魂(98级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=58420},{type=5,value=14610},{type=6,value=14610}}</t>
   </si>
   <si>
-    <t>"龙魂(99级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=59500},{type=5,value=14880},{type=6,value=14880}}</t>
   </si>
   <si>
-    <t>"龙魂(100级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=60580},{type=5,value=15150},{type=6,value=15150}}</t>
   </si>
   <si>
-    <t>"龙魂(101级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=61700},{type=5,value=15430},{type=6,value=15430}}</t>
   </si>
   <si>
-    <t>"龙魂(102级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=62820},{type=5,value=15710},{type=6,value=15710}}</t>
   </si>
   <si>
-    <t>"龙魂(103级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=63940},{type=5,value=15990},{type=6,value=15990}}</t>
   </si>
   <si>
-    <t>"龙魂(104级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=65060},{type=5,value=16270},{type=6,value=16270}}</t>
   </si>
   <si>
-    <t>"龙魂(105级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=66180},{type=5,value=16550},{type=6,value=16550}}</t>
   </si>
   <si>
-    <t>"龙魂(106级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=67336},{type=5,value=16839},{type=6,value=16839}}</t>
   </si>
   <si>
-    <t>"龙魂(107级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=68492},{type=5,value=17128},{type=6,value=17128}}</t>
   </si>
   <si>
-    <t>"龙魂(108级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=69648},{type=5,value=17417},{type=6,value=17417}}</t>
   </si>
   <si>
-    <t>"龙魂(109级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=70804},{type=5,value=17706},{type=6,value=17706}}</t>
   </si>
   <si>
-    <t>"龙魂(110级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=71960},{type=5,value=17995},{type=6,value=17995}}</t>
   </si>
   <si>
-    <t>"龙魂(111级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=73144},{type=5,value=18291},{type=6,value=18291}}</t>
   </si>
   <si>
-    <t>"龙魂(112级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=74328},{type=5,value=18587},{type=6,value=18587}}</t>
   </si>
   <si>
-    <t>"龙魂(113级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=75512},{type=5,value=18883},{type=6,value=18883}}</t>
   </si>
   <si>
-    <t>"龙魂(114级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=76696},{type=5,value=19179},{type=6,value=19179}}</t>
   </si>
   <si>
-    <t>"龙魂(115级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=77880},{type=5,value=19475},{type=6,value=19475}}</t>
   </si>
   <si>
-    <t>"龙魂(116级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=79088},{type=5,value=19777},{type=6,value=19777}}</t>
   </si>
   <si>
-    <t>"龙魂(117级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=80296},{type=5,value=20079},{type=6,value=20079}}</t>
   </si>
   <si>
-    <t>"龙魂(118级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=81504},{type=5,value=20381},{type=6,value=20381}}</t>
   </si>
   <si>
-    <t>"龙魂(119级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=82712},{type=5,value=20683},{type=6,value=20683}}</t>
   </si>
   <si>
-    <t>"龙魂(120级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=83920},{type=5,value=20985},{type=6,value=20985}}</t>
   </si>
   <si>
-    <t>"龙魂(121级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=85148},{type=5,value=21292},{type=6,value=21292}}</t>
   </si>
   <si>
-    <t>"龙魂(122级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=86376},{type=5,value=21599},{type=6,value=21599}}</t>
   </si>
   <si>
-    <t>"龙魂(123级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=87604},{type=5,value=21906},{type=6,value=21906}}</t>
   </si>
   <si>
-    <t>"龙魂(124级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=88832},{type=5,value=22213},{type=6,value=22213}}</t>
   </si>
   <si>
-    <t>"龙魂(125级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=90060},{type=5,value=22520},{type=6,value=22520}}</t>
   </si>
   <si>
-    <t>"龙魂(126级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=91300},{type=5,value=22830},{type=6,value=22830}}</t>
   </si>
   <si>
-    <t>"龙魂(127级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=92540},{type=5,value=23140},{type=6,value=23140}}</t>
   </si>
   <si>
-    <t>"龙魂(128级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=93780},{type=5,value=23450},{type=6,value=23450}}</t>
   </si>
   <si>
-    <t>"龙魂(129级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=95020},{type=5,value=23760},{type=6,value=23760}}</t>
   </si>
   <si>
-    <t>"龙魂(130级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=96260},{type=5,value=24070},{type=6,value=24070}}</t>
   </si>
   <si>
-    <t>"龙魂(131级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=97508},{type=5,value=24382},{type=6,value=24382}}</t>
   </si>
   <si>
-    <t>"龙魂(132级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=98756},{type=5,value=24694},{type=6,value=24694}}</t>
   </si>
   <si>
-    <t>"龙魂(133级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=100004},{type=5,value=25006},{type=6,value=25006}}</t>
   </si>
   <si>
-    <t>"龙魂(134级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=101252},{type=5,value=25318},{type=6,value=25318}}</t>
   </si>
   <si>
-    <t>"龙魂(135级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=102500},{type=5,value=25630},{type=6,value=25630}}</t>
   </si>
   <si>
-    <t>"龙魂(136级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=103752},{type=5,value=25943},{type=6,value=25943}}</t>
   </si>
   <si>
-    <t>"龙魂(137级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=105004},{type=5,value=26256},{type=6,value=26256}}</t>
   </si>
   <si>
-    <t>"龙魂(138级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=106256},{type=5,value=26569},{type=6,value=26569}}</t>
   </si>
   <si>
-    <t>"龙魂(139级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=107508},{type=5,value=26882},{type=6,value=26882}}</t>
   </si>
   <si>
-    <t>"龙魂(140级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=108760},{type=5,value=27195},{type=6,value=27195}}</t>
   </si>
   <si>
-    <t>"龙魂(141级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=110080},{type=5,value=27525},{type=6,value=27525}}</t>
   </si>
   <si>
-    <t>"龙魂(142级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=111400},{type=5,value=27855},{type=6,value=27855}}</t>
   </si>
   <si>
-    <t>"龙魂(143级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=112720},{type=5,value=28185},{type=6,value=28185}}</t>
   </si>
   <si>
-    <t>"龙魂(144级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=114040},{type=5,value=28515},{type=6,value=28515}}</t>
   </si>
   <si>
-    <t>"龙魂(145级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=115360},{type=5,value=28845},{type=6,value=28845}}</t>
   </si>
   <si>
-    <t>"龙魂(146级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=116748},{type=5,value=29192},{type=6,value=29192}}</t>
   </si>
   <si>
-    <t>"龙魂(147级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=118136},{type=5,value=29539},{type=6,value=29539}}</t>
   </si>
   <si>
-    <t>"龙魂(148级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=119524},{type=5,value=29886},{type=6,value=29886}}</t>
   </si>
   <si>
-    <t>"龙魂(149级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=120912},{type=5,value=30233},{type=6,value=30233}}</t>
   </si>
   <si>
-    <t>"龙魂(150级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=122300},{type=5,value=30580},{type=6,value=30580}}</t>
   </si>
   <si>
-    <t>"龙魂(151级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=123696},{type=5,value=30929},{type=6,value=30929}}</t>
   </si>
   <si>
-    <t>"龙魂(152级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=125092},{type=5,value=31278},{type=6,value=31278}}</t>
   </si>
   <si>
-    <t>"龙魂(153级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=126488},{type=5,value=31627},{type=6,value=31627}}</t>
   </si>
   <si>
-    <t>"龙魂(154级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=127884},{type=5,value=31976},{type=6,value=31976}}</t>
   </si>
   <si>
-    <t>"龙魂(155级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=129280},{type=5,value=32325},{type=6,value=32325}}</t>
   </si>
   <si>
-    <t>"龙魂(156级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=130684},{type=5,value=32676},{type=6,value=32676}}</t>
   </si>
   <si>
-    <t>"龙魂(157级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=132088},{type=5,value=33027},{type=6,value=33027}}</t>
   </si>
   <si>
-    <t>"龙魂(158级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=133492},{type=5,value=33378},{type=6,value=33378}}</t>
   </si>
   <si>
-    <t>"龙魂(159级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=134896},{type=5,value=33729},{type=6,value=33729}}</t>
   </si>
   <si>
-    <t>"龙魂(160级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=136300},{type=5,value=34080},{type=6,value=34080}}</t>
   </si>
   <si>
-    <t>"龙魂(161级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=137708},{type=5,value=34432},{type=6,value=34432}}</t>
   </si>
   <si>
-    <t>"龙魂(162级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=139116},{type=5,value=34784},{type=6,value=34784}}</t>
   </si>
   <si>
-    <t>"龙魂(163级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=140524},{type=5,value=35136},{type=6,value=35136}}</t>
   </si>
   <si>
-    <t>"龙魂(164级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=141932},{type=5,value=35488},{type=6,value=35488}}</t>
   </si>
   <si>
-    <t>"龙魂(165级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=143340},{type=5,value=35840},{type=6,value=35840}}</t>
   </si>
   <si>
-    <t>"龙魂(166级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=144808},{type=5,value=36207},{type=6,value=36207}}</t>
   </si>
   <si>
-    <t>"龙魂(167级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=146276},{type=5,value=36574},{type=6,value=36574}}</t>
   </si>
   <si>
-    <t>"龙魂(168级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=147744},{type=5,value=36941},{type=6,value=36941}}</t>
   </si>
   <si>
-    <t>"龙魂(169级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=149212},{type=5,value=37308},{type=6,value=37308}}</t>
   </si>
   <si>
-    <t>"龙魂(170级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=150680},{type=5,value=37675},{type=6,value=37675}}</t>
   </si>
   <si>
-    <t>"龙魂(171级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=152208},{type=5,value=38057},{type=6,value=38057}}</t>
   </si>
   <si>
-    <t>"龙魂(172级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=153736},{type=5,value=38439},{type=6,value=38439}}</t>
   </si>
   <si>
-    <t>"龙魂(173级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=155264},{type=5,value=38821},{type=6,value=38821}}</t>
   </si>
   <si>
-    <t>"龙魂(174级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=156792},{type=5,value=39203},{type=6,value=39203}}</t>
   </si>
   <si>
-    <t>"龙魂(175级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=158320},{type=5,value=39585},{type=6,value=39585}}</t>
   </si>
   <si>
-    <t>"龙魂(176级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=159876},{type=5,value=39974},{type=6,value=39974}}</t>
   </si>
   <si>
-    <t>"龙魂(177级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=161432},{type=5,value=40363},{type=6,value=40363}}</t>
   </si>
   <si>
-    <t>"龙魂(178级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=162988},{type=5,value=40752},{type=6,value=40752}}</t>
   </si>
   <si>
-    <t>"龙魂(179级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=164544},{type=5,value=41141},{type=6,value=41141}}</t>
   </si>
   <si>
-    <t>"龙魂(180级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=166100},{type=5,value=41530},{type=6,value=41530}}</t>
   </si>
   <si>
-    <t>"龙魂(181级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=167684},{type=5,value=41926},{type=6,value=41926}}</t>
   </si>
   <si>
-    <t>"龙魂(182级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=169268},{type=5,value=42322},{type=6,value=42322}}</t>
   </si>
   <si>
-    <t>"龙魂(183级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=170852},{type=5,value=42718},{type=6,value=42718}}</t>
   </si>
   <si>
-    <t>"龙魂(184级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=172436},{type=5,value=43114},{type=6,value=43114}}</t>
   </si>
   <si>
-    <t>"龙魂(185级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=174020},{type=5,value=43510},{type=6,value=43510}}</t>
   </si>
   <si>
-    <t>"龙魂(186级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=175628},{type=5,value=43912},{type=6,value=43912}}</t>
   </si>
   <si>
-    <t>"龙魂(187级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=177236},{type=5,value=44314},{type=6,value=44314}}</t>
   </si>
   <si>
-    <t>"龙魂(188级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=178844},{type=5,value=44716},{type=6,value=44716}}</t>
   </si>
   <si>
-    <t>"龙魂(189级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=180452},{type=5,value=45118},{type=6,value=45118}}</t>
   </si>
   <si>
-    <t>"龙魂(190级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=182060},{type=5,value=45520},{type=6,value=45520}}</t>
   </si>
   <si>
-    <t>"龙魂(191级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=183692},{type=5,value=45928},{type=6,value=45928}}</t>
   </si>
   <si>
-    <t>"龙魂(192级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=185324},{type=5,value=46336},{type=6,value=46336}}</t>
   </si>
   <si>
-    <t>"龙魂(193级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=186956},{type=5,value=46744},{type=6,value=46744}}</t>
   </si>
   <si>
-    <t>"龙魂(194级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=188588},{type=5,value=47152},{type=6,value=47152}}</t>
   </si>
   <si>
-    <t>"龙魂(195级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=190220},{type=5,value=47560},{type=6,value=47560}}</t>
   </si>
   <si>
-    <t>"龙魂(196级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=191876},{type=5,value=47974},{type=6,value=47974}}</t>
   </si>
   <si>
-    <t>"龙魂(197级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=193532},{type=5,value=48388},{type=6,value=48388}}</t>
   </si>
   <si>
-    <t>"龙魂(198级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=195188},{type=5,value=48802},{type=6,value=48802}}</t>
   </si>
   <si>
-    <t>"龙魂(199级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=196844},{type=5,value=49216},{type=6,value=49216}}</t>
   </si>
   <si>
-    <t>"龙魂(200级)"</t>
-  </si>
-  <si>
     <t>{{type=4,value=198500},{type=5,value=49630},{type=6,value=49630}}</t>
   </si>
   <si>
-    <t>LoongSoulStageConfig={</t>
-  </si>
-  <si>
-    <t>loongsoul/loongsoulstage.config</t>
-  </si>
-  <si>
-    <t>每个碎片增加的经验</t>
-  </si>
-  <si>
-    <t>本阶提示小红点的金币金额</t>
-  </si>
-  <si>
     <t>升阶-累积数值</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>normalCost</t>
-  </si>
-  <si>
-    <t>normalBaseExp</t>
-  </si>
-  <si>
-    <t>normalCostTip</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
-    <t>"longhun_01_png"</t>
-  </si>
-  <si>
-    <t>{{type=4,value=0},{type=5,value=0},{type=6,value=0}}</t>
-  </si>
-  <si>
     <t>{{type=4,value=324},{type=5,value=81},{type=6,value=81}}</t>
-  </si>
-  <si>
-    <t>{{type=4,value=912},{type=5,value=228},{type=6,value=228}}</t>
   </si>
   <si>
     <t>{{type=4,value=1593},{type=5,value=399},{type=6,value=399}}</t>
@@ -1482,14 +1490,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,6 +1503,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1509,6 +1512,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1517,6 +1521,7 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1524,6 +1529,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1531,6 +1537,7 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1538,6 +1545,7 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1545,183 +1553,52 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,13 +1607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799737540818506"/>
+        <fgColor theme="3" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,204 +1631,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799768059327982"/>
+        <fgColor theme="3" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799615466780602"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79961546678060247"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2013,264 +1704,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2302,13 +1751,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2320,11 +1769,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2383,66 +1832,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="我的公式" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="常规 8" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="53"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3" xfId="4"/>
+    <cellStyle name="常规 8" xfId="2"/>
+    <cellStyle name="我的公式" xfId="1"/>
+    <cellStyle name="样式 2" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2456,7 +1861,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2729,26 +2134,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2169,7 @@
       </c>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2780,7 +2185,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2197,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -2800,7 +2205,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
@@ -2816,7 +2221,7 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
@@ -2832,7 +2237,7 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -2840,7 +2245,7 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -2849,21 +2254,18 @@
       <c r="F8" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
@@ -2872,7 +2274,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2290,7 @@
       </c>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
@@ -2904,7 +2306,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2318,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +2338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +2358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -2976,45 +2378,45 @@
         <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="12" spans="1:23">
-      <c r="A8" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
@@ -3027,7 +2429,7 @@
         <v>200005</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -3076,9 +2478,9 @@
         <v>{{type=4,value=60},{type=5,value=20},{type=6,value=20}}</v>
       </c>
     </row>
-    <row r="9" ht="12" spans="1:23">
+    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -3091,7 +2493,7 @@
         <v>200005</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -3138,9 +2540,9 @@
         <v>{{type=4,value=180},{type=5,value=50},{type=6,value=50}}</v>
       </c>
     </row>
-    <row r="10" ht="12" spans="1:23">
+    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -3153,7 +2555,7 @@
         <v>200005</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="K10" s="2">
         <v>2</v>
@@ -3200,9 +2602,9 @@
         <v>{{type=4,value=300},{type=5,value=80},{type=6,value=80}}</v>
       </c>
     </row>
-    <row r="11" ht="12" spans="1:23">
+    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -3215,7 +2617,7 @@
         <v>200005</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
@@ -3262,9 +2664,9 @@
         <v>{{type=4,value=472},{type=5,value=123},{type=6,value=123}}</v>
       </c>
     </row>
-    <row r="12" ht="12" spans="1:23">
+    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -3277,7 +2679,7 @@
         <v>200005</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="K12" s="2">
         <v>4</v>
@@ -3324,9 +2726,9 @@
         <v>{{type=4,value=644},{type=5,value=166},{type=6,value=166}}</v>
       </c>
     </row>
-    <row r="13" ht="12" spans="1:23">
+    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -3339,7 +2741,7 @@
         <v>200005</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -3386,9 +2788,9 @@
         <v>{{type=4,value=864},{type=5,value=221},{type=6,value=221}}</v>
       </c>
     </row>
-    <row r="14" ht="12" spans="1:23">
+    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -3401,7 +2803,7 @@
         <v>200005</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="K14" s="2">
         <v>6</v>
@@ -3448,9 +2850,9 @@
         <v>{{type=4,value=1084},{type=5,value=276},{type=6,value=276}}</v>
       </c>
     </row>
-    <row r="15" ht="12" spans="1:23">
+    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -3463,7 +2865,7 @@
         <v>200005</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="K15" s="2">
         <v>7</v>
@@ -3510,9 +2912,9 @@
         <v>{{type=4,value=1348},{type=5,value=342},{type=6,value=342}}</v>
       </c>
     </row>
-    <row r="16" ht="12" spans="1:23">
+    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
@@ -3525,7 +2927,7 @@
         <v>200005</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="K16" s="2">
         <v>8</v>
@@ -3572,9 +2974,9 @@
         <v>{{type=4,value=1612},{type=5,value=408},{type=6,value=408}}</v>
       </c>
     </row>
-    <row r="17" ht="12" spans="1:23">
+    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>9</v>
@@ -3587,7 +2989,7 @@
         <v>200005</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="K17" s="2">
         <v>9</v>
@@ -3634,9 +3036,9 @@
         <v>{{type=4,value=1916},{type=5,value=484},{type=6,value=484}}</v>
       </c>
     </row>
-    <row r="18" ht="12" spans="1:23">
+    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
@@ -3649,7 +3051,7 @@
         <v>200005</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="K18" s="2">
         <v>10</v>
@@ -3696,9 +3098,9 @@
         <v>{{type=4,value=2220},{type=5,value=560},{type=6,value=560}}</v>
       </c>
     </row>
-    <row r="19" ht="12" spans="1:23">
+    <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>11</v>
@@ -3711,7 +3113,7 @@
         <v>200005</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="K19" s="2">
         <v>11</v>
@@ -3758,9 +3160,9 @@
         <v>{{type=4,value=2560},{type=5,value=645},{type=6,value=645}}</v>
       </c>
     </row>
-    <row r="20" ht="12" spans="1:23">
+    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>12</v>
@@ -3773,7 +3175,7 @@
         <v>200005</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K20" s="2">
         <v>12</v>
@@ -3820,9 +3222,9 @@
         <v>{{type=4,value=2900},{type=5,value=730},{type=6,value=730}}</v>
       </c>
     </row>
-    <row r="21" ht="12" spans="1:23">
+    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>13</v>
@@ -3835,7 +3237,7 @@
         <v>200005</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="K21" s="2">
         <v>13</v>
@@ -3853,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1674</v>
+        <v>1674.0000000000002</v>
       </c>
       <c r="Q21" s="2">
         <v>8</v>
@@ -3875,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>1674</v>
+        <v>1674.0000000000002</v>
       </c>
       <c r="W21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>{{type=4,value=3272},{type=5,value=823},{type=6,value=823}}</v>
       </c>
     </row>
-    <row r="22" ht="12" spans="1:23">
+    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
@@ -3897,7 +3299,7 @@
         <v>200005</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="K22" s="2">
         <v>14</v>
@@ -3915,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1674</v>
+        <v>1674.0000000000002</v>
       </c>
       <c r="Q22" s="2">
         <v>8</v>
@@ -3937,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>1674</v>
+        <v>1674.0000000000002</v>
       </c>
       <c r="W22" s="18" t="str">
         <f t="shared" si="0"/>
         <v>{{type=4,value=3644},{type=5,value=916},{type=6,value=916}}</v>
       </c>
     </row>
-    <row r="23" ht="12" spans="1:23">
+    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>15</v>
@@ -3959,7 +3361,7 @@
         <v>200005</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="K23" s="2">
         <v>15</v>
@@ -4006,9 +3408,9 @@
         <v>{{type=4,value=4044},{type=5,value=1016},{type=6,value=1016}}</v>
       </c>
     </row>
-    <row r="24" ht="12" spans="1:23">
+    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
@@ -4021,7 +3423,7 @@
         <v>200005</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="K24" s="2">
         <v>16</v>
@@ -4068,9 +3470,9 @@
         <v>{{type=4,value=4444},{type=5,value=1116},{type=6,value=1116}}</v>
       </c>
     </row>
-    <row r="25" ht="12" spans="1:23">
+    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2">
         <v>17</v>
@@ -4083,7 +3485,7 @@
         <v>200005</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="K25" s="2">
         <v>17</v>
@@ -4130,9 +3532,9 @@
         <v>{{type=4,value=4868},{type=5,value=1222},{type=6,value=1222}}</v>
       </c>
     </row>
-    <row r="26" ht="12" spans="1:23">
+    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2">
         <v>18</v>
@@ -4145,7 +3547,7 @@
         <v>200005</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="K26" s="2">
         <v>18</v>
@@ -4192,9 +3594,9 @@
         <v>{{type=4,value=5292},{type=5,value=1328},{type=6,value=1328}}</v>
       </c>
     </row>
-    <row r="27" ht="12" spans="1:23">
+    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>19</v>
@@ -4207,7 +3609,7 @@
         <v>200005</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="K27" s="2">
         <v>19</v>
@@ -4254,9 +3656,9 @@
         <v>{{type=4,value=5716},{type=5,value=1434},{type=6,value=1434}}</v>
       </c>
     </row>
-    <row r="28" ht="12" spans="1:23">
+    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2">
         <v>20</v>
@@ -4269,7 +3671,7 @@
         <v>200005</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="K28" s="2">
         <v>20</v>
@@ -4316,9 +3718,9 @@
         <v>{{type=4,value=6140},{type=5,value=1540},{type=6,value=1540}}</v>
       </c>
     </row>
-    <row r="29" ht="12" spans="1:23">
+    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>21</v>
@@ -4331,7 +3733,7 @@
         <v>200005</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="K29" s="2">
         <v>21</v>
@@ -4378,9 +3780,9 @@
         <v>{{type=4,value=6584},{type=5,value=1651},{type=6,value=1651}}</v>
       </c>
     </row>
-    <row r="30" ht="12" spans="1:23">
+    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>22</v>
@@ -4393,7 +3795,7 @@
         <v>200005</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="K30" s="2">
         <v>22</v>
@@ -4440,9 +3842,9 @@
         <v>{{type=4,value=7028},{type=5,value=1762},{type=6,value=1762}}</v>
       </c>
     </row>
-    <row r="31" ht="12" spans="1:23">
+    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2">
         <v>23</v>
@@ -4455,7 +3857,7 @@
         <v>200005</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="K31" s="2">
         <v>23</v>
@@ -4502,9 +3904,9 @@
         <v>{{type=4,value=7472},{type=5,value=1873},{type=6,value=1873}}</v>
       </c>
     </row>
-    <row r="32" ht="12" spans="1:23">
+    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
         <v>24</v>
@@ -4517,7 +3919,7 @@
         <v>200005</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="K32" s="2">
         <v>24</v>
@@ -4564,9 +3966,9 @@
         <v>{{type=4,value=7916},{type=5,value=1984},{type=6,value=1984}}</v>
       </c>
     </row>
-    <row r="33" ht="12" spans="1:23">
+    <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2">
         <v>25</v>
@@ -4579,7 +3981,7 @@
         <v>200005</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="K33" s="2">
         <v>25</v>
@@ -4626,9 +4028,9 @@
         <v>{{type=4,value=8360},{type=5,value=2095},{type=6,value=2095}}</v>
       </c>
     </row>
-    <row r="34" ht="12" spans="1:23">
+    <row r="34" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2">
         <v>26</v>
@@ -4641,7 +4043,7 @@
         <v>200005</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="K34" s="2">
         <v>26</v>
@@ -4688,9 +4090,9 @@
         <v>{{type=4,value=8824},{type=5,value=2211},{type=6,value=2211}}</v>
       </c>
     </row>
-    <row r="35" ht="12" spans="1:23">
+    <row r="35" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2">
         <v>27</v>
@@ -4703,7 +4105,7 @@
         <v>200005</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="K35" s="2">
         <v>27</v>
@@ -4750,9 +4152,9 @@
         <v>{{type=4,value=9288},{type=5,value=2327},{type=6,value=2327}}</v>
       </c>
     </row>
-    <row r="36" ht="12" spans="1:23">
+    <row r="36" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2">
         <v>28</v>
@@ -4765,7 +4167,7 @@
         <v>200005</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="K36" s="2">
         <v>28</v>
@@ -4812,9 +4214,9 @@
         <v>{{type=4,value=9752},{type=5,value=2443},{type=6,value=2443}}</v>
       </c>
     </row>
-    <row r="37" ht="12" spans="1:23">
+    <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2">
         <v>29</v>
@@ -4827,7 +4229,7 @@
         <v>200005</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="K37" s="2">
         <v>29</v>
@@ -4874,9 +4276,9 @@
         <v>{{type=4,value=10216},{type=5,value=2559},{type=6,value=2559}}</v>
       </c>
     </row>
-    <row r="38" ht="12" spans="1:23">
+    <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2">
         <v>30</v>
@@ -4889,7 +4291,7 @@
         <v>200005</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="K38" s="2">
         <v>30</v>
@@ -4936,9 +4338,9 @@
         <v>{{type=4,value=10680},{type=5,value=2675},{type=6,value=2675}}</v>
       </c>
     </row>
-    <row r="39" ht="12" spans="1:23">
+    <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2">
         <v>31</v>
@@ -4951,7 +4353,7 @@
         <v>200005</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="K39" s="2">
         <v>31</v>
@@ -4998,9 +4400,9 @@
         <v>{{type=4,value=11160},{type=5,value=2795},{type=6,value=2795}}</v>
       </c>
     </row>
-    <row r="40" ht="12" spans="1:23">
+    <row r="40" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2">
         <v>32</v>
@@ -5013,7 +4415,7 @@
         <v>200005</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="K40" s="2">
         <v>32</v>
@@ -5060,9 +4462,9 @@
         <v>{{type=4,value=11640},{type=5,value=2915},{type=6,value=2915}}</v>
       </c>
     </row>
-    <row r="41" ht="12" spans="1:23">
+    <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
         <v>33</v>
@@ -5075,7 +4477,7 @@
         <v>200005</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="K41" s="2">
         <v>33</v>
@@ -5122,9 +4524,9 @@
         <v>{{type=4,value=12120},{type=5,value=3035},{type=6,value=3035}}</v>
       </c>
     </row>
-    <row r="42" ht="12" spans="1:23">
+    <row r="42" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2">
         <v>34</v>
@@ -5137,7 +4539,7 @@
         <v>200005</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="K42" s="2">
         <v>34</v>
@@ -5184,9 +4586,9 @@
         <v>{{type=4,value=12600},{type=5,value=3155},{type=6,value=3155}}</v>
       </c>
     </row>
-    <row r="43" ht="12" spans="1:23">
+    <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2">
         <v>35</v>
@@ -5199,7 +4601,7 @@
         <v>200005</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="K43" s="2">
         <v>35</v>
@@ -5246,9 +4648,9 @@
         <v>{{type=4,value=13080},{type=5,value=3275},{type=6,value=3275}}</v>
       </c>
     </row>
-    <row r="44" ht="12" spans="1:23">
+    <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2">
         <v>36</v>
@@ -5261,7 +4663,7 @@
         <v>200005</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="K44" s="2">
         <v>36</v>
@@ -5308,9 +4710,9 @@
         <v>{{type=4,value=13572},{type=5,value=3398},{type=6,value=3398}}</v>
       </c>
     </row>
-    <row r="45" ht="12" spans="1:23">
+    <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2">
         <v>37</v>
@@ -5323,7 +4725,7 @@
         <v>200005</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="K45" s="2">
         <v>37</v>
@@ -5370,9 +4772,9 @@
         <v>{{type=4,value=14064},{type=5,value=3521},{type=6,value=3521}}</v>
       </c>
     </row>
-    <row r="46" ht="12" spans="1:23">
+    <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2">
         <v>38</v>
@@ -5385,7 +4787,7 @@
         <v>200005</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="K46" s="2">
         <v>38</v>
@@ -5432,9 +4834,9 @@
         <v>{{type=4,value=14556},{type=5,value=3644},{type=6,value=3644}}</v>
       </c>
     </row>
-    <row r="47" ht="12" spans="1:23">
+    <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2">
         <v>39</v>
@@ -5447,7 +4849,7 @@
         <v>200005</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="K47" s="2">
         <v>39</v>
@@ -5494,9 +4896,9 @@
         <v>{{type=4,value=15048},{type=5,value=3767},{type=6,value=3767}}</v>
       </c>
     </row>
-    <row r="48" ht="12" spans="1:23">
+    <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2">
         <v>40</v>
@@ -5509,7 +4911,7 @@
         <v>200005</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="K48" s="2">
         <v>40</v>
@@ -5556,9 +4958,9 @@
         <v>{{type=4,value=15540},{type=5,value=3890},{type=6,value=3890}}</v>
       </c>
     </row>
-    <row r="49" ht="12" spans="1:23">
+    <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2">
         <v>41</v>
@@ -5571,7 +4973,7 @@
         <v>200005</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="K49" s="2">
         <v>41</v>
@@ -5618,9 +5020,9 @@
         <v>{{type=4,value=16044},{type=5,value=4016},{type=6,value=4016}}</v>
       </c>
     </row>
-    <row r="50" ht="12" spans="1:23">
+    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2">
         <v>42</v>
@@ -5633,7 +5035,7 @@
         <v>200005</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="K50" s="2">
         <v>42</v>
@@ -5680,9 +5082,9 @@
         <v>{{type=4,value=16548},{type=5,value=4142},{type=6,value=4142}}</v>
       </c>
     </row>
-    <row r="51" ht="12" spans="1:23">
+    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2">
         <v>43</v>
@@ -5695,7 +5097,7 @@
         <v>200005</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="K51" s="2">
         <v>43</v>
@@ -5742,9 +5144,9 @@
         <v>{{type=4,value=17052},{type=5,value=4268},{type=6,value=4268}}</v>
       </c>
     </row>
-    <row r="52" ht="12" spans="1:23">
+    <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2">
         <v>44</v>
@@ -5757,7 +5159,7 @@
         <v>200005</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="K52" s="2">
         <v>44</v>
@@ -5804,9 +5206,9 @@
         <v>{{type=4,value=17556},{type=5,value=4394},{type=6,value=4394}}</v>
       </c>
     </row>
-    <row r="53" ht="12" spans="1:23">
+    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2">
         <v>45</v>
@@ -5819,7 +5221,7 @@
         <v>200005</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="K53" s="2">
         <v>45</v>
@@ -5866,9 +5268,9 @@
         <v>{{type=4,value=18060},{type=5,value=4520},{type=6,value=4520}}</v>
       </c>
     </row>
-    <row r="54" ht="12" spans="1:23">
+    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2">
         <v>46</v>
@@ -5881,7 +5283,7 @@
         <v>200005</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="K54" s="2">
         <v>46</v>
@@ -5928,9 +5330,9 @@
         <v>{{type=4,value=18572},{type=5,value=4648},{type=6,value=4648}}</v>
       </c>
     </row>
-    <row r="55" ht="12" spans="1:23">
+    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2">
         <v>47</v>
@@ -5943,7 +5345,7 @@
         <v>200005</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="K55" s="2">
         <v>47</v>
@@ -5990,9 +5392,9 @@
         <v>{{type=4,value=19084},{type=5,value=4776},{type=6,value=4776}}</v>
       </c>
     </row>
-    <row r="56" ht="12" spans="1:23">
+    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2">
         <v>48</v>
@@ -6005,7 +5407,7 @@
         <v>200005</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="K56" s="2">
         <v>48</v>
@@ -6052,9 +5454,9 @@
         <v>{{type=4,value=19596},{type=5,value=4904},{type=6,value=4904}}</v>
       </c>
     </row>
-    <row r="57" ht="12" spans="1:23">
+    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2">
         <v>49</v>
@@ -6067,7 +5469,7 @@
         <v>200005</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="K57" s="2">
         <v>49</v>
@@ -6114,9 +5516,9 @@
         <v>{{type=4,value=20108},{type=5,value=5032},{type=6,value=5032}}</v>
       </c>
     </row>
-    <row r="58" ht="12" spans="1:23">
+    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2">
         <v>50</v>
@@ -6129,7 +5531,7 @@
         <v>200005</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="K58" s="2">
         <v>50</v>
@@ -6176,9 +5578,9 @@
         <v>{{type=4,value=20620},{type=5,value=5160},{type=6,value=5160}}</v>
       </c>
     </row>
-    <row r="59" ht="12" spans="1:23">
+    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2">
         <v>51</v>
@@ -6191,7 +5593,7 @@
         <v>200005</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="K59" s="2">
         <v>51</v>
@@ -6238,9 +5640,9 @@
         <v>{{type=4,value=21168},{type=5,value=5297},{type=6,value=5297}}</v>
       </c>
     </row>
-    <row r="60" ht="12" spans="1:23">
+    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2">
         <v>52</v>
@@ -6253,7 +5655,7 @@
         <v>200005</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="K60" s="2">
         <v>52</v>
@@ -6300,9 +5702,9 @@
         <v>{{type=4,value=21716},{type=5,value=5434},{type=6,value=5434}}</v>
       </c>
     </row>
-    <row r="61" ht="12" spans="1:23">
+    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2">
         <v>53</v>
@@ -6315,7 +5717,7 @@
         <v>200005</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="K61" s="2">
         <v>53</v>
@@ -6362,9 +5764,9 @@
         <v>{{type=4,value=22264},{type=5,value=5571},{type=6,value=5571}}</v>
       </c>
     </row>
-    <row r="62" ht="12" spans="1:23">
+    <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2">
         <v>54</v>
@@ -6377,7 +5779,7 @@
         <v>200005</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="K62" s="2">
         <v>54</v>
@@ -6424,9 +5826,9 @@
         <v>{{type=4,value=22812},{type=5,value=5708},{type=6,value=5708}}</v>
       </c>
     </row>
-    <row r="63" ht="12" spans="1:23">
+    <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2">
         <v>55</v>
@@ -6439,7 +5841,7 @@
         <v>200005</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="K63" s="2">
         <v>55</v>
@@ -6486,9 +5888,9 @@
         <v>{{type=4,value=23360},{type=5,value=5845},{type=6,value=5845}}</v>
       </c>
     </row>
-    <row r="64" ht="12" spans="1:23">
+    <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2">
         <v>56</v>
@@ -6501,7 +5903,7 @@
         <v>200005</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="K64" s="2">
         <v>56</v>
@@ -6548,9 +5950,9 @@
         <v>{{type=4,value=23940},{type=5,value=5990},{type=6,value=5990}}</v>
       </c>
     </row>
-    <row r="65" ht="12" spans="1:23">
+    <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2">
         <v>57</v>
@@ -6563,7 +5965,7 @@
         <v>200005</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="K65" s="2">
         <v>57</v>
@@ -6610,9 +6012,9 @@
         <v>{{type=4,value=24520},{type=5,value=6135},{type=6,value=6135}}</v>
       </c>
     </row>
-    <row r="66" ht="12" spans="1:23">
+    <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2">
         <v>58</v>
@@ -6625,7 +6027,7 @@
         <v>200005</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="K66" s="2">
         <v>58</v>
@@ -6672,9 +6074,9 @@
         <v>{{type=4,value=25100},{type=5,value=6280},{type=6,value=6280}}</v>
       </c>
     </row>
-    <row r="67" ht="12" spans="1:23">
+    <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2">
         <v>59</v>
@@ -6687,7 +6089,7 @@
         <v>200005</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="K67" s="2">
         <v>59</v>
@@ -6734,9 +6136,9 @@
         <v>{{type=4,value=25680},{type=5,value=6425},{type=6,value=6425}}</v>
       </c>
     </row>
-    <row r="68" ht="12" spans="1:23">
+    <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2">
         <v>60</v>
@@ -6749,7 +6151,7 @@
         <v>200005</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
       <c r="K68" s="2">
         <v>60</v>
@@ -6796,9 +6198,9 @@
         <v>{{type=4,value=26260},{type=5,value=6570},{type=6,value=6570}}</v>
       </c>
     </row>
-    <row r="69" ht="12" spans="1:23">
+    <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2">
         <v>61</v>
@@ -6811,7 +6213,7 @@
         <v>200005</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="K69" s="2">
         <v>61</v>
@@ -6858,9 +6260,9 @@
         <v>{{type=4,value=26868},{type=5,value=6722},{type=6,value=6722}}</v>
       </c>
     </row>
-    <row r="70" ht="12" spans="1:23">
+    <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2">
         <v>62</v>
@@ -6873,7 +6275,7 @@
         <v>200005</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="K70" s="2">
         <v>62</v>
@@ -6920,9 +6322,9 @@
         <v>{{type=4,value=27476},{type=5,value=6874},{type=6,value=6874}}</v>
       </c>
     </row>
-    <row r="71" ht="12" spans="1:23">
+    <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2">
         <v>63</v>
@@ -6935,7 +6337,7 @@
         <v>200005</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="K71" s="2">
         <v>63</v>
@@ -6982,9 +6384,9 @@
         <v>{{type=4,value=28084},{type=5,value=7026},{type=6,value=7026}}</v>
       </c>
     </row>
-    <row r="72" ht="12" spans="1:23">
+    <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2">
         <v>64</v>
@@ -6997,7 +6399,7 @@
         <v>200005</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="K72" s="2">
         <v>64</v>
@@ -7044,9 +6446,9 @@
         <v>{{type=4,value=28692},{type=5,value=7178},{type=6,value=7178}}</v>
       </c>
     </row>
-    <row r="73" ht="12" spans="1:23">
+    <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2">
         <v>65</v>
@@ -7059,7 +6461,7 @@
         <v>200005</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="K73" s="2">
         <v>65</v>
@@ -7106,9 +6508,9 @@
         <v>{{type=4,value=29300},{type=5,value=7330},{type=6,value=7330}}</v>
       </c>
     </row>
-    <row r="74" ht="12" spans="1:23">
+    <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2">
         <v>66</v>
@@ -7121,7 +6523,7 @@
         <v>200005</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="K74" s="2">
         <v>66</v>
@@ -7168,9 +6570,9 @@
         <v>{{type=4,value=29960},{type=5,value=7495},{type=6,value=7495}}</v>
       </c>
     </row>
-    <row r="75" ht="12" spans="1:23">
+    <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2">
         <v>67</v>
@@ -7183,7 +6585,7 @@
         <v>200005</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="K75" s="2">
         <v>67</v>
@@ -7230,9 +6632,9 @@
         <v>{{type=4,value=30620},{type=5,value=7660},{type=6,value=7660}}</v>
       </c>
     </row>
-    <row r="76" ht="12" spans="1:23">
+    <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2">
         <v>68</v>
@@ -7245,7 +6647,7 @@
         <v>200005</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="K76" s="2">
         <v>68</v>
@@ -7292,9 +6694,9 @@
         <v>{{type=4,value=31280},{type=5,value=7825},{type=6,value=7825}}</v>
       </c>
     </row>
-    <row r="77" ht="12" spans="1:23">
+    <row r="77" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
         <v>69</v>
@@ -7307,7 +6709,7 @@
         <v>200005</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="K77" s="2">
         <v>69</v>
@@ -7354,9 +6756,9 @@
         <v>{{type=4,value=31940},{type=5,value=7990},{type=6,value=7990}}</v>
       </c>
     </row>
-    <row r="78" ht="12" spans="1:23">
+    <row r="78" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2">
         <v>70</v>
@@ -7369,7 +6771,7 @@
         <v>200005</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="K78" s="2">
         <v>70</v>
@@ -7416,9 +6818,9 @@
         <v>{{type=4,value=32600},{type=5,value=8155},{type=6,value=8155}}</v>
       </c>
     </row>
-    <row r="79" ht="12" spans="1:23">
+    <row r="79" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2">
         <v>71</v>
@@ -7431,7 +6833,7 @@
         <v>200005</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="K79" s="2">
         <v>71</v>
@@ -7449,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="Q79" s="2">
         <v>30</v>
@@ -7471,16 +6873,16 @@
         <v>0</v>
       </c>
       <c r="V79" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="W79" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=33356},{type=5,value=8344},{type=6,value=8344}}</v>
       </c>
     </row>
-    <row r="80" ht="12" spans="1:23">
+    <row r="80" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
         <v>72</v>
@@ -7493,7 +6895,7 @@
         <v>200005</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="K80" s="2">
         <v>72</v>
@@ -7511,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="Q80" s="2">
         <v>30</v>
@@ -7533,16 +6935,16 @@
         <v>0</v>
       </c>
       <c r="V80" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="W80" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=34112},{type=5,value=8533},{type=6,value=8533}}</v>
       </c>
     </row>
-    <row r="81" ht="12" spans="1:23">
+    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2">
         <v>73</v>
@@ -7555,7 +6957,7 @@
         <v>200005</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="K81" s="2">
         <v>73</v>
@@ -7573,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="Q81" s="2">
         <v>30</v>
@@ -7595,16 +6997,16 @@
         <v>0</v>
       </c>
       <c r="V81" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="W81" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=34868},{type=5,value=8722},{type=6,value=8722}}</v>
       </c>
     </row>
-    <row r="82" ht="12" spans="1:23">
+    <row r="82" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2">
         <v>74</v>
@@ -7617,7 +7019,7 @@
         <v>200005</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="K82" s="2">
         <v>74</v>
@@ -7635,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="Q82" s="2">
         <v>30</v>
@@ -7657,16 +7059,16 @@
         <v>0</v>
       </c>
       <c r="V82" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="W82" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=35624},{type=5,value=8911},{type=6,value=8911}}</v>
       </c>
     </row>
-    <row r="83" ht="12" spans="1:23">
+    <row r="83" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2">
         <v>75</v>
@@ -7679,7 +7081,7 @@
         <v>200005</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="K83" s="2">
         <v>75</v>
@@ -7697,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="Q83" s="2">
         <v>30</v>
@@ -7719,16 +7121,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="2">
-        <v>3402</v>
+        <v>3401.9999999999995</v>
       </c>
       <c r="W83" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=36380},{type=5,value=9100},{type=6,value=9100}}</v>
       </c>
     </row>
-    <row r="84" ht="12" spans="1:23">
+    <row r="84" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2">
         <v>76</v>
@@ -7741,7 +7143,7 @@
         <v>200005</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="K84" s="2">
         <v>76</v>
@@ -7788,9 +7190,9 @@
         <v>{{type=4,value=37220},{type=5,value=9310},{type=6,value=9310}}</v>
       </c>
     </row>
-    <row r="85" ht="12" spans="1:23">
+    <row r="85" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2">
         <v>77</v>
@@ -7803,7 +7205,7 @@
         <v>200005</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>191</v>
+        <v>327</v>
       </c>
       <c r="K85" s="2">
         <v>77</v>
@@ -7850,9 +7252,9 @@
         <v>{{type=4,value=38060},{type=5,value=9520},{type=6,value=9520}}</v>
       </c>
     </row>
-    <row r="86" ht="12" spans="1:23">
+    <row r="86" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2">
         <v>78</v>
@@ -7865,7 +7267,7 @@
         <v>200005</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="K86" s="2">
         <v>78</v>
@@ -7912,9 +7314,9 @@
         <v>{{type=4,value=38900},{type=5,value=9730},{type=6,value=9730}}</v>
       </c>
     </row>
-    <row r="87" ht="12" spans="1:23">
+    <row r="87" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2">
         <v>79</v>
@@ -7927,7 +7329,7 @@
         <v>200005</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="K87" s="2">
         <v>79</v>
@@ -7974,9 +7376,9 @@
         <v>{{type=4,value=39740},{type=5,value=9940},{type=6,value=9940}}</v>
       </c>
     </row>
-    <row r="88" ht="12" spans="1:23">
+    <row r="88" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2">
         <v>80</v>
@@ -7989,7 +7391,7 @@
         <v>200005</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
       <c r="K88" s="2">
         <v>80</v>
@@ -8036,9 +7438,9 @@
         <v>{{type=4,value=40580},{type=5,value=10150},{type=6,value=10150}}</v>
       </c>
     </row>
-    <row r="89" ht="12" spans="1:23">
+    <row r="89" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2">
         <v>81</v>
@@ -8051,7 +7453,7 @@
         <v>200005</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c r="K89" s="2">
         <v>81</v>
@@ -8098,9 +7500,9 @@
         <v>{{type=4,value=41492},{type=5,value=10378},{type=6,value=10378}}</v>
       </c>
     </row>
-    <row r="90" ht="12" spans="1:23">
+    <row r="90" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2">
         <v>82</v>
@@ -8113,7 +7515,7 @@
         <v>200005</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="K90" s="2">
         <v>82</v>
@@ -8160,9 +7562,9 @@
         <v>{{type=4,value=42404},{type=5,value=10606},{type=6,value=10606}}</v>
       </c>
     </row>
-    <row r="91" ht="12" spans="1:23">
+    <row r="91" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2">
         <v>83</v>
@@ -8175,7 +7577,7 @@
         <v>200005</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="K91" s="2">
         <v>83</v>
@@ -8222,9 +7624,9 @@
         <v>{{type=4,value=43316},{type=5,value=10834},{type=6,value=10834}}</v>
       </c>
     </row>
-    <row r="92" ht="12" spans="1:23">
+    <row r="92" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2">
         <v>84</v>
@@ -8237,7 +7639,7 @@
         <v>200005</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="K92" s="2">
         <v>84</v>
@@ -8284,9 +7686,9 @@
         <v>{{type=4,value=44228},{type=5,value=11062},{type=6,value=11062}}</v>
       </c>
     </row>
-    <row r="93" ht="12" spans="1:23">
+    <row r="93" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2">
         <v>85</v>
@@ -8299,7 +7701,7 @@
         <v>200005</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="K93" s="2">
         <v>85</v>
@@ -8346,9 +7748,9 @@
         <v>{{type=4,value=45140},{type=5,value=11290},{type=6,value=11290}}</v>
       </c>
     </row>
-    <row r="94" ht="12" spans="1:23">
+    <row r="94" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2">
         <v>86</v>
@@ -8361,7 +7763,7 @@
         <v>200005</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="K94" s="2">
         <v>86</v>
@@ -8408,9 +7810,9 @@
         <v>{{type=4,value=46116},{type=5,value=11534},{type=6,value=11534}}</v>
       </c>
     </row>
-    <row r="95" ht="12" spans="1:23">
+    <row r="95" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2">
         <v>87</v>
@@ -8423,7 +7825,7 @@
         <v>200005</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="K95" s="2">
         <v>87</v>
@@ -8470,9 +7872,9 @@
         <v>{{type=4,value=47092},{type=5,value=11778},{type=6,value=11778}}</v>
       </c>
     </row>
-    <row r="96" ht="12" spans="1:23">
+    <row r="96" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2">
         <v>88</v>
@@ -8485,7 +7887,7 @@
         <v>200005</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="K96" s="2">
         <v>88</v>
@@ -8532,9 +7934,9 @@
         <v>{{type=4,value=48068},{type=5,value=12022},{type=6,value=12022}}</v>
       </c>
     </row>
-    <row r="97" ht="12" spans="1:23">
+    <row r="97" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2">
         <v>89</v>
@@ -8547,7 +7949,7 @@
         <v>200005</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="K97" s="2">
         <v>89</v>
@@ -8594,9 +7996,9 @@
         <v>{{type=4,value=49044},{type=5,value=12266},{type=6,value=12266}}</v>
       </c>
     </row>
-    <row r="98" ht="12" spans="1:23">
+    <row r="98" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2">
         <v>90</v>
@@ -8609,7 +8011,7 @@
         <v>200005</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="K98" s="2">
         <v>90</v>
@@ -8656,9 +8058,9 @@
         <v>{{type=4,value=50020},{type=5,value=12510},{type=6,value=12510}}</v>
       </c>
     </row>
-    <row r="99" ht="12" spans="1:23">
+    <row r="99" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2">
         <v>91</v>
@@ -8671,7 +8073,7 @@
         <v>200005</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="K99" s="2">
         <v>91</v>
@@ -8718,9 +8120,9 @@
         <v>{{type=4,value=51052},{type=5,value=12768},{type=6,value=12768}}</v>
       </c>
     </row>
-    <row r="100" ht="12" spans="1:23">
+    <row r="100" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2">
         <v>92</v>
@@ -8733,7 +8135,7 @@
         <v>200005</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="K100" s="2">
         <v>92</v>
@@ -8780,9 +8182,9 @@
         <v>{{type=4,value=52084},{type=5,value=13026},{type=6,value=13026}}</v>
       </c>
     </row>
-    <row r="101" ht="12" spans="1:23">
+    <row r="101" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2">
         <v>93</v>
@@ -8795,7 +8197,7 @@
         <v>200005</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="K101" s="2">
         <v>93</v>
@@ -8842,9 +8244,9 @@
         <v>{{type=4,value=53116},{type=5,value=13284},{type=6,value=13284}}</v>
       </c>
     </row>
-    <row r="102" ht="12" spans="1:23">
+    <row r="102" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2">
         <v>94</v>
@@ -8857,7 +8259,7 @@
         <v>200005</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="K102" s="2">
         <v>94</v>
@@ -8904,9 +8306,9 @@
         <v>{{type=4,value=54148},{type=5,value=13542},{type=6,value=13542}}</v>
       </c>
     </row>
-    <row r="103" ht="12" spans="1:23">
+    <row r="103" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2">
         <v>95</v>
@@ -8919,7 +8321,7 @@
         <v>200005</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="K103" s="2">
         <v>95</v>
@@ -8966,9 +8368,9 @@
         <v>{{type=4,value=55180},{type=5,value=13800},{type=6,value=13800}}</v>
       </c>
     </row>
-    <row r="104" ht="12" spans="1:23">
+    <row r="104" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2">
         <v>96</v>
@@ -8981,7 +8383,7 @@
         <v>200005</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="K104" s="2">
         <v>96</v>
@@ -9028,9 +8430,9 @@
         <v>{{type=4,value=56260},{type=5,value=14070},{type=6,value=14070}}</v>
       </c>
     </row>
-    <row r="105" ht="12" spans="1:23">
+    <row r="105" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2">
         <v>97</v>
@@ -9043,7 +8445,7 @@
         <v>200005</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="K105" s="2">
         <v>97</v>
@@ -9090,9 +8492,9 @@
         <v>{{type=4,value=57340},{type=5,value=14340},{type=6,value=14340}}</v>
       </c>
     </row>
-    <row r="106" ht="12" spans="1:23">
+    <row r="106" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2">
         <v>98</v>
@@ -9105,7 +8507,7 @@
         <v>200005</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="K106" s="2">
         <v>98</v>
@@ -9152,9 +8554,9 @@
         <v>{{type=4,value=58420},{type=5,value=14610},{type=6,value=14610}}</v>
       </c>
     </row>
-    <row r="107" ht="12" spans="1:23">
+    <row r="107" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2">
         <v>99</v>
@@ -9167,7 +8569,7 @@
         <v>200005</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="K107" s="2">
         <v>99</v>
@@ -9214,9 +8616,9 @@
         <v>{{type=4,value=59500},{type=5,value=14880},{type=6,value=14880}}</v>
       </c>
     </row>
-    <row r="108" ht="12" spans="1:23">
+    <row r="108" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2">
         <v>100</v>
@@ -9229,7 +8631,7 @@
         <v>200005</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="K108" s="2">
         <v>100</v>
@@ -9276,9 +8678,9 @@
         <v>{{type=4,value=60580},{type=5,value=15150},{type=6,value=15150}}</v>
       </c>
     </row>
-    <row r="109" ht="12" spans="1:23">
+    <row r="109" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2">
         <v>101</v>
@@ -9291,7 +8693,7 @@
         <v>200005</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
       <c r="K109" s="2">
         <v>101</v>
@@ -9338,9 +8740,9 @@
         <v>{{type=4,value=61700},{type=5,value=15430},{type=6,value=15430}}</v>
       </c>
     </row>
-    <row r="110" ht="12" spans="1:23">
+    <row r="110" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2">
         <v>102</v>
@@ -9353,7 +8755,7 @@
         <v>200005</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="K110" s="2">
         <v>102</v>
@@ -9400,9 +8802,9 @@
         <v>{{type=4,value=62820},{type=5,value=15710},{type=6,value=15710}}</v>
       </c>
     </row>
-    <row r="111" ht="12" spans="1:23">
+    <row r="111" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2">
         <v>103</v>
@@ -9415,7 +8817,7 @@
         <v>200005</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="K111" s="2">
         <v>103</v>
@@ -9462,9 +8864,9 @@
         <v>{{type=4,value=63940},{type=5,value=15990},{type=6,value=15990}}</v>
       </c>
     </row>
-    <row r="112" ht="12" spans="1:23">
+    <row r="112" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2">
         <v>104</v>
@@ -9477,7 +8879,7 @@
         <v>200005</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="K112" s="2">
         <v>104</v>
@@ -9524,9 +8926,9 @@
         <v>{{type=4,value=65060},{type=5,value=16270},{type=6,value=16270}}</v>
       </c>
     </row>
-    <row r="113" ht="12" spans="1:23">
+    <row r="113" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2">
         <v>105</v>
@@ -9539,7 +8941,7 @@
         <v>200005</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="K113" s="2">
         <v>105</v>
@@ -9586,9 +8988,9 @@
         <v>{{type=4,value=66180},{type=5,value=16550},{type=6,value=16550}}</v>
       </c>
     </row>
-    <row r="114" ht="12" spans="1:23">
+    <row r="114" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2">
         <v>106</v>
@@ -9601,7 +9003,7 @@
         <v>200005</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="K114" s="2">
         <v>106</v>
@@ -9648,9 +9050,9 @@
         <v>{{type=4,value=67336},{type=5,value=16839},{type=6,value=16839}}</v>
       </c>
     </row>
-    <row r="115" ht="12" spans="1:23">
+    <row r="115" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2">
         <v>107</v>
@@ -9663,7 +9065,7 @@
         <v>200005</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="K115" s="2">
         <v>107</v>
@@ -9710,9 +9112,9 @@
         <v>{{type=4,value=68492},{type=5,value=17128},{type=6,value=17128}}</v>
       </c>
     </row>
-    <row r="116" ht="12" spans="1:23">
+    <row r="116" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2">
         <v>108</v>
@@ -9725,7 +9127,7 @@
         <v>200005</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="K116" s="2">
         <v>108</v>
@@ -9772,9 +9174,9 @@
         <v>{{type=4,value=69648},{type=5,value=17417},{type=6,value=17417}}</v>
       </c>
     </row>
-    <row r="117" ht="12" spans="1:23">
+    <row r="117" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2">
         <v>109</v>
@@ -9787,7 +9189,7 @@
         <v>200005</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="K117" s="2">
         <v>109</v>
@@ -9834,9 +9236,9 @@
         <v>{{type=4,value=70804},{type=5,value=17706},{type=6,value=17706}}</v>
       </c>
     </row>
-    <row r="118" ht="12" spans="1:23">
+    <row r="118" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2">
         <v>110</v>
@@ -9849,7 +9251,7 @@
         <v>200005</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="K118" s="2">
         <v>110</v>
@@ -9896,9 +9298,9 @@
         <v>{{type=4,value=71960},{type=5,value=17995},{type=6,value=17995}}</v>
       </c>
     </row>
-    <row r="119" ht="12" spans="1:23">
+    <row r="119" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2">
         <v>111</v>
@@ -9911,7 +9313,7 @@
         <v>200005</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="K119" s="2">
         <v>111</v>
@@ -9929,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="Q119" s="2">
         <v>70</v>
@@ -9951,16 +9353,16 @@
         <v>0</v>
       </c>
       <c r="V119" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="W119" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=73144},{type=5,value=18291},{type=6,value=18291}}</v>
       </c>
     </row>
-    <row r="120" ht="12" spans="1:23">
+    <row r="120" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="B120" s="2">
         <v>112</v>
@@ -9973,7 +9375,7 @@
         <v>200005</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="K120" s="2">
         <v>112</v>
@@ -9991,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="Q120" s="2">
         <v>70</v>
@@ -10013,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="V120" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="W120" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=74328},{type=5,value=18587},{type=6,value=18587}}</v>
       </c>
     </row>
-    <row r="121" ht="12" spans="1:23">
+    <row r="121" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2">
         <v>113</v>
@@ -10035,7 +9437,7 @@
         <v>200005</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
       <c r="K121" s="2">
         <v>113</v>
@@ -10053,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="Q121" s="2">
         <v>70</v>
@@ -10075,16 +9477,16 @@
         <v>0</v>
       </c>
       <c r="V121" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="W121" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=75512},{type=5,value=18883},{type=6,value=18883}}</v>
       </c>
     </row>
-    <row r="122" ht="12" spans="1:23">
+    <row r="122" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2">
         <v>114</v>
@@ -10097,7 +9499,7 @@
         <v>200005</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="K122" s="2">
         <v>114</v>
@@ -10115,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="Q122" s="2">
         <v>70</v>
@@ -10137,16 +9539,16 @@
         <v>0</v>
       </c>
       <c r="V122" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="W122" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=76696},{type=5,value=19179},{type=6,value=19179}}</v>
       </c>
     </row>
-    <row r="123" ht="12" spans="1:23">
+    <row r="123" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2">
         <v>115</v>
@@ -10159,7 +9561,7 @@
         <v>200005</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="K123" s="2">
         <v>115</v>
@@ -10177,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="Q123" s="2">
         <v>70</v>
@@ -10199,16 +9601,16 @@
         <v>0</v>
       </c>
       <c r="V123" s="2">
-        <v>5328</v>
+        <v>5328.0000000000009</v>
       </c>
       <c r="W123" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=77880},{type=5,value=19475},{type=6,value=19475}}</v>
       </c>
     </row>
-    <row r="124" ht="12" spans="1:23">
+    <row r="124" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2">
         <v>116</v>
@@ -10221,7 +9623,7 @@
         <v>200005</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="K124" s="2">
         <v>116</v>
@@ -10239,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="Q124" s="2">
         <v>75</v>
@@ -10261,16 +9663,16 @@
         <v>0</v>
       </c>
       <c r="V124" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="W124" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=79088},{type=5,value=19777},{type=6,value=19777}}</v>
       </c>
     </row>
-    <row r="125" ht="12" spans="1:23">
+    <row r="125" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2">
         <v>117</v>
@@ -10283,7 +9685,7 @@
         <v>200005</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="K125" s="2">
         <v>117</v>
@@ -10301,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="Q125" s="2">
         <v>75</v>
@@ -10323,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="V125" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="W125" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=80296},{type=5,value=20079},{type=6,value=20079}}</v>
       </c>
     </row>
-    <row r="126" ht="12" spans="1:23">
+    <row r="126" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2">
         <v>118</v>
@@ -10345,7 +9747,7 @@
         <v>200005</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="K126" s="2">
         <v>118</v>
@@ -10363,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="Q126" s="2">
         <v>75</v>
@@ -10385,16 +9787,16 @@
         <v>0</v>
       </c>
       <c r="V126" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="W126" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=81504},{type=5,value=20381},{type=6,value=20381}}</v>
       </c>
     </row>
-    <row r="127" ht="12" spans="1:23">
+    <row r="127" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2">
         <v>119</v>
@@ -10407,7 +9809,7 @@
         <v>200005</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="K127" s="2">
         <v>119</v>
@@ -10425,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="Q127" s="2">
         <v>75</v>
@@ -10447,16 +9849,16 @@
         <v>0</v>
       </c>
       <c r="V127" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="W127" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=82712},{type=5,value=20683},{type=6,value=20683}}</v>
       </c>
     </row>
-    <row r="128" ht="12" spans="1:23">
+    <row r="128" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2">
         <v>120</v>
@@ -10469,7 +9871,7 @@
         <v>200005</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="K128" s="2">
         <v>120</v>
@@ -10487,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="Q128" s="2">
         <v>75</v>
@@ -10509,16 +9911,16 @@
         <v>0</v>
       </c>
       <c r="V128" s="2">
-        <v>5436</v>
+        <v>5436.0000000000009</v>
       </c>
       <c r="W128" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=83920},{type=5,value=20985},{type=6,value=20985}}</v>
       </c>
     </row>
-    <row r="129" ht="12" spans="1:23">
+    <row r="129" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2">
         <v>121</v>
@@ -10531,7 +9933,7 @@
         <v>200005</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="K129" s="2">
         <v>121</v>
@@ -10549,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="P129" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="Q129" s="2">
         <v>80</v>
@@ -10571,16 +9973,16 @@
         <v>0</v>
       </c>
       <c r="V129" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="W129" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=85148},{type=5,value=21292},{type=6,value=21292}}</v>
       </c>
     </row>
-    <row r="130" ht="12" spans="1:23">
+    <row r="130" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2">
         <v>122</v>
@@ -10593,7 +9995,7 @@
         <v>200005</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="K130" s="2">
         <v>122</v>
@@ -10611,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="Q130" s="2">
         <v>80</v>
@@ -10633,16 +10035,16 @@
         <v>0</v>
       </c>
       <c r="V130" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="W130" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=86376},{type=5,value=21599},{type=6,value=21599}}</v>
       </c>
     </row>
-    <row r="131" ht="12" spans="1:23">
+    <row r="131" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2">
         <v>123</v>
@@ -10655,7 +10057,7 @@
         <v>200005</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="K131" s="2">
         <v>123</v>
@@ -10673,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="Q131" s="2">
         <v>80</v>
@@ -10695,16 +10097,16 @@
         <v>0</v>
       </c>
       <c r="V131" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="W131" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=87604},{type=5,value=21906},{type=6,value=21906}}</v>
       </c>
     </row>
-    <row r="132" ht="12" spans="1:23">
+    <row r="132" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2">
         <v>124</v>
@@ -10717,7 +10119,7 @@
         <v>200005</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="K132" s="2">
         <v>124</v>
@@ -10735,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="Q132" s="2">
         <v>80</v>
@@ -10757,16 +10159,16 @@
         <v>0</v>
       </c>
       <c r="V132" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="W132" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=88832},{type=5,value=22213},{type=6,value=22213}}</v>
       </c>
     </row>
-    <row r="133" ht="12" spans="1:23">
+    <row r="133" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2">
         <v>125</v>
@@ -10779,7 +10181,7 @@
         <v>200005</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="K133" s="2">
         <v>125</v>
@@ -10797,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="Q133" s="2">
         <v>80</v>
@@ -10819,16 +10221,16 @@
         <v>0</v>
       </c>
       <c r="V133" s="2">
-        <v>5526</v>
+        <v>5526.0000000000009</v>
       </c>
       <c r="W133" s="18" t="str">
         <f t="shared" si="3"/>
         <v>{{type=4,value=90060},{type=5,value=22520},{type=6,value=22520}}</v>
       </c>
     </row>
-    <row r="134" ht="12" spans="1:23">
+    <row r="134" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2">
         <v>126</v>
@@ -10841,7 +10243,7 @@
         <v>200005</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="K134" s="2">
         <v>126</v>
@@ -10888,9 +10290,9 @@
         <v>{{type=4,value=91300},{type=5,value=22830},{type=6,value=22830}}</v>
       </c>
     </row>
-    <row r="135" ht="12" spans="1:23">
+    <row r="135" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2">
         <v>127</v>
@@ -10903,7 +10305,7 @@
         <v>200005</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="K135" s="2">
         <v>127</v>
@@ -10950,9 +10352,9 @@
         <v>{{type=4,value=92540},{type=5,value=23140},{type=6,value=23140}}</v>
       </c>
     </row>
-    <row r="136" ht="12" spans="1:23">
+    <row r="136" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="B136" s="2">
         <v>128</v>
@@ -10965,7 +10367,7 @@
         <v>200005</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="K136" s="2">
         <v>128</v>
@@ -11012,9 +10414,9 @@
         <v>{{type=4,value=93780},{type=5,value=23450},{type=6,value=23450}}</v>
       </c>
     </row>
-    <row r="137" ht="12" spans="1:23">
+    <row r="137" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2">
         <v>129</v>
@@ -11027,7 +10429,7 @@
         <v>200005</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="K137" s="2">
         <v>129</v>
@@ -11074,9 +10476,9 @@
         <v>{{type=4,value=95020},{type=5,value=23760},{type=6,value=23760}}</v>
       </c>
     </row>
-    <row r="138" ht="12" spans="1:23">
+    <row r="138" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2">
         <v>130</v>
@@ -11089,7 +10491,7 @@
         <v>200005</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="K138" s="2">
         <v>130</v>
@@ -11136,9 +10538,9 @@
         <v>{{type=4,value=96260},{type=5,value=24070},{type=6,value=24070}}</v>
       </c>
     </row>
-    <row r="139" ht="12" spans="1:23">
+    <row r="139" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2">
         <v>131</v>
@@ -11151,7 +10553,7 @@
         <v>200005</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="K139" s="2">
         <v>131</v>
@@ -11169,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="Q139" s="2">
         <v>90</v>
@@ -11191,16 +10593,16 @@
         <v>0</v>
       </c>
       <c r="V139" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="W139" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=97508},{type=5,value=24382},{type=6,value=24382}}</v>
       </c>
     </row>
-    <row r="140" ht="12" spans="1:23">
+    <row r="140" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2">
         <v>132</v>
@@ -11213,7 +10615,7 @@
         <v>200005</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="K140" s="2">
         <v>132</v>
@@ -11231,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="Q140" s="2">
         <v>90</v>
@@ -11253,16 +10655,16 @@
         <v>0</v>
       </c>
       <c r="V140" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="W140" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=98756},{type=5,value=24694},{type=6,value=24694}}</v>
       </c>
     </row>
-    <row r="141" ht="12" spans="1:23">
+    <row r="141" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2">
         <v>133</v>
@@ -11275,7 +10677,7 @@
         <v>200005</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="K141" s="2">
         <v>133</v>
@@ -11293,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="Q141" s="2">
         <v>90</v>
@@ -11315,16 +10717,16 @@
         <v>0</v>
       </c>
       <c r="V141" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="W141" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=100004},{type=5,value=25006},{type=6,value=25006}}</v>
       </c>
     </row>
-    <row r="142" ht="12" spans="1:23">
+    <row r="142" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2">
         <v>134</v>
@@ -11337,7 +10739,7 @@
         <v>200005</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="K142" s="2">
         <v>134</v>
@@ -11355,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="Q142" s="2">
         <v>90</v>
@@ -11377,16 +10779,16 @@
         <v>0</v>
       </c>
       <c r="V142" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="W142" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=101252},{type=5,value=25318},{type=6,value=25318}}</v>
       </c>
     </row>
-    <row r="143" ht="12" spans="1:23">
+    <row r="143" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="B143" s="2">
         <v>135</v>
@@ -11399,7 +10801,7 @@
         <v>200005</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="K143" s="2">
         <v>135</v>
@@ -11417,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="Q143" s="2">
         <v>90</v>
@@ -11439,16 +10841,16 @@
         <v>0</v>
       </c>
       <c r="V143" s="2">
-        <v>5616</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="W143" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=102500},{type=5,value=25630},{type=6,value=25630}}</v>
       </c>
     </row>
-    <row r="144" ht="12" spans="1:23">
+    <row r="144" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2">
         <v>136</v>
@@ -11461,7 +10863,7 @@
         <v>200005</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="K144" s="2">
         <v>136</v>
@@ -11479,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="Q144" s="2">
         <v>95</v>
@@ -11501,16 +10903,16 @@
         <v>0</v>
       </c>
       <c r="V144" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="W144" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=103752},{type=5,value=25943},{type=6,value=25943}}</v>
       </c>
     </row>
-    <row r="145" ht="12" spans="1:23">
+    <row r="145" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="B145" s="2">
         <v>137</v>
@@ -11523,7 +10925,7 @@
         <v>200005</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="K145" s="2">
         <v>137</v>
@@ -11541,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="Q145" s="2">
         <v>95</v>
@@ -11563,16 +10965,16 @@
         <v>0</v>
       </c>
       <c r="V145" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="W145" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=105004},{type=5,value=26256},{type=6,value=26256}}</v>
       </c>
     </row>
-    <row r="146" ht="12" spans="1:23">
+    <row r="146" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2">
         <v>138</v>
@@ -11585,7 +10987,7 @@
         <v>200005</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="K146" s="2">
         <v>138</v>
@@ -11603,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="Q146" s="2">
         <v>95</v>
@@ -11625,16 +11027,16 @@
         <v>0</v>
       </c>
       <c r="V146" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="W146" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=106256},{type=5,value=26569},{type=6,value=26569}}</v>
       </c>
     </row>
-    <row r="147" ht="12" spans="1:23">
+    <row r="147" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B147" s="2">
         <v>139</v>
@@ -11647,7 +11049,7 @@
         <v>200005</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="K147" s="2">
         <v>139</v>
@@ -11665,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="Q147" s="2">
         <v>95</v>
@@ -11687,16 +11089,16 @@
         <v>0</v>
       </c>
       <c r="V147" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="W147" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=107508},{type=5,value=26882},{type=6,value=26882}}</v>
       </c>
     </row>
-    <row r="148" ht="12" spans="1:23">
+    <row r="148" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>316</v>
+        <v>169</v>
       </c>
       <c r="B148" s="2">
         <v>140</v>
@@ -11709,7 +11111,7 @@
         <v>200005</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="K148" s="2">
         <v>140</v>
@@ -11727,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="Q148" s="2">
         <v>95</v>
@@ -11749,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="V148" s="2">
-        <v>5634</v>
+        <v>5633.9999999999991</v>
       </c>
       <c r="W148" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=108760},{type=5,value=27195},{type=6,value=27195}}</v>
       </c>
     </row>
-    <row r="149" ht="12" spans="1:23">
+    <row r="149" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c r="B149" s="2">
         <v>141</v>
@@ -11771,7 +11173,7 @@
         <v>200005</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="K149" s="2">
         <v>141</v>
@@ -11818,9 +11220,9 @@
         <v>{{type=4,value=110080},{type=5,value=27525},{type=6,value=27525}}</v>
       </c>
     </row>
-    <row r="150" ht="12" spans="1:23">
+    <row r="150" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2">
         <v>142</v>
@@ -11833,7 +11235,7 @@
         <v>200005</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="K150" s="2">
         <v>142</v>
@@ -11880,9 +11282,9 @@
         <v>{{type=4,value=111400},{type=5,value=27855},{type=6,value=27855}}</v>
       </c>
     </row>
-    <row r="151" ht="12" spans="1:23">
+    <row r="151" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="B151" s="2">
         <v>143</v>
@@ -11895,7 +11297,7 @@
         <v>200005</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="K151" s="2">
         <v>143</v>
@@ -11942,9 +11344,9 @@
         <v>{{type=4,value=112720},{type=5,value=28185},{type=6,value=28185}}</v>
       </c>
     </row>
-    <row r="152" ht="12" spans="1:23">
+    <row r="152" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>324</v>
+        <v>173</v>
       </c>
       <c r="B152" s="2">
         <v>144</v>
@@ -11957,7 +11359,7 @@
         <v>200005</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="K152" s="2">
         <v>144</v>
@@ -12004,9 +11406,9 @@
         <v>{{type=4,value=114040},{type=5,value=28515},{type=6,value=28515}}</v>
       </c>
     </row>
-    <row r="153" ht="12" spans="1:23">
+    <row r="153" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="B153" s="2">
         <v>145</v>
@@ -12019,7 +11421,7 @@
         <v>200005</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="K153" s="2">
         <v>145</v>
@@ -12066,9 +11468,9 @@
         <v>{{type=4,value=115360},{type=5,value=28845},{type=6,value=28845}}</v>
       </c>
     </row>
-    <row r="154" ht="12" spans="1:23">
+    <row r="154" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="B154" s="2">
         <v>146</v>
@@ -12081,7 +11483,7 @@
         <v>200005</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="K154" s="2">
         <v>146</v>
@@ -12099,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="Q154" s="2">
         <v>105</v>
@@ -12121,16 +11523,16 @@
         <v>0</v>
       </c>
       <c r="V154" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="W154" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=116748},{type=5,value=29192},{type=6,value=29192}}</v>
       </c>
     </row>
-    <row r="155" ht="12" spans="1:23">
+    <row r="155" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="B155" s="2">
         <v>147</v>
@@ -12143,7 +11545,7 @@
         <v>200005</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="K155" s="2">
         <v>147</v>
@@ -12161,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="Q155" s="2">
         <v>105</v>
@@ -12183,16 +11585,16 @@
         <v>0</v>
       </c>
       <c r="V155" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="W155" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=118136},{type=5,value=29539},{type=6,value=29539}}</v>
       </c>
     </row>
-    <row r="156" ht="12" spans="1:23">
+    <row r="156" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>332</v>
+        <v>177</v>
       </c>
       <c r="B156" s="2">
         <v>148</v>
@@ -12205,7 +11607,7 @@
         <v>200005</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="K156" s="2">
         <v>148</v>
@@ -12223,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="Q156" s="2">
         <v>105</v>
@@ -12245,16 +11647,16 @@
         <v>0</v>
       </c>
       <c r="V156" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="W156" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=119524},{type=5,value=29886},{type=6,value=29886}}</v>
       </c>
     </row>
-    <row r="157" ht="12" spans="1:23">
+    <row r="157" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="B157" s="2">
         <v>149</v>
@@ -12267,7 +11669,7 @@
         <v>200005</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="K157" s="2">
         <v>149</v>
@@ -12285,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="Q157" s="2">
         <v>105</v>
@@ -12307,16 +11709,16 @@
         <v>0</v>
       </c>
       <c r="V157" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="W157" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=120912},{type=5,value=30233},{type=6,value=30233}}</v>
       </c>
     </row>
-    <row r="158" ht="12" spans="1:23">
+    <row r="158" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="B158" s="2">
         <v>150</v>
@@ -12329,7 +11731,7 @@
         <v>200005</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="K158" s="2">
         <v>150</v>
@@ -12347,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="Q158" s="2">
         <v>105</v>
@@ -12369,16 +11771,16 @@
         <v>0</v>
       </c>
       <c r="V158" s="2">
-        <v>6246</v>
+        <v>6246.0000000000009</v>
       </c>
       <c r="W158" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=122300},{type=5,value=30580},{type=6,value=30580}}</v>
       </c>
     </row>
-    <row r="159" ht="12" spans="1:23">
+    <row r="159" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="B159" s="2">
         <v>151</v>
@@ -12391,7 +11793,7 @@
         <v>200005</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="K159" s="2">
         <v>151</v>
@@ -12438,9 +11840,9 @@
         <v>{{type=4,value=123696},{type=5,value=30929},{type=6,value=30929}}</v>
       </c>
     </row>
-    <row r="160" ht="12" spans="1:23">
+    <row r="160" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
-        <v>340</v>
+        <v>181</v>
       </c>
       <c r="B160" s="2">
         <v>152</v>
@@ -12453,7 +11855,7 @@
         <v>200005</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="K160" s="2">
         <v>152</v>
@@ -12500,9 +11902,9 @@
         <v>{{type=4,value=125092},{type=5,value=31278},{type=6,value=31278}}</v>
       </c>
     </row>
-    <row r="161" ht="12" spans="1:23">
+    <row r="161" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="B161" s="2">
         <v>153</v>
@@ -12515,7 +11917,7 @@
         <v>200005</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="K161" s="2">
         <v>153</v>
@@ -12562,9 +11964,9 @@
         <v>{{type=4,value=126488},{type=5,value=31627},{type=6,value=31627}}</v>
       </c>
     </row>
-    <row r="162" ht="12" spans="1:23">
+    <row r="162" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="B162" s="2">
         <v>154</v>
@@ -12577,7 +11979,7 @@
         <v>200005</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K162" s="2">
         <v>154</v>
@@ -12624,9 +12026,9 @@
         <v>{{type=4,value=127884},{type=5,value=31976},{type=6,value=31976}}</v>
       </c>
     </row>
-    <row r="163" ht="12" spans="1:23">
+    <row r="163" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="B163" s="2">
         <v>155</v>
@@ -12639,7 +12041,7 @@
         <v>200005</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="K163" s="2">
         <v>155</v>
@@ -12686,9 +12088,9 @@
         <v>{{type=4,value=129280},{type=5,value=32325},{type=6,value=32325}}</v>
       </c>
     </row>
-    <row r="164" ht="12" spans="1:23">
+    <row r="164" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="B164" s="2">
         <v>156</v>
@@ -12701,7 +12103,7 @@
         <v>200005</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="K164" s="2">
         <v>156</v>
@@ -12719,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="Q164" s="2">
         <v>115</v>
@@ -12741,16 +12143,16 @@
         <v>0</v>
       </c>
       <c r="V164" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="W164" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=130684},{type=5,value=32676},{type=6,value=32676}}</v>
       </c>
     </row>
-    <row r="165" ht="12" spans="1:23">
+    <row r="165" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>350</v>
+        <v>186</v>
       </c>
       <c r="B165" s="2">
         <v>157</v>
@@ -12763,7 +12165,7 @@
         <v>200005</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="K165" s="2">
         <v>157</v>
@@ -12781,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="Q165" s="2">
         <v>115</v>
@@ -12803,16 +12205,16 @@
         <v>0</v>
       </c>
       <c r="V165" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="W165" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=132088},{type=5,value=33027},{type=6,value=33027}}</v>
       </c>
     </row>
-    <row r="166" ht="12" spans="1:23">
+    <row r="166" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="B166" s="2">
         <v>158</v>
@@ -12825,7 +12227,7 @@
         <v>200005</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="K166" s="2">
         <v>158</v>
@@ -12843,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="Q166" s="2">
         <v>115</v>
@@ -12865,16 +12267,16 @@
         <v>0</v>
       </c>
       <c r="V166" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="W166" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=133492},{type=5,value=33378},{type=6,value=33378}}</v>
       </c>
     </row>
-    <row r="167" ht="12" spans="1:23">
+    <row r="167" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>354</v>
+        <v>188</v>
       </c>
       <c r="B167" s="2">
         <v>159</v>
@@ -12887,7 +12289,7 @@
         <v>200005</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="K167" s="2">
         <v>159</v>
@@ -12905,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="Q167" s="2">
         <v>115</v>
@@ -12927,16 +12329,16 @@
         <v>0</v>
       </c>
       <c r="V167" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="W167" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=134896},{type=5,value=33729},{type=6,value=33729}}</v>
       </c>
     </row>
-    <row r="168" ht="12" spans="1:23">
+    <row r="168" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="B168" s="2">
         <v>160</v>
@@ -12949,7 +12351,7 @@
         <v>200005</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="K168" s="2">
         <v>160</v>
@@ -12967,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="P168" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="Q168" s="2">
         <v>115</v>
@@ -12989,16 +12391,16 @@
         <v>0</v>
       </c>
       <c r="V168" s="2">
-        <v>6318</v>
+        <v>6318.0000000000009</v>
       </c>
       <c r="W168" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=136300},{type=5,value=34080},{type=6,value=34080}}</v>
       </c>
     </row>
-    <row r="169" ht="12" spans="1:23">
+    <row r="169" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>358</v>
+        <v>190</v>
       </c>
       <c r="B169" s="2">
         <v>161</v>
@@ -13011,7 +12413,7 @@
         <v>200005</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="K169" s="2">
         <v>161</v>
@@ -13029,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="Q169" s="2">
         <v>120</v>
@@ -13051,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="V169" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="W169" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=137708},{type=5,value=34432},{type=6,value=34432}}</v>
       </c>
     </row>
-    <row r="170" ht="12" spans="1:23">
+    <row r="170" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>360</v>
+        <v>191</v>
       </c>
       <c r="B170" s="2">
         <v>162</v>
@@ -13073,7 +12475,7 @@
         <v>200005</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="K170" s="2">
         <v>162</v>
@@ -13091,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="Q170" s="2">
         <v>120</v>
@@ -13113,16 +12515,16 @@
         <v>0</v>
       </c>
       <c r="V170" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="W170" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=139116},{type=5,value=34784},{type=6,value=34784}}</v>
       </c>
     </row>
-    <row r="171" ht="12" spans="1:23">
+    <row r="171" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="B171" s="2">
         <v>163</v>
@@ -13135,7 +12537,7 @@
         <v>200005</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="K171" s="2">
         <v>163</v>
@@ -13153,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="P171" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="Q171" s="2">
         <v>120</v>
@@ -13175,16 +12577,16 @@
         <v>0</v>
       </c>
       <c r="V171" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="W171" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=140524},{type=5,value=35136},{type=6,value=35136}}</v>
       </c>
     </row>
-    <row r="172" ht="12" spans="1:23">
+    <row r="172" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="B172" s="2">
         <v>164</v>
@@ -13197,7 +12599,7 @@
         <v>200005</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="K172" s="2">
         <v>164</v>
@@ -13215,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="Q172" s="2">
         <v>120</v>
@@ -13237,16 +12639,16 @@
         <v>0</v>
       </c>
       <c r="V172" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="W172" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=141932},{type=5,value=35488},{type=6,value=35488}}</v>
       </c>
     </row>
-    <row r="173" ht="12" spans="1:23">
+    <row r="173" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>366</v>
+        <v>194</v>
       </c>
       <c r="B173" s="2">
         <v>165</v>
@@ -13259,7 +12661,7 @@
         <v>200005</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="K173" s="2">
         <v>165</v>
@@ -13277,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="Q173" s="2">
         <v>120</v>
@@ -13299,16 +12701,16 @@
         <v>0</v>
       </c>
       <c r="V173" s="2">
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="W173" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=143340},{type=5,value=35840},{type=6,value=35840}}</v>
       </c>
     </row>
-    <row r="174" ht="12" spans="1:23">
+    <row r="174" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>368</v>
+        <v>195</v>
       </c>
       <c r="B174" s="2">
         <v>166</v>
@@ -13321,7 +12723,7 @@
         <v>200005</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="K174" s="2">
         <v>166</v>
@@ -13339,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="Q174" s="2">
         <v>125</v>
@@ -13361,16 +12763,16 @@
         <v>0</v>
       </c>
       <c r="V174" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="W174" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=144808},{type=5,value=36207},{type=6,value=36207}}</v>
       </c>
     </row>
-    <row r="175" ht="12" spans="1:23">
+    <row r="175" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="B175" s="2">
         <v>167</v>
@@ -13383,7 +12785,7 @@
         <v>200005</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="K175" s="2">
         <v>167</v>
@@ -13401,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="Q175" s="2">
         <v>125</v>
@@ -13423,16 +12825,16 @@
         <v>0</v>
       </c>
       <c r="V175" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="W175" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=146276},{type=5,value=36574},{type=6,value=36574}}</v>
       </c>
     </row>
-    <row r="176" ht="12" spans="1:23">
+    <row r="176" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>372</v>
+        <v>197</v>
       </c>
       <c r="B176" s="2">
         <v>168</v>
@@ -13445,7 +12847,7 @@
         <v>200005</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="K176" s="2">
         <v>168</v>
@@ -13463,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="Q176" s="2">
         <v>125</v>
@@ -13485,16 +12887,16 @@
         <v>0</v>
       </c>
       <c r="V176" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="W176" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=147744},{type=5,value=36941},{type=6,value=36941}}</v>
       </c>
     </row>
-    <row r="177" ht="12" spans="1:23">
+    <row r="177" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="B177" s="2">
         <v>169</v>
@@ -13507,7 +12909,7 @@
         <v>200005</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="K177" s="2">
         <v>169</v>
@@ -13525,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="Q177" s="2">
         <v>125</v>
@@ -13547,16 +12949,16 @@
         <v>0</v>
       </c>
       <c r="V177" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="W177" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=149212},{type=5,value=37308},{type=6,value=37308}}</v>
       </c>
     </row>
-    <row r="178" ht="12" spans="1:23">
+    <row r="178" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>376</v>
+        <v>199</v>
       </c>
       <c r="B178" s="2">
         <v>170</v>
@@ -13569,7 +12971,7 @@
         <v>200005</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="K178" s="2">
         <v>170</v>
@@ -13587,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="P178" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="Q178" s="2">
         <v>125</v>
@@ -13609,16 +13011,16 @@
         <v>0</v>
       </c>
       <c r="V178" s="2">
-        <v>6606</v>
+        <v>6606.0000000000009</v>
       </c>
       <c r="W178" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=150680},{type=5,value=37675},{type=6,value=37675}}</v>
       </c>
     </row>
-    <row r="179" ht="12" spans="1:23">
+    <row r="179" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>378</v>
+        <v>200</v>
       </c>
       <c r="B179" s="2">
         <v>171</v>
@@ -13631,7 +13033,7 @@
         <v>200005</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="K179" s="2">
         <v>171</v>
@@ -13649,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="Q179" s="2">
         <v>130</v>
@@ -13671,16 +13073,16 @@
         <v>0</v>
       </c>
       <c r="V179" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="W179" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=152208},{type=5,value=38057},{type=6,value=38057}}</v>
       </c>
     </row>
-    <row r="180" ht="12" spans="1:23">
+    <row r="180" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="B180" s="2">
         <v>172</v>
@@ -13693,7 +13095,7 @@
         <v>200005</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K180" s="2">
         <v>172</v>
@@ -13711,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="Q180" s="2">
         <v>130</v>
@@ -13733,16 +13135,16 @@
         <v>0</v>
       </c>
       <c r="V180" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="W180" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=153736},{type=5,value=38439},{type=6,value=38439}}</v>
       </c>
     </row>
-    <row r="181" ht="12" spans="1:23">
+    <row r="181" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="B181" s="2">
         <v>173</v>
@@ -13755,7 +13157,7 @@
         <v>200005</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="K181" s="2">
         <v>173</v>
@@ -13773,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="Q181" s="2">
         <v>130</v>
@@ -13795,16 +13197,16 @@
         <v>0</v>
       </c>
       <c r="V181" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="W181" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=155264},{type=5,value=38821},{type=6,value=38821}}</v>
       </c>
     </row>
-    <row r="182" ht="12" spans="1:23">
+    <row r="182" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
-        <v>384</v>
+        <v>203</v>
       </c>
       <c r="B182" s="2">
         <v>174</v>
@@ -13817,7 +13219,7 @@
         <v>200005</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="K182" s="2">
         <v>174</v>
@@ -13835,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="Q182" s="2">
         <v>130</v>
@@ -13857,16 +13259,16 @@
         <v>0</v>
       </c>
       <c r="V182" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="W182" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=156792},{type=5,value=39203},{type=6,value=39203}}</v>
       </c>
     </row>
-    <row r="183" ht="12" spans="1:23">
+    <row r="183" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
-        <v>386</v>
+        <v>204</v>
       </c>
       <c r="B183" s="2">
         <v>175</v>
@@ -13879,7 +13281,7 @@
         <v>200005</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="K183" s="2">
         <v>175</v>
@@ -13897,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="Q183" s="2">
         <v>130</v>
@@ -13919,16 +13321,16 @@
         <v>0</v>
       </c>
       <c r="V183" s="2">
-        <v>6876</v>
+        <v>6876.0000000000009</v>
       </c>
       <c r="W183" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=158320},{type=5,value=39585},{type=6,value=39585}}</v>
       </c>
     </row>
-    <row r="184" ht="12" spans="1:23">
+    <row r="184" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
-        <v>388</v>
+        <v>205</v>
       </c>
       <c r="B184" s="2">
         <v>176</v>
@@ -13941,7 +13343,7 @@
         <v>200005</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="K184" s="2">
         <v>176</v>
@@ -13988,9 +13390,9 @@
         <v>{{type=4,value=159876},{type=5,value=39974},{type=6,value=39974}}</v>
       </c>
     </row>
-    <row r="185" ht="12" spans="1:23">
+    <row r="185" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
       <c r="B185" s="2">
         <v>177</v>
@@ -14003,7 +13405,7 @@
         <v>200005</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K185" s="2">
         <v>177</v>
@@ -14050,9 +13452,9 @@
         <v>{{type=4,value=161432},{type=5,value=40363},{type=6,value=40363}}</v>
       </c>
     </row>
-    <row r="186" ht="12" spans="1:23">
+    <row r="186" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>392</v>
+        <v>207</v>
       </c>
       <c r="B186" s="2">
         <v>178</v>
@@ -14065,7 +13467,7 @@
         <v>200005</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="K186" s="2">
         <v>178</v>
@@ -14112,9 +13514,9 @@
         <v>{{type=4,value=162988},{type=5,value=40752},{type=6,value=40752}}</v>
       </c>
     </row>
-    <row r="187" ht="12" spans="1:23">
+    <row r="187" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="B187" s="2">
         <v>179</v>
@@ -14127,7 +13529,7 @@
         <v>200005</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="K187" s="2">
         <v>179</v>
@@ -14174,9 +13576,9 @@
         <v>{{type=4,value=164544},{type=5,value=41141},{type=6,value=41141}}</v>
       </c>
     </row>
-    <row r="188" ht="12" spans="1:23">
+    <row r="188" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
-        <v>396</v>
+        <v>209</v>
       </c>
       <c r="B188" s="2">
         <v>180</v>
@@ -14189,7 +13591,7 @@
         <v>200005</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="K188" s="2">
         <v>180</v>
@@ -14236,9 +13638,9 @@
         <v>{{type=4,value=166100},{type=5,value=41530},{type=6,value=41530}}</v>
       </c>
     </row>
-    <row r="189" ht="12" spans="1:23">
+    <row r="189" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="B189" s="2">
         <v>181</v>
@@ -14251,7 +13653,7 @@
         <v>200005</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="K189" s="2">
         <v>181</v>
@@ -14269,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="Q189" s="2">
         <v>140</v>
@@ -14291,16 +13693,16 @@
         <v>0</v>
       </c>
       <c r="V189" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="W189" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=167684},{type=5,value=41926},{type=6,value=41926}}</v>
       </c>
     </row>
-    <row r="190" ht="12" spans="1:23">
+    <row r="190" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="B190" s="2">
         <v>182</v>
@@ -14313,7 +13715,7 @@
         <v>200005</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="K190" s="2">
         <v>182</v>
@@ -14331,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="Q190" s="2">
         <v>140</v>
@@ -14353,16 +13755,16 @@
         <v>0</v>
       </c>
       <c r="V190" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="W190" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=169268},{type=5,value=42322},{type=6,value=42322}}</v>
       </c>
     </row>
-    <row r="191" ht="12" spans="1:23">
+    <row r="191" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>402</v>
+        <v>212</v>
       </c>
       <c r="B191" s="2">
         <v>183</v>
@@ -14375,7 +13777,7 @@
         <v>200005</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="K191" s="2">
         <v>183</v>
@@ -14393,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="Q191" s="2">
         <v>140</v>
@@ -14415,16 +13817,16 @@
         <v>0</v>
       </c>
       <c r="V191" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="W191" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=170852},{type=5,value=42718},{type=6,value=42718}}</v>
       </c>
     </row>
-    <row r="192" ht="12" spans="1:23">
+    <row r="192" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="B192" s="2">
         <v>184</v>
@@ -14437,7 +13839,7 @@
         <v>200005</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="K192" s="2">
         <v>184</v>
@@ -14455,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="Q192" s="2">
         <v>140</v>
@@ -14477,16 +13879,16 @@
         <v>0</v>
       </c>
       <c r="V192" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="W192" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=172436},{type=5,value=43114},{type=6,value=43114}}</v>
       </c>
     </row>
-    <row r="193" ht="12" spans="1:23">
+    <row r="193" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>406</v>
+        <v>214</v>
       </c>
       <c r="B193" s="2">
         <v>185</v>
@@ -14499,7 +13901,7 @@
         <v>200005</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="K193" s="2">
         <v>185</v>
@@ -14517,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="Q193" s="2">
         <v>140</v>
@@ -14539,16 +13941,16 @@
         <v>0</v>
       </c>
       <c r="V193" s="2">
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="W193" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=174020},{type=5,value=43510},{type=6,value=43510}}</v>
       </c>
     </row>
-    <row r="194" ht="12" spans="1:23">
+    <row r="194" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>408</v>
+        <v>215</v>
       </c>
       <c r="B194" s="2">
         <v>186</v>
@@ -14561,7 +13963,7 @@
         <v>200005</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="K194" s="2">
         <v>186</v>
@@ -14579,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="Q194" s="2">
         <v>145</v>
@@ -14601,16 +14003,16 @@
         <v>0</v>
       </c>
       <c r="V194" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="W194" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=175628},{type=5,value=43912},{type=6,value=43912}}</v>
       </c>
     </row>
-    <row r="195" ht="12" spans="1:23">
+    <row r="195" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="B195" s="2">
         <v>187</v>
@@ -14623,7 +14025,7 @@
         <v>200005</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="K195" s="2">
         <v>187</v>
@@ -14641,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="Q195" s="2">
         <v>145</v>
@@ -14663,16 +14065,16 @@
         <v>0</v>
       </c>
       <c r="V195" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="W195" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=177236},{type=5,value=44314},{type=6,value=44314}}</v>
       </c>
     </row>
-    <row r="196" ht="12" spans="1:23">
+    <row r="196" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
-        <v>412</v>
+        <v>217</v>
       </c>
       <c r="B196" s="2">
         <v>188</v>
@@ -14685,7 +14087,7 @@
         <v>200005</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="K196" s="2">
         <v>188</v>
@@ -14703,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="Q196" s="2">
         <v>145</v>
@@ -14725,16 +14127,16 @@
         <v>0</v>
       </c>
       <c r="V196" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="W196" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=178844},{type=5,value=44716},{type=6,value=44716}}</v>
       </c>
     </row>
-    <row r="197" ht="12" spans="1:23">
+    <row r="197" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>414</v>
+        <v>218</v>
       </c>
       <c r="B197" s="2">
         <v>189</v>
@@ -14747,7 +14149,7 @@
         <v>200005</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="K197" s="2">
         <v>189</v>
@@ -14765,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="Q197" s="2">
         <v>145</v>
@@ -14787,16 +14189,16 @@
         <v>0</v>
       </c>
       <c r="V197" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="W197" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=180452},{type=5,value=45118},{type=6,value=45118}}</v>
       </c>
     </row>
-    <row r="198" ht="12" spans="1:23">
+    <row r="198" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>416</v>
+        <v>219</v>
       </c>
       <c r="B198" s="2">
         <v>190</v>
@@ -14809,7 +14211,7 @@
         <v>200005</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="K198" s="2">
         <v>190</v>
@@ -14827,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="Q198" s="2">
         <v>145</v>
@@ -14849,16 +14251,16 @@
         <v>0</v>
       </c>
       <c r="V198" s="2">
-        <v>7236</v>
+        <v>7236.0000000000009</v>
       </c>
       <c r="W198" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=182060},{type=5,value=45520},{type=6,value=45520}}</v>
       </c>
     </row>
-    <row r="199" ht="12" spans="1:23">
+    <row r="199" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
-        <v>418</v>
+        <v>220</v>
       </c>
       <c r="B199" s="2">
         <v>191</v>
@@ -14871,7 +14273,7 @@
         <v>200005</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="K199" s="2">
         <v>191</v>
@@ -14889,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="Q199" s="2">
         <v>150</v>
@@ -14911,16 +14313,16 @@
         <v>0</v>
       </c>
       <c r="V199" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="W199" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=183692},{type=5,value=45928},{type=6,value=45928}}</v>
       </c>
     </row>
-    <row r="200" ht="12" spans="1:23">
+    <row r="200" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
-        <v>420</v>
+        <v>221</v>
       </c>
       <c r="B200" s="2">
         <v>192</v>
@@ -14933,7 +14335,7 @@
         <v>200005</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="K200" s="2">
         <v>192</v>
@@ -14951,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="Q200" s="2">
         <v>150</v>
@@ -14973,16 +14375,16 @@
         <v>0</v>
       </c>
       <c r="V200" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="W200" s="18" t="str">
         <f t="shared" si="6"/>
         <v>{{type=4,value=185324},{type=5,value=46336},{type=6,value=46336}}</v>
       </c>
     </row>
-    <row r="201" ht="12" spans="1:23">
+    <row r="201" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="B201" s="2">
         <v>193</v>
@@ -14995,7 +14397,7 @@
         <v>200005</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="K201" s="2">
         <v>193</v>
@@ -15013,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="Q201" s="2">
         <v>150</v>
@@ -15035,16 +14437,16 @@
         <v>0</v>
       </c>
       <c r="V201" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="W201" s="18" t="str">
         <f t="shared" ref="W201:W208" si="9">"{{type=4,value="&amp;R201&amp;"},{type=5,value="&amp;S201&amp;"},{type=6,value="&amp;T201&amp;"}}"</f>
         <v>{{type=4,value=186956},{type=5,value=46744},{type=6,value=46744}}</v>
       </c>
     </row>
-    <row r="202" ht="12" spans="1:23">
+    <row r="202" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
-        <v>424</v>
+        <v>223</v>
       </c>
       <c r="B202" s="2">
         <v>194</v>
@@ -15057,7 +14459,7 @@
         <v>200005</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="K202" s="2">
         <v>194</v>
@@ -15075,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="Q202" s="2">
         <v>150</v>
@@ -15097,16 +14499,16 @@
         <v>0</v>
       </c>
       <c r="V202" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="W202" s="18" t="str">
         <f t="shared" si="9"/>
         <v>{{type=4,value=188588},{type=5,value=47152},{type=6,value=47152}}</v>
       </c>
     </row>
-    <row r="203" ht="12" spans="1:23">
+    <row r="203" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
-        <v>426</v>
+        <v>224</v>
       </c>
       <c r="B203" s="2">
         <v>195</v>
@@ -15119,7 +14521,7 @@
         <v>200005</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="K203" s="2">
         <v>195</v>
@@ -15137,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="Q203" s="2">
         <v>150</v>
@@ -15159,16 +14561,16 @@
         <v>0</v>
       </c>
       <c r="V203" s="2">
-        <v>7344</v>
+        <v>7343.9999999999991</v>
       </c>
       <c r="W203" s="18" t="str">
         <f t="shared" si="9"/>
         <v>{{type=4,value=190220},{type=5,value=47560},{type=6,value=47560}}</v>
       </c>
     </row>
-    <row r="204" ht="12" spans="1:23">
+    <row r="204" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>428</v>
+        <v>225</v>
       </c>
       <c r="B204" s="2">
         <v>196</v>
@@ -15181,7 +14583,7 @@
         <v>200005</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K204" s="2">
         <v>196</v>
@@ -15228,9 +14630,9 @@
         <v>{{type=4,value=191876},{type=5,value=47974},{type=6,value=47974}}</v>
       </c>
     </row>
-    <row r="205" ht="12" spans="1:23">
+    <row r="205" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>430</v>
+        <v>226</v>
       </c>
       <c r="B205" s="2">
         <v>197</v>
@@ -15243,7 +14645,7 @@
         <v>200005</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="K205" s="2">
         <v>197</v>
@@ -15290,9 +14692,9 @@
         <v>{{type=4,value=193532},{type=5,value=48388},{type=6,value=48388}}</v>
       </c>
     </row>
-    <row r="206" ht="12" spans="1:23">
+    <row r="206" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>432</v>
+        <v>227</v>
       </c>
       <c r="B206" s="2">
         <v>198</v>
@@ -15305,7 +14707,7 @@
         <v>200005</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="K206" s="2">
         <v>198</v>
@@ -15352,9 +14754,9 @@
         <v>{{type=4,value=195188},{type=5,value=48802},{type=6,value=48802}}</v>
       </c>
     </row>
-    <row r="207" ht="12" spans="1:23">
+    <row r="207" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>434</v>
+        <v>228</v>
       </c>
       <c r="B207" s="2">
         <v>199</v>
@@ -15367,7 +14769,7 @@
         <v>200005</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="K207" s="2">
         <v>199</v>
@@ -15414,9 +14816,9 @@
         <v>{{type=4,value=196844},{type=5,value=49216},{type=6,value=49216}}</v>
       </c>
     </row>
-    <row r="208" ht="12" spans="1:23">
+    <row r="208" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
       <c r="B208" s="2">
         <v>200</v>
@@ -15429,7 +14831,7 @@
         <v>200005</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="K208" s="2">
         <v>200</v>
@@ -15476,9 +14878,9 @@
         <v>{{type=4,value=198500},{type=5,value=49630},{type=6,value=49630}}</v>
       </c>
     </row>
-    <row r="209" ht="12" spans="1:6">
+    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
       <c r="B209" s="2">
         <v>201</v>
@@ -15491,37 +14893,36 @@
         <v>200005</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58" style="2" customWidth="1"/>
+    <col min="6" max="6" width="58" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15533,15 +14934,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>439</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -15551,7 +14952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -15562,7 +14963,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -15576,19 +14977,19 @@
         <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>441</v>
+        <v>233</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -15608,56 +15009,56 @@
         <v>14</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>444</v>
+        <v>235</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>445</v>
+        <v>236</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>446</v>
+        <v>237</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>447</v>
+        <v>238</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>448</v>
+        <v>239</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="12" spans="2:16">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="16">
         <v>0</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D8" s="17">
         <v>2</v>
@@ -15666,7 +15067,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="G8" s="19">
         <v>6</v>
@@ -15694,12 +15095,12 @@
         <v>{{type=4,value=0},{type=5,value=0},{type=6,value=0}}</v>
       </c>
     </row>
-    <row r="9" ht="12" spans="2:16">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
@@ -15708,7 +15109,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G9" s="19">
         <v>8</v>
@@ -15736,12 +15137,12 @@
         <v>{{type=4,value=324},{type=5,value=81},{type=6,value=81}}</v>
       </c>
     </row>
-    <row r="10" ht="12" spans="2:16">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="20">
         <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -15750,7 +15151,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="G10" s="19">
         <v>10</v>
@@ -15778,12 +15179,12 @@
         <v>{{type=4,value=912},{type=5,value=228},{type=6,value=228}}</v>
       </c>
     </row>
-    <row r="11" ht="12" spans="2:16">
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="20">
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
@@ -15820,12 +15221,12 @@
         <v>{{type=4,value=1593},{type=5,value=399},{type=6,value=399}}</v>
       </c>
     </row>
-    <row r="12" ht="12" spans="2:16">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="20">
         <v>4</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D12" s="17">
         <v>3</v>
@@ -15862,12 +15263,12 @@
         <v>{{type=4,value=2322},{type=5,value=581},{type=6,value=581}}</v>
       </c>
     </row>
-    <row r="13" ht="12" spans="2:16">
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="20">
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D13" s="17">
         <v>4</v>
@@ -15904,12 +15305,12 @@
         <v>{{type=4,value=3084},{type=5,value=771},{type=6,value=771}}</v>
       </c>
     </row>
-    <row r="14" ht="12" spans="2:16">
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="20">
         <v>6</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D14" s="17">
         <v>4</v>
@@ -15946,12 +15347,12 @@
         <v>{{type=4,value=3930},{type=5,value=983},{type=6,value=983}}</v>
       </c>
     </row>
-    <row r="15" ht="12" spans="2:16">
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
         <v>7</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D15" s="17">
         <v>5</v>
@@ -15988,12 +15389,12 @@
         <v>{{type=4,value=4881},{type=5,value=1221},{type=6,value=1221}}</v>
       </c>
     </row>
-    <row r="16" ht="12" spans="2:16">
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="20">
         <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D16" s="17">
         <v>5</v>
@@ -16030,12 +15431,12 @@
         <v>{{type=4,value=6078},{type=5,value=1520},{type=6,value=1520}}</v>
       </c>
     </row>
-    <row r="17" ht="12" spans="2:16">
+    <row r="17" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="20">
         <v>9</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D17" s="17">
         <v>6</v>
@@ -16072,12 +15473,12 @@
         <v>{{type=4,value=7494},{type=5,value=1874},{type=6,value=1874}}</v>
       </c>
     </row>
-    <row r="18" ht="12" spans="2:16">
+    <row r="18" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="20">
         <v>10</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D18" s="17">
         <v>6</v>
@@ -16114,12 +15515,12 @@
         <v>{{type=4,value=9078},{type=5,value=2270},{type=6,value=2270}}</v>
       </c>
     </row>
-    <row r="19" ht="12" spans="2:16">
+    <row r="19" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="20">
         <v>11</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D19" s="17">
         <v>7</v>
@@ -16156,12 +15557,12 @@
         <v>{{type=4,value=10785},{type=5,value=2697},{type=6,value=2697}}</v>
       </c>
     </row>
-    <row r="20" ht="12" spans="2:16">
+    <row r="20" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <v>12</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D20" s="17">
         <v>7</v>
@@ -16198,12 +15599,12 @@
         <v>{{type=4,value=12579},{type=5,value=3145},{type=6,value=3145}}</v>
       </c>
     </row>
-    <row r="21" ht="12" spans="2:16">
+    <row r="21" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="20">
         <v>13</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D21" s="17">
         <v>8</v>
@@ -16240,12 +15641,12 @@
         <v>{{type=4,value=14430},{type=5,value=3608},{type=6,value=3608}}</v>
       </c>
     </row>
-    <row r="22" ht="12" spans="2:16">
+    <row r="22" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="20">
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D22" s="17">
         <v>8</v>
@@ -16282,12 +15683,12 @@
         <v>{{type=4,value=16305},{type=5,value=4077},{type=6,value=4077}}</v>
       </c>
     </row>
-    <row r="23" ht="12" spans="2:16">
+    <row r="23" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="20">
         <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D23" s="17">
         <v>9</v>
@@ -16324,12 +15725,12 @@
         <v>{{type=4,value=18336},{type=5,value=4584},{type=6,value=4584}}</v>
       </c>
     </row>
-    <row r="24" ht="12" spans="2:16">
+    <row r="24" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="20">
         <v>16</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D24" s="17">
         <v>9</v>
@@ -16366,12 +15767,12 @@
         <v>{{type=4,value=20436},{type=5,value=5109},{type=6,value=5109}}</v>
       </c>
     </row>
-    <row r="25" ht="12" spans="2:16">
+    <row r="25" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="20">
         <v>17</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D25" s="17">
         <v>10</v>
@@ -16408,12 +15809,12 @@
         <v>{{type=4,value=22593},{type=5,value=5649},{type=6,value=5649}}</v>
       </c>
     </row>
-    <row r="26" ht="12" spans="2:16">
+    <row r="26" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="20">
         <v>18</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D26" s="17">
         <v>10</v>
@@ -16450,12 +15851,12 @@
         <v>{{type=4,value=24906},{type=5,value=6227},{type=6,value=6227}}</v>
       </c>
     </row>
-    <row r="27" ht="12" spans="2:16">
+    <row r="27" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="20">
         <v>19</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D27" s="17">
         <v>11</v>
@@ -16492,12 +15893,12 @@
         <v>{{type=4,value=27300},{type=5,value=6825},{type=6,value=6825}}</v>
       </c>
     </row>
-    <row r="28" ht="12" spans="2:16">
+    <row r="28" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="20">
         <v>20</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="D28" s="17">
         <v>11</v>
@@ -16535,8 +15936,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>